--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\党\东方工作\期权业务\期权每日交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="132" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300分红" sheetId="6" r:id="rId1"/>
@@ -2018,9 +2018,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="###,###,##0.00000"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -4343,27 +4343,27 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4373,7 +4373,7 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4394,12 +4394,12 @@
     <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4418,10 +4418,10 @@
     <xf numFmtId="10" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -5304,31 +5304,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>613</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>239</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>531</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>467</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>593</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>515</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>517</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>367</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>491</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>185</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>275</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>165</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>590</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>345</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>503</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>425</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>523</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>473</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>560</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>595</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>586</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>383</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>578</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>246</v>
       </c>
@@ -6857,28 +6857,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>602</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>599</v>
       </c>
@@ -6942,14 +6942,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="E36" s="3"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>621</v>
       </c>
@@ -6962,28 +6962,28 @@
       <c r="E37" s="3"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>603</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>599</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>439</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>375</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>189</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>419</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>199</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>132</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>191</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>195</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>140</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>622</v>
       </c>
@@ -7763,14 +7763,14 @@
       <c r="E54" s="3"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>604</v>
       </c>
@@ -7778,7 +7778,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>599</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>556</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>183</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>339</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>562</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>122</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>389</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>542</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>415</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>387</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>15</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>149</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>519</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>333</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>157</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>181</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>2.9154518548137084E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>35</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>427</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>549</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>134</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>558</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>3.0883262643121665E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>580</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>347</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>568</v>
       </c>
@@ -9690,13 +9690,13 @@
         <f>C84*L84*[1]!s_dq_close("000300.SH",I84,1)</f>
         <v>1.9660733721740997E-3</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="4" t="str">
         <f>[1]!s_div_ifdiv(A84,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+        <v>是</v>
+      </c>
+      <c r="F84" s="3" t="str">
         <f>[1]!s_div_progress(A84,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G84" s="3">
         <f>[1]!s_div_exdate(A84,"2017/12/31")</f>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>138</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>255</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>353</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>287</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>566</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>313</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>267</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>538</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>622</v>
       </c>
@@ -10323,35 +10323,35 @@
         <v>8.4139241531868336</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="E95" s="3"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="E96" s="3"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="E97" s="3"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="E98" s="3"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>605</v>
       </c>
@@ -10359,7 +10359,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>599</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>465</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>249</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>57</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>87</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>71</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>159</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>205</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>144</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>147</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>481</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>361</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>197</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>281</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>175</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>554</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>59</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>283</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>211</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>207</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>104</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>305</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>269</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>303</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>397</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>95</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>257</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>329</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>112</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>399</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>277</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>27</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>120</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>285</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>363</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>237</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>293</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>67</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>171</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>61</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>146</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>311</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>155</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>457</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>8.2766468244600457E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>291</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>93</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>403</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>301</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>126</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>233</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>431</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>219</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>242</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>106</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>534</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>187</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>335</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>349</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>327</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>223</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>261</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>483</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>253</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>128</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>511</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>479</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>564</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>13</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>413</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>63</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>167</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>19</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>201</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>391</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>544</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>622</v>
       </c>
@@ -16093,14 +16093,14 @@
         <v>19.717349379015364</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
       <c r="E186" s="3"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>606</v>
       </c>
@@ -16108,7 +16108,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="14"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>599</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>37</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>173</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>39</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>69</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>124</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>89</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>337</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>53</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>43</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>507</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>501</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>8.7010077258333346E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>307</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>341</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>161</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>309</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>241</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>221</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>179</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>244</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>315</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>235</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>279</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>525</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>321</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>409</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>110</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>437</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>521</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>572</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>497</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>546</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>331</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>177</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>371</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>49</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>509</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>47</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>499</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>65</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="27" t="s">
         <v>576</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>317</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>215</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>1.4925373112124938E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>98</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>153</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>533</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>297</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>582</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>323</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>451</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>552</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>570</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>421</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>85</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>81</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="27" t="s">
         <v>299</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>417</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>369</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>449</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>8.9814994522222878E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>463</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>108</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
         <v>169</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="27" t="s">
         <v>142</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>136</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>433</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>33</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>295</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>203</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>51</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>114</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>447</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>91</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>357</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>475</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>55</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>393</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>529</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>485</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>471</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>265</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>351</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>373</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>423</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>23</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
         <v>289</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>151</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>395</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>584</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>31</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>411</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
         <v>25</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>130</v>
       </c>
@@ -22893,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>217</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>477</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>102</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>377</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
         <v>540</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>225</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>1.7094018301630928E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>435</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>495</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>489</v>
       </c>
@@ -23530,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>443</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>445</v>
       </c>
@@ -23672,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>355</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -23752,7 +23752,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -23761,7 +23761,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>622</v>
       </c>
@@ -23775,7 +23775,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -23784,14 +23784,14 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="E300" s="3"/>
       <c r="F300" s="13"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>607</v>
       </c>
@@ -23799,7 +23799,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="14"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>599</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="27" t="s">
         <v>597</v>
       </c>
@@ -23924,7 +23924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>17</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>2.016128982969928E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>407</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>365</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>2.3696682712425208E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>319</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>325</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>536</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>588</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>263</v>
       </c>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>405</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>227</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>505</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>381</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>527</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>429</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>359</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>469</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>401</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>459</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>379</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>163</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>513</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>461</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>487</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>77</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>273</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>455</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>259</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>441</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>493</v>
       </c>
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>453</v>
       </c>
@@ -26052,7 +26052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>247</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>229</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>73</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>343</v>
       </c>
@@ -26336,21 +26336,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="E338" s="3"/>
       <c r="F338" s="13"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="E339" s="3"/>
       <c r="F339" s="13"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
         <v>622</v>
       </c>
@@ -26363,28 +26363,28 @@
       <c r="E340" s="3"/>
       <c r="F340" s="13"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="E341" s="3"/>
       <c r="F341" s="13"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="E342" s="3"/>
       <c r="F342" s="13"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="E343" s="3"/>
       <c r="F343" s="13"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>620</v>
       </c>
@@ -26392,7 +26392,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="14"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>599</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>209</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>231</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>2.5641025620848873E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>116</v>
       </c>
@@ -26661,7 +26661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>385</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>11</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>0</v>
       </c>
@@ -26874,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="19" t="s">
         <v>622</v>
       </c>
@@ -26883,7 +26883,7 @@
         <v>2.5738946406401024</v>
       </c>
     </row>
-    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="26" t="s">
         <v>636</v>
       </c>
@@ -26902,7 +26902,7 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
     </row>
-    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>620</v>
       </c>
@@ -26921,7 +26921,7 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
     </row>
-    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>599</v>
       </c>
@@ -26958,7 +26958,7 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
     </row>
-    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>449</v>
       </c>
@@ -27001,7 +27001,7 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
     </row>
-    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>501</v>
       </c>
@@ -27044,7 +27044,7 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
     </row>
-    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>225</v>
       </c>
@@ -27087,7 +27087,7 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
     </row>
-    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -27106,7 +27106,7 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
     </row>
-    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>622</v>
       </c>
@@ -27128,7 +27128,7 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
     </row>
-    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>632</v>
       </c>
@@ -27147,7 +27147,7 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>599</v>
       </c>
@@ -27184,7 +27184,7 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>215</v>
       </c>
@@ -27227,7 +27227,7 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>17</v>
       </c>
@@ -27270,7 +27270,7 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>457</v>
       </c>
@@ -27313,7 +27313,7 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
     </row>
-    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>622</v>
       </c>
@@ -27335,7 +27335,7 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
     </row>
-    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>633</v>
       </c>
@@ -27354,7 +27354,7 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
     </row>
-    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>599</v>
       </c>
@@ -27391,7 +27391,7 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
     </row>
-    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>231</v>
       </c>
@@ -27434,7 +27434,7 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="19" t="s">
         <v>622</v>
       </c>
@@ -27456,7 +27456,7 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>634</v>
       </c>
@@ -27475,7 +27475,7 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>599</v>
       </c>
@@ -27512,7 +27512,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
     </row>
-    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>365</v>
       </c>
@@ -27555,7 +27555,7 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
     </row>
-    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>4</v>
       </c>
@@ -27598,7 +27598,7 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
     </row>
-    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>558</v>
       </c>
@@ -27641,7 +27641,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
     </row>
-    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -27660,7 +27660,7 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
     </row>
-    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
         <v>622</v>
       </c>
@@ -27682,7 +27682,7 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
     </row>
-    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="20" t="s">
         <v>637</v>
       </c>
@@ -27708,7 +27708,7 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
     </row>
-    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
         <v>623</v>
       </c>
@@ -27737,7 +27737,7 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
     </row>
-    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
         <v>624</v>
       </c>
@@ -27766,7 +27766,7 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
     </row>
-    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
         <v>626</v>
       </c>
@@ -27795,7 +27795,7 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
     </row>
-    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
         <v>627</v>
       </c>
@@ -27824,7 +27824,7 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
     </row>
-    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
         <v>628</v>
       </c>
@@ -27853,7 +27853,7 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
     </row>
-    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
         <v>629</v>
       </c>
@@ -27882,7 +27882,7 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
     </row>
-    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
         <v>630</v>
       </c>
@@ -27912,7 +27912,7 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
     </row>
-    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
         <v>641</v>
       </c>
@@ -27941,7 +27941,7 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
     </row>
-    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
         <v>640</v>
       </c>
@@ -27970,7 +27970,7 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
     </row>
-    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
         <v>642</v>
       </c>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5304,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I7" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A7,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>1452957900</v>
       </c>
       <c r="J7" s="23" t="str">
         <f>[1]!s_div_ifdiv(A7,"2017/06/30")</f>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="F45" s="24" t="str">
         <f>[1]!s_div_progress(A45,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G45" s="24">
         <f>[1]!s_div_exdate(A45,"2017/12/31")</f>
@@ -9676,73 +9676,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="28">
         <v>1.201E-3</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="29">
         <f>C84*L84*[1]!s_dq_close("000300.SH",I84,1)</f>
-        <v>1.9660733721740997E-3</v>
-      </c>
-      <c r="E84" s="4" t="str">
+        <v>1.8752634495817377E-2</v>
+      </c>
+      <c r="E84" s="24" t="str">
         <f>[1]!s_div_ifdiv(A84,"2017/12/31")</f>
         <v>是</v>
       </c>
-      <c r="F84" s="3" t="str">
+      <c r="F84" s="24" t="str">
         <f>[1]!s_div_progress(A84,"20171231")</f>
         <v>董事会预案</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="24">
         <f>[1]!s_div_exdate(A84,"2017/12/31")</f>
         <v>0</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="24">
         <f>[1]!s_div_ifdiv(A84,"2018/06/30")</f>
         <v>0</v>
       </c>
-      <c r="I84" s="3" t="str">
-        <f>[1]!s_div_recorddate(A84,"2016/12/31")</f>
-        <v>2017-05-12</v>
-      </c>
-      <c r="J84" s="13">
-        <f>[1]!s_div_cashbeforetax(A84,"2016/12/31")</f>
-        <v>0.01</v>
-      </c>
-      <c r="K84" s="14">
+      <c r="I84" s="34">
+        <v>43179</v>
+      </c>
+      <c r="J84" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="K84" s="30">
         <f>[1]!s_dq_close(A84,I84,3)</f>
-        <v>20.680000432557414</v>
-      </c>
-      <c r="L84" s="6">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="L84" s="28">
         <f t="shared" si="5"/>
-        <v>4.8355898408283251E-4</v>
-      </c>
-      <c r="M84" s="10">
+        <v>3.8291605301914579E-3</v>
+      </c>
+      <c r="M84" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A84,"2017/12/31",1)</f>
         <v>432275400.68000001</v>
       </c>
-      <c r="N84" s="23" t="str">
+      <c r="N84" s="32" t="str">
         <f>[1]!s_div_ifdiv(A84,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="24">
         <f>[1]!s_div_recorddate(A84,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="30">
         <f>[1]!s_div_cashbeforetax(A84,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q84" s="30">
         <f>[1]!s_dq_close(A84,O84,3)</f>
         <v>9.3156917571714501</v>
       </c>
-      <c r="R84" s="6">
+      <c r="R84" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10320,7 +10318,7 @@
       </c>
       <c r="D94" s="22">
         <f>SUM(D58:D92)</f>
-        <v>8.4139241531868336</v>
+        <v>8.4307107143104769</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -11267,73 +11265,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="28">
         <v>2.039E-3</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="29">
         <f>C113*L113*[1]!s_dq_close("000300.SH",I113,1)</f>
-        <v>9.8876694673146082E-2</v>
-      </c>
-      <c r="E113" s="4">
+        <v>0.16552627291442307</v>
+      </c>
+      <c r="E113" s="24" t="str">
         <f>[1]!s_div_ifdiv(A113,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
+        <v>是</v>
+      </c>
+      <c r="F113" s="24" t="str">
         <f>[1]!s_div_progress(A113,"20171231")</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
+        <v>董事会预案</v>
+      </c>
+      <c r="G113" s="24">
         <f>[1]!s_div_exdate(A113,"2017/12/31")</f>
         <v>0</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="24">
         <f>[1]!s_div_ifdiv(A113,"2018/06/30")</f>
         <v>0</v>
       </c>
-      <c r="I113" s="3" t="str">
-        <f>[1]!s_div_recorddate(A113,"2016/12/31")</f>
-        <v>2017-05-25</v>
-      </c>
-      <c r="J113" s="13">
-        <f>[1]!s_div_cashbeforetax(A113,"2016/12/31")</f>
-        <v>0.25</v>
-      </c>
-      <c r="K113" s="14">
+      <c r="I113" s="34">
+        <v>43181</v>
+      </c>
+      <c r="J113" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="K113" s="30">
         <f>[1]!s_dq_close(A113,I113,3)</f>
-        <v>17.970000133485094</v>
-      </c>
-      <c r="L113" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="L113" s="28">
         <f t="shared" si="7"/>
-        <v>1.3912075578349765E-2</v>
-      </c>
-      <c r="M113" s="10">
+        <v>2.019230769230769E-2</v>
+      </c>
+      <c r="M113" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A113,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="N113" s="23" t="str">
+      <c r="N113" s="32" t="str">
         <f>[1]!s_div_ifdiv(A113,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="O113" s="3">
+      <c r="O113" s="24">
         <f>[1]!s_div_recorddate(A113,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="P113" s="13">
+      <c r="P113" s="30">
         <f>[1]!s_div_cashbeforetax(A113,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="Q113" s="14">
+      <c r="Q113" s="30">
         <f>[1]!s_dq_close(A113,O113,3)</f>
         <v>1.5871105483791121</v>
       </c>
-      <c r="R113" s="6">
+      <c r="R113" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -12768,13 +12764,13 @@
         <f>C134*L134*[1]!s_dq_close("000300.SH",I134,1)</f>
         <v>0.17801932392368267</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="4" t="str">
         <f>[1]!s_div_ifdiv(A134,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F134" s="3">
+        <v>是</v>
+      </c>
+      <c r="F134" s="3" t="str">
         <f>[1]!s_div_progress(A134,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G134" s="3">
         <f>[1]!s_div_exdate(A134,"2017/12/31")</f>
@@ -15392,13 +15388,13 @@
         <f>C171*L171*[1]!s_dq_close("000300.SH",I171,1)</f>
         <v>0.1205194645777992</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="4" t="str">
         <f>[1]!s_div_ifdiv(A171,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F171" s="3">
+        <v>是</v>
+      </c>
+      <c r="F171" s="3" t="str">
         <f>[1]!s_div_progress(A171,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G171" s="3">
         <f>[1]!s_div_exdate(A171,"2017/12/31")</f>
@@ -16090,7 +16086,7 @@
       </c>
       <c r="D183" s="22">
         <f>SUM(D101:D180)</f>
-        <v>19.717349379015364</v>
+        <v>19.783998957256642</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -16675,13 +16671,13 @@
         <f>C196*L196*[1]!s_dq_close("000300.SH",I196,1)</f>
         <v>0.48417650301314535</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="4" t="str">
         <f>[1]!s_div_ifdiv(A196,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F196" s="3">
+        <v>是</v>
+      </c>
+      <c r="F196" s="3" t="str">
         <f>[1]!s_div_progress(A196,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G196" s="3">
         <f>[1]!s_div_exdate(A196,"2017/12/31")</f>
@@ -16959,13 +16955,13 @@
         <f>C200*L200*[1]!s_dq_close("000300.SH",I200,1)</f>
         <v>7.8963769590502303E-2</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="4" t="str">
         <f>[1]!s_div_ifdiv(A200,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F200" s="3">
+        <v>是</v>
+      </c>
+      <c r="F200" s="3" t="str">
         <f>[1]!s_div_progress(A200,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G200" s="3">
         <f>[1]!s_div_exdate(A200,"2017/12/31")</f>
@@ -20430,13 +20426,13 @@
         <f>C249*L249*[1]!s_dq_close("000300.SH",I249,1)</f>
         <v>2.5401226650763555</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="4" t="str">
         <f>[1]!s_div_ifdiv(A249,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F249" s="3">
+        <v>是</v>
+      </c>
+      <c r="F249" s="3" t="str">
         <f>[1]!s_div_progress(A249,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G249" s="3">
         <f>[1]!s_div_exdate(A249,"2017/12/31")</f>
@@ -21420,13 +21416,13 @@
         <f>C263*L263*[1]!s_dq_close("000300.SH",I263,1)</f>
         <v>0.10362895906041274</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="4" t="str">
         <f>[1]!s_div_ifdiv(A263,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F263" s="3">
+        <v>是</v>
+      </c>
+      <c r="F263" s="3" t="str">
         <f>[1]!s_div_progress(A263,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G263" s="3">
         <f>[1]!s_div_exdate(A263,"2017/12/31")</f>
@@ -24362,13 +24358,13 @@
         <f>C310*L310*[1]!s_dq_close("000300.SH",I310,1)</f>
         <v>1.9667201132975064E-2</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310" s="4" t="str">
         <f>[1]!s_div_ifdiv(A310,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F310" s="3">
+        <v>是</v>
+      </c>
+      <c r="F310" s="3" t="str">
         <f>[1]!s_div_progress(A310,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G310" s="3">
         <f>[1]!s_div_exdate(A310,"2017/12/31")</f>
@@ -25711,13 +25707,13 @@
         <f>C329*L329*[1]!s_dq_close("000300.SH",I329,1)</f>
         <v>0.10967469436013139</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329" s="4" t="str">
         <f>[1]!s_div_ifdiv(A329,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F329" s="3">
+        <v>是</v>
+      </c>
+      <c r="F329" s="3" t="str">
         <f>[1]!s_div_progress(A329,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G329" s="3">
         <f>[1]!s_div_exdate(A329,"2017/12/31")</f>
@@ -26137,13 +26133,13 @@
         <f>C335*L335*[1]!s_dq_close("000300.SH",I335,1)</f>
         <v>0.93828858712434715</v>
       </c>
-      <c r="E335" s="4">
+      <c r="E335" s="4" t="str">
         <f>[1]!s_div_ifdiv(A335,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F335" s="3">
+        <v>是</v>
+      </c>
+      <c r="F335" s="3" t="str">
         <f>[1]!s_div_progress(A335,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G335" s="3">
         <f>[1]!s_div_exdate(A335,"2017/12/31")</f>
@@ -27772,14 +27768,14 @@
       </c>
       <c r="B402" s="17">
         <f>D94</f>
-        <v>8.4139241531868336</v>
+        <v>8.4307107143104769</v>
       </c>
       <c r="C402" s="17">
         <v>0</v>
       </c>
       <c r="D402" s="17">
         <f t="shared" si="23"/>
-        <v>8.4139241531868336</v>
+        <v>8.4307107143104769</v>
       </c>
       <c r="E402" s="17"/>
       <c r="F402" s="15"/>
@@ -27801,14 +27797,14 @@
       </c>
       <c r="B403" s="17">
         <f>D183</f>
-        <v>19.717349379015364</v>
+        <v>19.783998957256642</v>
       </c>
       <c r="C403" s="17">
         <v>0</v>
       </c>
       <c r="D403" s="17">
         <f t="shared" si="23"/>
-        <v>19.717349379015364</v>
+        <v>19.783998957256642</v>
       </c>
       <c r="E403" s="17"/>
       <c r="G403" s="14"/>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\党\东方工作\期权业务\期权每日交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="132" windowWidth="19392" windowHeight="7608"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300分红" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="646">
   <si>
     <t>000002.SZ</t>
   </si>
@@ -4306,7 +4306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4432,6 +4432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="540">
@@ -5304,31 +5307,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
@@ -5342,37 +5345,43 @@
         <v>619</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>613</v>
       </c>
@@ -5383,51 +5392,59 @@
         <v>6.5310000000000003E-3</v>
       </c>
       <c r="D2" s="18">
-        <f>C2*H2*[1]!s_dq_close("000300.SH",E2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+        <f>C2*J2*[1]!s_dq_close("000300.SH",G2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A2,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>[1]!s_div_progress(A2,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G2" s="3">
         <f>[1]!s_div_recorddate(A2,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="H2" s="13">
         <f>[1]!s_div_cashbeforetax(A2,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="14">
-        <f>[1]!s_dq_close(A2,E2,3)</f>
+      <c r="I2" s="14">
+        <f>[1]!s_dq_close(A2,G2,3)</f>
         <v>1.3175001068885304</v>
       </c>
-      <c r="H2" s="6">
-        <f>F2/G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="J2" s="6">
+        <f>H2/I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A2,"2017/12/31",1)</f>
         <v>4553788000</v>
       </c>
-      <c r="J2" s="23" t="str">
+      <c r="L2" s="23" t="str">
         <f>[1]!s_div_ifdiv(A2,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K2" s="3">
+      <c r="M2" s="3">
         <f>[1]!s_div_recorddate(A2,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="13">
+      <c r="N2" s="13">
         <f>[1]!s_div_cashbeforetax(A2,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="14">
-        <f>[1]!s_dq_close(A2,K2,3)</f>
+      <c r="O2" s="14">
+        <f>[1]!s_dq_close(A2,M2,3)</f>
         <v>1.3175001068885304</v>
       </c>
-      <c r="N2" s="6">
-        <f>L2/M2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="6">
+        <f>N2/O2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>239</v>
       </c>
@@ -5438,51 +5455,59 @@
         <v>4.9259999999999998E-3</v>
       </c>
       <c r="D3" s="18">
-        <f>C3*H3*[1]!s_dq_close("000300.SH",E3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+        <f>C3*J3*[1]!s_dq_close("000300.SH",G3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A3,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>[1]!s_div_progress(A3,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G3" s="3">
         <f>[1]!s_div_recorddate(A3,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="13">
+      <c r="H3" s="13">
         <f>[1]!s_div_cashbeforetax(A3,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="14">
-        <f>[1]!s_dq_close(A3,E3,3)</f>
+      <c r="I3" s="14">
+        <f>[1]!s_dq_close(A3,G3,3)</f>
         <v>1.8494269998298785</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H28" si="0">F3/G3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J28" si="0">H3/I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A3,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="23" t="str">
+      <c r="L3" s="23" t="str">
         <f>[1]!s_div_ifdiv(A3,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <f>[1]!s_div_recorddate(A3,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="13">
+      <c r="N3" s="13">
         <f>[1]!s_div_cashbeforetax(A3,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="14">
-        <f>[1]!s_dq_close(A3,K3,3)</f>
+      <c r="O3" s="14">
+        <f>[1]!s_dq_close(A3,M3,3)</f>
         <v>1.8494269998298785</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N28" si="1">L3/M3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P28" si="1">N3/O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>531</v>
       </c>
@@ -5493,51 +5518,59 @@
         <v>4.5979999999999997E-3</v>
       </c>
       <c r="D4" s="18">
-        <f>C4*H4*[1]!s_dq_close("000300.SH",E4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+        <f>C4*J4*[1]!s_dq_close("000300.SH",G4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>[1]!s_div_ifdiv(A4,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>[1]!s_div_progress(A4,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <f>[1]!s_div_recorddate(A4,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="H4" s="13">
         <f>[1]!s_div_cashbeforetax(A4,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="14">
-        <f>[1]!s_dq_close(A4,E4,3)</f>
+      <c r="I4" s="14">
+        <f>[1]!s_dq_close(A4,G4,3)</f>
         <v>4.9459373296109694</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A4,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="23" t="str">
+      <c r="L4" s="23" t="str">
         <f>[1]!s_div_ifdiv(A4,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <f>[1]!s_div_recorddate(A4,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="13">
+      <c r="N4" s="13">
         <f>[1]!s_div_cashbeforetax(A4,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="14">
-        <f>[1]!s_dq_close(A4,K4,3)</f>
+      <c r="O4" s="14">
+        <f>[1]!s_dq_close(A4,M4,3)</f>
         <v>4.9459373296109694</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>467</v>
       </c>
@@ -5548,51 +5581,59 @@
         <v>3.0409999999999999E-3</v>
       </c>
       <c r="D5" s="18">
-        <f>C5*H5*[1]!s_dq_close("000300.SH",E5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+        <f>C5*J5*[1]!s_dq_close("000300.SH",G5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A5,"2017/12/31")</f>
+        <v>否</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>[1]!s_div_progress(A5,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G5" s="3">
         <f>[1]!s_div_recorddate(A5,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="13">
+      <c r="H5" s="13">
         <f>[1]!s_div_cashbeforetax(A5,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G5" s="14">
-        <f>[1]!s_dq_close(A5,E5,3)</f>
+      <c r="I5" s="14">
+        <f>[1]!s_dq_close(A5,G5,3)</f>
         <v>18.156404031486797</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A5,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="23" t="str">
+      <c r="L5" s="23" t="str">
         <f>[1]!s_div_ifdiv(A5,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <f>[1]!s_div_recorddate(A5,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="13">
+      <c r="N5" s="13">
         <f>[1]!s_div_cashbeforetax(A5,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="14">
-        <f>[1]!s_dq_close(A5,K5,3)</f>
+      <c r="O5" s="14">
+        <f>[1]!s_dq_close(A5,M5,3)</f>
         <v>18.156404031486797</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>593</v>
       </c>
@@ -5603,51 +5644,59 @@
         <v>3.0200000000000001E-3</v>
       </c>
       <c r="D6" s="18">
-        <f>C6*H6*[1]!s_dq_close("000300.SH",E6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+        <f>C6*J6*[1]!s_dq_close("000300.SH",G6,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>[1]!s_div_ifdiv(A6,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>[1]!s_div_progress(A6,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f>[1]!s_div_recorddate(A6,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="13">
+      <c r="H6" s="13">
         <f>[1]!s_div_cashbeforetax(A6,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="14">
-        <f>[1]!s_dq_close(A6,E6,3)</f>
+      <c r="I6" s="14">
+        <f>[1]!s_dq_close(A6,G6,3)</f>
         <v>6.826270908559767</v>
       </c>
-      <c r="H6" s="6">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A6,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="23" t="str">
+      <c r="L6" s="23" t="str">
         <f>[1]!s_div_ifdiv(A6,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <f>[1]!s_div_recorddate(A6,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="13">
+      <c r="N6" s="13">
         <f>[1]!s_div_cashbeforetax(A6,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="14">
-        <f>[1]!s_dq_close(A6,K6,3)</f>
+      <c r="O6" s="14">
+        <f>[1]!s_dq_close(A6,M6,3)</f>
         <v>6.826270908559767</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>515</v>
       </c>
@@ -5658,51 +5707,59 @@
         <v>2.274E-3</v>
       </c>
       <c r="D7" s="18">
-        <f>C7*H7*[1]!s_dq_close("000300.SH",E7,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+        <f>C7*J7*[1]!s_dq_close("000300.SH",G7,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>[1]!s_div_ifdiv(A7,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f>[1]!s_div_progress(A7,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f>[1]!s_div_recorddate(A7,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="H7" s="13">
         <f>[1]!s_div_cashbeforetax(A7,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="14">
-        <f>[1]!s_dq_close(A7,E7,3)</f>
+      <c r="I7" s="14">
+        <f>[1]!s_dq_close(A7,G7,3)</f>
         <v>5.4278082122738249</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="K7" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A7,"2017/12/31",1)</f>
         <v>1452957900</v>
       </c>
-      <c r="J7" s="23" t="str">
+      <c r="L7" s="23" t="str">
         <f>[1]!s_div_ifdiv(A7,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <f>[1]!s_div_recorddate(A7,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="13">
+      <c r="N7" s="13">
         <f>[1]!s_div_cashbeforetax(A7,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M7" s="14">
-        <f>[1]!s_dq_close(A7,K7,3)</f>
+      <c r="O7" s="14">
+        <f>[1]!s_dq_close(A7,M7,3)</f>
         <v>5.4278082122738249</v>
       </c>
-      <c r="N7" s="6">
+      <c r="P7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -5713,51 +5770,59 @@
         <v>2.1909999999999998E-3</v>
       </c>
       <c r="D8" s="18">
-        <f>C8*H8*[1]!s_dq_close("000300.SH",E8,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+        <f>C8*J8*[1]!s_dq_close("000300.SH",G8,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>[1]!s_div_ifdiv(A8,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>[1]!s_div_progress(A8,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <f>[1]!s_div_recorddate(A8,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="H8" s="13">
         <f>[1]!s_div_cashbeforetax(A8,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="14">
-        <f>[1]!s_dq_close(A8,E8,3)</f>
+      <c r="I8" s="14">
+        <f>[1]!s_dq_close(A8,G8,3)</f>
         <v>1.6678593393096979</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A8,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="23" t="str">
+      <c r="L8" s="23" t="str">
         <f>[1]!s_div_ifdiv(A8,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <f>[1]!s_div_recorddate(A8,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="13">
+      <c r="N8" s="13">
         <f>[1]!s_div_cashbeforetax(A8,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="14">
-        <f>[1]!s_dq_close(A8,K8,3)</f>
+      <c r="O8" s="14">
+        <f>[1]!s_dq_close(A8,M8,3)</f>
         <v>1.6678593393096979</v>
       </c>
-      <c r="N8" s="6">
+      <c r="P8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>517</v>
       </c>
@@ -5768,51 +5833,59 @@
         <v>1.9599999999999999E-3</v>
       </c>
       <c r="D9" s="18">
-        <f>C9*H9*[1]!s_dq_close("000300.SH",E9,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+        <f>C9*J9*[1]!s_dq_close("000300.SH",G9,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>[1]!s_div_ifdiv(A9,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>[1]!s_div_progress(A9,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <f>[1]!s_div_recorddate(A9,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="13">
+      <c r="H9" s="13">
         <f>[1]!s_div_cashbeforetax(A9,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
-        <f>[1]!s_dq_close(A9,E9,3)</f>
+      <c r="I9" s="14">
+        <f>[1]!s_dq_close(A9,G9,3)</f>
         <v>15.706474941556184</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="K9" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A9,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="23" t="str">
+      <c r="L9" s="23" t="str">
         <f>[1]!s_div_ifdiv(A9,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <f>[1]!s_div_recorddate(A9,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="13">
+      <c r="N9" s="13">
         <f>[1]!s_div_cashbeforetax(A9,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="14">
-        <f>[1]!s_dq_close(A9,K9,3)</f>
+      <c r="O9" s="14">
+        <f>[1]!s_dq_close(A9,M9,3)</f>
         <v>15.706474941556184</v>
       </c>
-      <c r="N9" s="6">
+      <c r="P9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>367</v>
       </c>
@@ -5823,51 +5896,59 @@
         <v>1.8240000000000001E-3</v>
       </c>
       <c r="D10" s="18">
-        <f>C10*H10*[1]!s_dq_close("000300.SH",E10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+        <f>C10*J10*[1]!s_dq_close("000300.SH",G10,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>[1]!s_div_ifdiv(A10,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>[1]!s_div_progress(A10,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f>[1]!s_div_recorddate(A10,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="H10" s="13">
         <f>[1]!s_div_cashbeforetax(A10,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G10" s="14">
-        <f>[1]!s_dq_close(A10,E10,3)</f>
+      <c r="I10" s="14">
+        <f>[1]!s_dq_close(A10,G10,3)</f>
         <v>0.42854632800078851</v>
       </c>
-      <c r="H10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="K10" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A10,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23" t="str">
+      <c r="L10" s="23" t="str">
         <f>[1]!s_div_ifdiv(A10,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <f>[1]!s_div_recorddate(A10,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L10" s="13">
+      <c r="N10" s="13">
         <f>[1]!s_div_cashbeforetax(A10,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M10" s="14">
-        <f>[1]!s_dq_close(A10,K10,3)</f>
+      <c r="O10" s="14">
+        <f>[1]!s_dq_close(A10,M10,3)</f>
         <v>0.42854632800078851</v>
       </c>
-      <c r="N10" s="6">
+      <c r="P10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>491</v>
       </c>
@@ -5878,51 +5959,59 @@
         <v>1.771E-3</v>
       </c>
       <c r="D11" s="18">
-        <f>C11*H11*[1]!s_dq_close("000300.SH",E11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+        <f>C11*J11*[1]!s_dq_close("000300.SH",G11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>[1]!s_div_ifdiv(A11,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>[1]!s_div_progress(A11,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f>[1]!s_div_recorddate(A11,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="13">
+      <c r="H11" s="13">
         <f>[1]!s_div_cashbeforetax(A11,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="14">
-        <f>[1]!s_dq_close(A11,E11,3)</f>
+      <c r="I11" s="14">
+        <f>[1]!s_dq_close(A11,G11,3)</f>
         <v>6.2317686400906167</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="K11" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A11,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="L11" s="23" t="str">
         <f>[1]!s_div_ifdiv(A11,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K11" s="3">
+      <c r="M11" s="3">
         <f>[1]!s_div_recorddate(A11,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="13">
+      <c r="N11" s="13">
         <f>[1]!s_div_cashbeforetax(A11,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M11" s="14">
-        <f>[1]!s_dq_close(A11,K11,3)</f>
+      <c r="O11" s="14">
+        <f>[1]!s_dq_close(A11,M11,3)</f>
         <v>6.2317686400906167</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>185</v>
       </c>
@@ -5933,51 +6022,59 @@
         <v>1.7260000000000001E-3</v>
       </c>
       <c r="D12" s="18">
-        <f>C12*H12*[1]!s_dq_close("000300.SH",E12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+        <f>C12*J12*[1]!s_dq_close("000300.SH",G12,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A12,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>[1]!s_div_progress(A12,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G12" s="3">
         <f>[1]!s_div_recorddate(A12,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="13">
+      <c r="H12" s="13">
         <f>[1]!s_div_cashbeforetax(A12,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="14">
-        <f>[1]!s_dq_close(A12,E12,3)</f>
+      <c r="I12" s="14">
+        <f>[1]!s_dq_close(A12,G12,3)</f>
         <v>3.176457743665059</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="K12" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A12,"2017/12/31",1)</f>
         <v>447689863.58999997</v>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="L12" s="23" t="str">
         <f>[1]!s_div_ifdiv(A12,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <f>[1]!s_div_recorddate(A12,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="13">
+      <c r="N12" s="13">
         <f>[1]!s_div_cashbeforetax(A12,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M12" s="14">
-        <f>[1]!s_dq_close(A12,K12,3)</f>
+      <c r="O12" s="14">
+        <f>[1]!s_dq_close(A12,M12,3)</f>
         <v>3.176457743665059</v>
       </c>
-      <c r="N12" s="6">
+      <c r="P12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>275</v>
       </c>
@@ -5988,51 +6085,59 @@
         <v>1.5870000000000001E-3</v>
       </c>
       <c r="D13" s="18">
-        <f>C13*H13*[1]!s_dq_close("000300.SH",E13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+        <f>C13*J13*[1]!s_dq_close("000300.SH",G13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>[1]!s_div_ifdiv(A13,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>[1]!s_div_progress(A13,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <f>[1]!s_div_recorddate(A13,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="13">
+      <c r="H13" s="13">
         <f>[1]!s_div_cashbeforetax(A13,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="14">
-        <f>[1]!s_dq_close(A13,E13,3)</f>
+      <c r="I13" s="14">
+        <f>[1]!s_dq_close(A13,G13,3)</f>
         <v>2.7681090729221172</v>
       </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="10">
+      <c r="K13" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A13,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="L13" s="23" t="str">
         <f>[1]!s_div_ifdiv(A13,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="3">
         <f>[1]!s_div_recorddate(A13,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="13">
+      <c r="N13" s="13">
         <f>[1]!s_div_cashbeforetax(A13,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="14">
-        <f>[1]!s_dq_close(A13,K13,3)</f>
+      <c r="O13" s="14">
+        <f>[1]!s_dq_close(A13,M13,3)</f>
         <v>2.7681090729221172</v>
       </c>
-      <c r="N13" s="6">
+      <c r="P13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -6043,51 +6148,59 @@
         <v>1.485E-3</v>
       </c>
       <c r="D14" s="18">
-        <f>C14*H14*[1]!s_dq_close("000300.SH",E14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+        <f>C14*J14*[1]!s_dq_close("000300.SH",G14,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>[1]!s_div_ifdiv(A14,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>[1]!s_div_progress(A14,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <f>[1]!s_div_recorddate(A14,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="13">
+      <c r="H14" s="13">
         <f>[1]!s_div_cashbeforetax(A14,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G14" s="14">
-        <f>[1]!s_dq_close(A14,E14,3)</f>
+      <c r="I14" s="14">
+        <f>[1]!s_dq_close(A14,G14,3)</f>
         <v>0.54501569568710151</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="10">
+      <c r="K14" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A14,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="L14" s="23" t="str">
         <f>[1]!s_div_ifdiv(A14,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <f>[1]!s_div_recorddate(A14,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L14" s="13">
+      <c r="N14" s="13">
         <f>[1]!s_div_cashbeforetax(A14,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="14">
-        <f>[1]!s_dq_close(A14,K14,3)</f>
+      <c r="O14" s="14">
+        <f>[1]!s_dq_close(A14,M14,3)</f>
         <v>0.54501569568710151</v>
       </c>
-      <c r="N14" s="6">
+      <c r="P14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>165</v>
       </c>
@@ -6098,51 +6211,59 @@
         <v>1.2280000000000001E-3</v>
       </c>
       <c r="D15" s="18">
-        <f>C15*H15*[1]!s_dq_close("000300.SH",E15,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+        <f>C15*J15*[1]!s_dq_close("000300.SH",G15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>[1]!s_div_ifdiv(A15,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f>[1]!s_div_progress(A15,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <f>[1]!s_div_recorddate(A15,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="13">
+      <c r="H15" s="13">
         <f>[1]!s_div_cashbeforetax(A15,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="14">
-        <f>[1]!s_dq_close(A15,E15,3)</f>
+      <c r="I15" s="14">
+        <f>[1]!s_dq_close(A15,G15,3)</f>
         <v>8.087759356190146</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="10">
+      <c r="K15" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A15,"2017/12/31",1)</f>
         <v>802469122.67999995</v>
       </c>
-      <c r="J15" s="23" t="str">
+      <c r="L15" s="23" t="str">
         <f>[1]!s_div_ifdiv(A15,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <f>[1]!s_div_recorddate(A15,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="13">
+      <c r="N15" s="13">
         <f>[1]!s_div_cashbeforetax(A15,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="14">
-        <f>[1]!s_dq_close(A15,K15,3)</f>
+      <c r="O15" s="14">
+        <f>[1]!s_dq_close(A15,M15,3)</f>
         <v>8.087759356190146</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>590</v>
       </c>
@@ -6153,51 +6274,59 @@
         <v>9.7500000000000006E-4</v>
       </c>
       <c r="D16" s="18">
-        <f>C16*H16*[1]!s_dq_close("000300.SH",E16,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+        <f>C16*J16*[1]!s_dq_close("000300.SH",G16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>[1]!s_div_ifdiv(A16,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f>[1]!s_div_progress(A16,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <f>[1]!s_div_recorddate(A16,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="13">
+      <c r="H16" s="13">
         <f>[1]!s_div_cashbeforetax(A16,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G16" s="14">
-        <f>[1]!s_dq_close(A16,E16,3)</f>
+      <c r="I16" s="14">
+        <f>[1]!s_dq_close(A16,G16,3)</f>
         <v>4.7165619115923674</v>
       </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="10">
+      <c r="K16" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A16,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="23" t="str">
+      <c r="L16" s="23" t="str">
         <f>[1]!s_div_ifdiv(A16,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K16" s="3">
+      <c r="M16" s="3">
         <f>[1]!s_div_recorddate(A16,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L16" s="13">
+      <c r="N16" s="13">
         <f>[1]!s_div_cashbeforetax(A16,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M16" s="14">
-        <f>[1]!s_dq_close(A16,K16,3)</f>
+      <c r="O16" s="14">
+        <f>[1]!s_dq_close(A16,M16,3)</f>
         <v>4.7165619115923674</v>
       </c>
-      <c r="N16" s="6">
+      <c r="P16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>345</v>
       </c>
@@ -6208,51 +6337,59 @@
         <v>9.0300000000000005E-4</v>
       </c>
       <c r="D17" s="18">
-        <f>C17*H17*[1]!s_dq_close("000300.SH",E17,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+        <f>C17*J17*[1]!s_dq_close("000300.SH",G17,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A17,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>[1]!s_div_progress(A17,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G17" s="3">
         <f>[1]!s_div_recorddate(A17,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="H17" s="13">
         <f>[1]!s_div_cashbeforetax(A17,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G17" s="14">
-        <f>[1]!s_dq_close(A17,E17,3)</f>
+      <c r="I17" s="14">
+        <f>[1]!s_dq_close(A17,G17,3)</f>
         <v>1.2924166394918422</v>
       </c>
-      <c r="H17" s="6">
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="10">
+      <c r="K17" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A17,"2017/12/31",1)</f>
         <v>1762005319.29</v>
       </c>
-      <c r="J17" s="23" t="str">
+      <c r="L17" s="23" t="str">
         <f>[1]!s_div_ifdiv(A17,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <f>[1]!s_div_recorddate(A17,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="N17" s="13">
         <f>[1]!s_div_cashbeforetax(A17,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M17" s="14">
-        <f>[1]!s_dq_close(A17,K17,3)</f>
+      <c r="O17" s="14">
+        <f>[1]!s_dq_close(A17,M17,3)</f>
         <v>1.2924166394918422</v>
       </c>
-      <c r="N17" s="6">
+      <c r="P17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>503</v>
       </c>
@@ -6263,51 +6400,59 @@
         <v>8.5400000000000005E-4</v>
       </c>
       <c r="D18" s="18">
-        <f>C18*H18*[1]!s_dq_close("000300.SH",E18,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+        <f>C18*J18*[1]!s_dq_close("000300.SH",G18,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>[1]!s_div_ifdiv(A18,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f>[1]!s_div_progress(A18,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <f>[1]!s_div_recorddate(A18,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="13">
+      <c r="H18" s="13">
         <f>[1]!s_div_cashbeforetax(A18,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G18" s="14">
-        <f>[1]!s_dq_close(A18,E18,3)</f>
+      <c r="I18" s="14">
+        <f>[1]!s_dq_close(A18,G18,3)</f>
         <v>11.475362683945503</v>
       </c>
-      <c r="H18" s="6">
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="K18" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A18,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="23" t="str">
+      <c r="L18" s="23" t="str">
         <f>[1]!s_div_ifdiv(A18,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <f>[1]!s_div_recorddate(A18,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L18" s="13">
+      <c r="N18" s="13">
         <f>[1]!s_div_cashbeforetax(A18,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M18" s="14">
-        <f>[1]!s_dq_close(A18,K18,3)</f>
+      <c r="O18" s="14">
+        <f>[1]!s_dq_close(A18,M18,3)</f>
         <v>11.475362683945503</v>
       </c>
-      <c r="N18" s="6">
+      <c r="P18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -6318,51 +6463,59 @@
         <v>7.7700000000000002E-4</v>
       </c>
       <c r="D19" s="18">
-        <f>C19*H19*[1]!s_dq_close("000300.SH",E19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
+        <f>C19*J19*[1]!s_dq_close("000300.SH",G19,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f>[1]!s_div_ifdiv(A19,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f>[1]!s_div_progress(A19,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <f>[1]!s_div_recorddate(A19,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F19" s="13">
+      <c r="H19" s="13">
         <f>[1]!s_div_cashbeforetax(A19,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G19" s="14">
-        <f>[1]!s_dq_close(A19,E19,3)</f>
+      <c r="I19" s="14">
+        <f>[1]!s_dq_close(A19,G19,3)</f>
         <v>2.4715470947945382</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="10">
+      <c r="K19" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A19,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="23" t="str">
+      <c r="L19" s="23" t="str">
         <f>[1]!s_div_ifdiv(A19,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K19" s="3">
+      <c r="M19" s="3">
         <f>[1]!s_div_recorddate(A19,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="13">
+      <c r="N19" s="13">
         <f>[1]!s_div_cashbeforetax(A19,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M19" s="14">
-        <f>[1]!s_dq_close(A19,K19,3)</f>
+      <c r="O19" s="14">
+        <f>[1]!s_dq_close(A19,M19,3)</f>
         <v>2.4715470947945382</v>
       </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>425</v>
       </c>
@@ -6373,51 +6526,59 @@
         <v>6.4899999999999995E-4</v>
       </c>
       <c r="D20" s="18">
-        <f>C20*H20*[1]!s_dq_close("000300.SH",E20,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+        <f>C20*J20*[1]!s_dq_close("000300.SH",G20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f>[1]!s_div_ifdiv(A20,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f>[1]!s_div_progress(A20,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <f>[1]!s_div_recorddate(A20,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13">
+      <c r="H20" s="13">
         <f>[1]!s_div_cashbeforetax(A20,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
-        <f>[1]!s_dq_close(A20,E20,3)</f>
+      <c r="I20" s="14">
+        <f>[1]!s_dq_close(A20,G20,3)</f>
         <v>10.67123109757634</v>
       </c>
-      <c r="H20" s="6">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="10">
+      <c r="K20" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A20,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="23" t="str">
+      <c r="L20" s="23" t="str">
         <f>[1]!s_div_ifdiv(A20,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <f>[1]!s_div_recorddate(A20,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="13">
+      <c r="N20" s="13">
         <f>[1]!s_div_cashbeforetax(A20,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M20" s="14">
-        <f>[1]!s_dq_close(A20,K20,3)</f>
+      <c r="O20" s="14">
+        <f>[1]!s_dq_close(A20,M20,3)</f>
         <v>10.67123109757634</v>
       </c>
-      <c r="N20" s="6">
+      <c r="P20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>523</v>
       </c>
@@ -6428,51 +6589,59 @@
         <v>5.7700000000000004E-4</v>
       </c>
       <c r="D21" s="18">
-        <f>C21*H21*[1]!s_dq_close("000300.SH",E21,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
+        <f>C21*J21*[1]!s_dq_close("000300.SH",G21,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f>[1]!s_div_ifdiv(A21,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f>[1]!s_div_progress(A21,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <f>[1]!s_div_recorddate(A21,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="13">
+      <c r="H21" s="13">
         <f>[1]!s_div_cashbeforetax(A21,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G21" s="14">
-        <f>[1]!s_dq_close(A21,E21,3)</f>
+      <c r="I21" s="14">
+        <f>[1]!s_dq_close(A21,G21,3)</f>
         <v>17.117542482628163</v>
       </c>
-      <c r="H21" s="6">
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="10">
+      <c r="K21" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A21,"2017/12/31",1)</f>
         <v>108148400</v>
       </c>
-      <c r="J21" s="23" t="str">
+      <c r="L21" s="23" t="str">
         <f>[1]!s_div_ifdiv(A21,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <f>[1]!s_div_recorddate(A21,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L21" s="13">
+      <c r="N21" s="13">
         <f>[1]!s_div_cashbeforetax(A21,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M21" s="14">
-        <f>[1]!s_dq_close(A21,K21,3)</f>
+      <c r="O21" s="14">
+        <f>[1]!s_dq_close(A21,M21,3)</f>
         <v>17.117542482628163</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>473</v>
       </c>
@@ -6483,51 +6652,59 @@
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="D22" s="18">
-        <f>C22*H22*[1]!s_dq_close("000300.SH",E22,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+        <f>C22*J22*[1]!s_dq_close("000300.SH",G22,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A22,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>[1]!s_div_progress(A22,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G22" s="3">
         <f>[1]!s_div_recorddate(A22,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F22" s="13">
+      <c r="H22" s="13">
         <f>[1]!s_div_cashbeforetax(A22,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G22" s="14">
-        <f>[1]!s_dq_close(A22,E22,3)</f>
+      <c r="I22" s="14">
+        <f>[1]!s_dq_close(A22,G22,3)</f>
         <v>3.0470311484190424</v>
       </c>
-      <c r="H22" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="10">
+      <c r="K22" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A22,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="23" t="str">
+      <c r="L22" s="23" t="str">
         <f>[1]!s_div_ifdiv(A22,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <f>[1]!s_div_recorddate(A22,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L22" s="13">
+      <c r="N22" s="13">
         <f>[1]!s_div_cashbeforetax(A22,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="14">
-        <f>[1]!s_dq_close(A22,K22,3)</f>
+      <c r="O22" s="14">
+        <f>[1]!s_dq_close(A22,M22,3)</f>
         <v>3.0470311484190424</v>
       </c>
-      <c r="N22" s="6">
+      <c r="P22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>560</v>
       </c>
@@ -6538,51 +6715,59 @@
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="D23" s="18">
-        <f>C23*H23*[1]!s_dq_close("000300.SH",E23,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
+        <f>C23*J23*[1]!s_dq_close("000300.SH",G23,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>[1]!s_div_ifdiv(A23,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f>[1]!s_div_progress(A23,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <f>[1]!s_div_recorddate(A23,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="13">
+      <c r="H23" s="13">
         <f>[1]!s_div_cashbeforetax(A23,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G23" s="14">
-        <f>[1]!s_dq_close(A23,E23,3)</f>
+      <c r="I23" s="14">
+        <f>[1]!s_dq_close(A23,G23,3)</f>
         <v>13.453761908345479</v>
       </c>
-      <c r="H23" s="6">
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="10">
+      <c r="K23" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A23,"2017/12/31",1)</f>
         <v>2179065500</v>
       </c>
-      <c r="J23" s="23" t="str">
+      <c r="L23" s="23" t="str">
         <f>[1]!s_div_ifdiv(A23,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <f>[1]!s_div_recorddate(A23,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="13">
+      <c r="N23" s="13">
         <f>[1]!s_div_cashbeforetax(A23,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M23" s="14">
-        <f>[1]!s_dq_close(A23,K23,3)</f>
+      <c r="O23" s="14">
+        <f>[1]!s_dq_close(A23,M23,3)</f>
         <v>13.453761908345479</v>
       </c>
-      <c r="N23" s="6">
+      <c r="P23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>595</v>
       </c>
@@ -6593,51 +6778,59 @@
         <v>4.9399999999999997E-4</v>
       </c>
       <c r="D24" s="18">
-        <f>C24*H24*[1]!s_dq_close("000300.SH",E24,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
+        <f>C24*J24*[1]!s_dq_close("000300.SH",G24,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f>[1]!s_div_ifdiv(A24,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f>[1]!s_div_progress(A24,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f>[1]!s_div_recorddate(A24,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F24" s="13">
+      <c r="H24" s="13">
         <f>[1]!s_div_cashbeforetax(A24,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G24" s="14">
-        <f>[1]!s_dq_close(A24,E24,3)</f>
+      <c r="I24" s="14">
+        <f>[1]!s_dq_close(A24,G24,3)</f>
         <v>72.12</v>
       </c>
-      <c r="H24" s="6">
+      <c r="J24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="10">
+      <c r="K24" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A24,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="23" t="str">
+      <c r="L24" s="23" t="str">
         <f>[1]!s_div_ifdiv(A24,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <f>[1]!s_div_recorddate(A24,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="13">
+      <c r="N24" s="13">
         <f>[1]!s_div_cashbeforetax(A24,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M24" s="14">
-        <f>[1]!s_dq_close(A24,K24,3)</f>
+      <c r="O24" s="14">
+        <f>[1]!s_dq_close(A24,M24,3)</f>
         <v>72.12</v>
       </c>
-      <c r="N24" s="6">
+      <c r="P24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>586</v>
       </c>
@@ -6648,51 +6841,59 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="D25" s="18">
-        <f>C25*H25*[1]!s_dq_close("000300.SH",E25,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+        <f>C25*J25*[1]!s_dq_close("000300.SH",G25,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>[1]!s_div_ifdiv(A25,"2017/12/31")</f>
+        <v>是</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>[1]!s_div_progress(A25,"20171231")</f>
+        <v>董事会预案</v>
+      </c>
+      <c r="G25" s="3">
         <f>[1]!s_div_recorddate(A25,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="13">
+      <c r="H25" s="13">
         <f>[1]!s_div_cashbeforetax(A25,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G25" s="14">
-        <f>[1]!s_dq_close(A25,E25,3)</f>
+      <c r="I25" s="14">
+        <f>[1]!s_dq_close(A25,G25,3)</f>
         <v>12.17</v>
       </c>
-      <c r="H25" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="10">
+      <c r="K25" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A25,"2017/12/31",1)</f>
         <v>1062697700</v>
       </c>
-      <c r="J25" s="23" t="str">
+      <c r="L25" s="23" t="str">
         <f>[1]!s_div_ifdiv(A25,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K25" s="3">
+      <c r="M25" s="3">
         <f>[1]!s_div_recorddate(A25,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="13">
+      <c r="N25" s="13">
         <f>[1]!s_div_cashbeforetax(A25,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M25" s="14">
-        <f>[1]!s_dq_close(A25,K25,3)</f>
+      <c r="O25" s="14">
+        <f>[1]!s_dq_close(A25,M25,3)</f>
         <v>12.17</v>
       </c>
-      <c r="N25" s="6">
+      <c r="P25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>383</v>
       </c>
@@ -6703,51 +6904,59 @@
         <v>3.7100000000000002E-4</v>
       </c>
       <c r="D26" s="18">
-        <f>C26*H26*[1]!s_dq_close("000300.SH",E26,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+        <f>C26*J26*[1]!s_dq_close("000300.SH",G26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f>[1]!s_div_ifdiv(A26,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f>[1]!s_div_progress(A26,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <f>[1]!s_div_recorddate(A26,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F26" s="13">
+      <c r="H26" s="13">
         <f>[1]!s_div_cashbeforetax(A26,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G26" s="14">
-        <f>[1]!s_dq_close(A26,E26,3)</f>
+      <c r="I26" s="14">
+        <f>[1]!s_dq_close(A26,G26,3)</f>
         <v>1.3879177297561851</v>
       </c>
-      <c r="H26" s="6">
+      <c r="J26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="10">
+      <c r="K26" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A26,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="23" t="str">
+      <c r="L26" s="23" t="str">
         <f>[1]!s_div_ifdiv(A26,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <f>[1]!s_div_recorddate(A26,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="13">
+      <c r="N26" s="13">
         <f>[1]!s_div_cashbeforetax(A26,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M26" s="14">
-        <f>[1]!s_dq_close(A26,K26,3)</f>
+      <c r="O26" s="14">
+        <f>[1]!s_dq_close(A26,M26,3)</f>
         <v>1.3879177297561851</v>
       </c>
-      <c r="N26" s="6">
+      <c r="P26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>578</v>
       </c>
@@ -6758,51 +6967,59 @@
         <v>3.1300000000000002E-4</v>
       </c>
       <c r="D27" s="18">
-        <f>C27*H27*[1]!s_dq_close("000300.SH",E27,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+        <f>C27*J27*[1]!s_dq_close("000300.SH",G27,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f>[1]!s_div_ifdiv(A27,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f>[1]!s_div_progress(A27,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <f>[1]!s_div_recorddate(A27,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F27" s="13">
+      <c r="H27" s="13">
         <f>[1]!s_div_cashbeforetax(A27,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G27" s="14">
-        <f>[1]!s_dq_close(A27,E27,3)</f>
+      <c r="I27" s="14">
+        <f>[1]!s_dq_close(A27,G27,3)</f>
         <v>8.4570934816654972</v>
       </c>
-      <c r="H27" s="6">
+      <c r="J27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="10">
+      <c r="K27" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A27,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="23" t="str">
+      <c r="L27" s="23" t="str">
         <f>[1]!s_div_ifdiv(A27,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <f>[1]!s_div_recorddate(A27,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L27" s="13">
+      <c r="N27" s="13">
         <f>[1]!s_div_cashbeforetax(A27,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M27" s="14">
-        <f>[1]!s_dq_close(A27,K27,3)</f>
+      <c r="O27" s="14">
+        <f>[1]!s_dq_close(A27,M27,3)</f>
         <v>8.4570934816654972</v>
       </c>
-      <c r="N27" s="6">
+      <c r="P27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>246</v>
       </c>
@@ -6813,72 +7030,80 @@
         <v>2.4400000000000002E-4</v>
       </c>
       <c r="D28" s="18">
-        <f>C28*H28*[1]!s_dq_close("000300.SH",E28,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
+        <f>C28*J28*[1]!s_dq_close("000300.SH",G28,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f>[1]!s_div_ifdiv(A28,"2017/12/31")</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f>[1]!s_div_progress(A28,"20171231")</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <f>[1]!s_div_recorddate(A28,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="F28" s="13">
+      <c r="H28" s="13">
         <f>[1]!s_div_cashbeforetax(A28,"2016/12/31")</f>
         <v>0</v>
       </c>
-      <c r="G28" s="14">
-        <f>[1]!s_dq_close(A28,E28,3)</f>
+      <c r="I28" s="14">
+        <f>[1]!s_dq_close(A28,G28,3)</f>
         <v>1.2527117294217827</v>
       </c>
-      <c r="H28" s="6">
+      <c r="J28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="10">
+      <c r="K28" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A28,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="23" t="str">
+      <c r="L28" s="23" t="str">
         <f>[1]!s_div_ifdiv(A28,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="K28" s="3">
+      <c r="M28" s="3">
         <f>[1]!s_div_recorddate(A28,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="L28" s="13">
+      <c r="N28" s="13">
         <f>[1]!s_div_cashbeforetax(A28,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="M28" s="14">
-        <f>[1]!s_dq_close(A28,K28,3)</f>
+      <c r="O28" s="14">
+        <f>[1]!s_dq_close(A28,M28,3)</f>
         <v>1.2527117294217827</v>
       </c>
-      <c r="N28" s="6">
+      <c r="P28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>602</v>
       </c>
@@ -6886,7 +7111,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>599</v>
       </c>
@@ -6942,14 +7167,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="E36" s="3"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>621</v>
       </c>
@@ -6962,28 +7187,28 @@
       <c r="E37" s="3"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>603</v>
       </c>
@@ -6991,7 +7216,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>599</v>
       </c>
@@ -7047,7 +7272,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>439</v>
       </c>
@@ -7118,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="27" t="s">
         <v>375</v>
       </c>
@@ -7130,7 +7355,7 @@
       </c>
       <c r="D44" s="29">
         <f>C44*L44*[1]!s_dq_close("000300.SH",I44,1)</f>
-        <v>0.30867882527131785</v>
+        <v>0</v>
       </c>
       <c r="E44" s="24" t="str">
         <f>[1]!s_div_ifdiv(A44,"2017/12/31")</f>
@@ -7151,8 +7376,9 @@
       <c r="I44" s="34">
         <v>43139</v>
       </c>
-      <c r="J44" s="30">
-        <v>0.5</v>
+      <c r="J44" s="38">
+        <f>[1]!s_div_cashbeforetax(A44,"2017/12/31")</f>
+        <v>0</v>
       </c>
       <c r="K44" s="30">
         <f>[1]!s_dq_close(A44,I44,3)</f>
@@ -7160,7 +7386,7 @@
       </c>
       <c r="L44" s="28">
         <f>J44/K44</f>
-        <v>3.875968992248062E-2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A44,"2017/12/31",1)</f>
@@ -7187,148 +7413,146 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="36">
         <v>9.2700000000000009E-4</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="37">
         <f>C45*L45*[1]!s_dq_close("000300.SH",I45,1)</f>
         <v>6.9200661790352516E-2</v>
       </c>
-      <c r="E45" s="24" t="str">
+      <c r="E45" s="25" t="str">
         <f>[1]!s_div_ifdiv(A45,"2017/12/31")</f>
         <v>是</v>
       </c>
-      <c r="F45" s="24" t="str">
+      <c r="F45" s="25" t="str">
         <f>[1]!s_div_progress(A45,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G45" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G45" s="25" t="str">
         <f>[1]!s_div_exdate(A45,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="24">
+        <v>2018-03-30</v>
+      </c>
+      <c r="H45" s="25">
         <f>[1]!s_div_ifdiv(A45,"2018/06/30")</f>
         <v>0</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="42">
         <v>43159</v>
       </c>
-      <c r="J45" s="30">
-        <f>[1]!s_div_cashbeforetax(A45,"2016/12/31")</f>
+      <c r="J45" s="38">
+        <f>[1]!s_div_cashbeforetax(A45,"2017/12/31")</f>
         <v>0.9</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="38">
         <f>[1]!s_dq_close(A45,I45,3)</f>
         <v>48.51</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45" s="36">
         <f t="shared" ref="L45" si="2">J45/K45</f>
         <v>1.8552875695732839E-2</v>
       </c>
-      <c r="M45" s="31">
+      <c r="M45" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A45,"2017/12/31",1)</f>
         <v>723023205.60000002</v>
       </c>
-      <c r="N45" s="32" t="str">
+      <c r="N45" s="40" t="str">
         <f>[1]!s_div_ifdiv(A45,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="25">
         <f>[1]!s_div_recorddate(A45,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="38">
         <f>[1]!s_div_cashbeforetax(A45,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45" s="38">
         <f>[1]!s_dq_close(A45,O45,3)</f>
         <v>8.3438283234204427</v>
       </c>
-      <c r="R45" s="28">
+      <c r="R45" s="36">
         <f>P45/Q45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="28">
         <v>1.7930000000000001E-3</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="29">
         <f>C46*L46*[1]!s_dq_close("000300.SH",I46,1)</f>
-        <v>4.0085665476721904E-2</v>
-      </c>
-      <c r="E46" s="4">
+        <v>1.3361888492240638E-2</v>
+      </c>
+      <c r="E46" s="24" t="str">
         <f>[1]!s_div_ifdiv(A46,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+        <v>是</v>
+      </c>
+      <c r="F46" s="24" t="str">
         <f>[1]!s_div_progress(A46,"20171231")</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <f>[1]!s_div_exdate(A46,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
+        <v>董事会预案</v>
+      </c>
+      <c r="G46" s="34">
+        <v>43183</v>
+      </c>
+      <c r="H46" s="24">
         <f>[1]!s_div_ifdiv(A46,"2018/06/30")</f>
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="str">
+      <c r="I46" s="24" t="str">
         <f>[1]!s_div_recorddate(A46,"2016/12/31")</f>
         <v>2017-04-07</v>
       </c>
-      <c r="J46" s="13">
-        <f>[1]!s_div_cashbeforetax(A46,"2016/12/31")</f>
-        <v>0.03</v>
-      </c>
-      <c r="K46" s="14">
+      <c r="J46" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="30">
         <f>[1]!s_dq_close(A46,I46,3)</f>
         <v>4.7200003800828156</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="28">
         <f t="shared" ref="L46:L52" si="3">J46/K46</f>
-        <v>6.355931691571946E-3</v>
-      </c>
-      <c r="M46" s="10">
+        <v>2.1186438971906489E-3</v>
+      </c>
+      <c r="M46" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A46,"2017/12/31",1)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="23" t="str">
+      <c r="N46" s="32" t="str">
         <f>[1]!s_div_ifdiv(A46,"2017/06/30")</f>
         <v>否</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="24">
         <f>[1]!s_div_recorddate(A46,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="30">
         <f>[1]!s_div_cashbeforetax(A46,"2017/06/30")</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="30">
         <f>[1]!s_dq_close(A46,O46,3)</f>
         <v>14.752844110440805</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="28">
         <f t="shared" ref="R46:R52" si="4">P46/Q46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>199</v>
       </c>
@@ -7399,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>132</v>
       </c>
@@ -7468,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
         <v>191</v>
       </c>
@@ -7537,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>195</v>
       </c>
@@ -7608,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>140</v>
       </c>
@@ -7679,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
@@ -7750,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>622</v>
       </c>
@@ -7758,19 +7982,19 @@
       <c r="C54" s="6"/>
       <c r="D54" s="22">
         <f>SUM(D43:D52)</f>
-        <v>1.0004167240990938</v>
+        <v>0.66501412184329478</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="E55" s="3"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>604</v>
       </c>
@@ -7778,7 +8002,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>599</v>
       </c>
@@ -7834,7 +8058,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>556</v>
       </c>
@@ -7848,13 +8072,13 @@
         <f>C58*L58*[1]!s_dq_close("000300.SH",I58,1)</f>
         <v>0.1145357239943401</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="4" t="str">
         <f>[1]!s_div_ifdiv(A58,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+        <v>是</v>
+      </c>
+      <c r="F58" s="3" t="str">
         <f>[1]!s_div_progress(A58,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G58" s="3">
         <f>[1]!s_div_exdate(A58,"2017/12/31")</f>
@@ -7905,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -7976,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>183</v>
       </c>
@@ -8047,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>339</v>
       </c>
@@ -8061,13 +8285,13 @@
         <f>C61*L61*[1]!s_dq_close("000300.SH",I61,1)</f>
         <v>5.6387829750495257E-2</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="4" t="str">
         <f>[1]!s_div_ifdiv(A61,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+        <v>是</v>
+      </c>
+      <c r="F61" s="3" t="str">
         <f>[1]!s_div_progress(A61,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G61" s="3">
         <f>[1]!s_div_exdate(A61,"2017/12/31")</f>
@@ -8118,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>562</v>
       </c>
@@ -8189,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>122</v>
       </c>
@@ -8260,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>389</v>
       </c>
@@ -8331,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>542</v>
       </c>
@@ -8402,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>415</v>
       </c>
@@ -8473,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>387</v>
       </c>
@@ -8544,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>15</v>
       </c>
@@ -8615,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>149</v>
       </c>
@@ -8629,13 +8853,13 @@
         <f>C69*L69*[1]!s_dq_close("000300.SH",I69,1)</f>
         <v>5.4537758070157996E-2</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="4" t="str">
         <f>[1]!s_div_ifdiv(A69,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+        <v>是</v>
+      </c>
+      <c r="F69" s="3" t="str">
         <f>[1]!s_div_progress(A69,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G69" s="3">
         <f>[1]!s_div_exdate(A69,"2017/12/31")</f>
@@ -8686,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>519</v>
       </c>
@@ -8757,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>333</v>
       </c>
@@ -8771,13 +8995,13 @@
         <f>C71*L71*[1]!s_dq_close("000300.SH",I71,1)</f>
         <v>1.8359933233959149E-2</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="4" t="str">
         <f>[1]!s_div_ifdiv(A71,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+        <v>是</v>
+      </c>
+      <c r="F71" s="3" t="str">
         <f>[1]!s_div_progress(A71,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G71" s="3">
         <f>[1]!s_div_exdate(A71,"2017/12/31")</f>
@@ -8828,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>157</v>
       </c>
@@ -8899,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>181</v>
       </c>
@@ -8970,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
@@ -8984,13 +9208,13 @@
         <f>C74*L74*[1]!s_dq_close("000300.SH",I74,1)</f>
         <v>0.45159237456219326</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="4" t="str">
         <f>[1]!s_div_ifdiv(A74,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+        <v>是</v>
+      </c>
+      <c r="F74" s="3" t="str">
         <f>[1]!s_div_progress(A74,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G74" s="3">
         <f>[1]!s_div_exdate(A74,"2017/12/31")</f>
@@ -9041,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -9112,7 +9336,7 @@
         <v>2.9154518548137084E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>35</v>
       </c>
@@ -9183,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -9254,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="27" t="s">
         <v>427</v>
       </c>
@@ -9323,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>549</v>
       </c>
@@ -9337,13 +9561,13 @@
         <f>C79*L79*[1]!s_dq_close("000300.SH",I79,1)</f>
         <v>0.11135447638796998</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="4" t="str">
         <f>[1]!s_div_ifdiv(A79,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+        <v>是</v>
+      </c>
+      <c r="F79" s="3" t="str">
         <f>[1]!s_div_progress(A79,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G79" s="3">
         <f>[1]!s_div_exdate(A79,"2017/12/31")</f>
@@ -9394,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>134</v>
       </c>
@@ -9465,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>558</v>
       </c>
@@ -9536,7 +9760,7 @@
         <v>3.0883262643121665E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>580</v>
       </c>
@@ -9607,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
         <v>347</v>
       </c>
@@ -9676,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="27" t="s">
         <v>568</v>
       </c>
@@ -9745,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>138</v>
       </c>
@@ -9816,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>255</v>
       </c>
@@ -9887,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>353</v>
       </c>
@@ -9958,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="35" t="s">
         <v>287</v>
       </c>
@@ -10028,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>566</v>
       </c>
@@ -10099,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>313</v>
       </c>
@@ -10170,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>267</v>
       </c>
@@ -10241,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>538</v>
       </c>
@@ -10312,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="19" t="s">
         <v>622</v>
       </c>
@@ -10321,35 +10545,35 @@
         <v>8.4307107143104769</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="E95" s="3"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="E96" s="3"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="E97" s="3"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="E98" s="3"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>605</v>
       </c>
@@ -10357,7 +10581,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>599</v>
       </c>
@@ -10413,7 +10637,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>465</v>
       </c>
@@ -10484,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>249</v>
       </c>
@@ -10555,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>57</v>
       </c>
@@ -10626,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>87</v>
       </c>
@@ -10697,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>71</v>
       </c>
@@ -10768,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>159</v>
       </c>
@@ -10839,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>205</v>
       </c>
@@ -10910,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>144</v>
       </c>
@@ -10981,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>147</v>
       </c>
@@ -11052,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>481</v>
       </c>
@@ -11066,13 +11290,13 @@
         <f>C110*L110*[1]!s_dq_close("000300.SH",I110,1)</f>
         <v>0.13106886612066809</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="4" t="str">
         <f>[1]!s_div_ifdiv(A110,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
+        <v>是</v>
+      </c>
+      <c r="F110" s="3" t="str">
         <f>[1]!s_div_progress(A110,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G110" s="3">
         <f>[1]!s_div_exdate(A110,"2017/12/31")</f>
@@ -11123,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>361</v>
       </c>
@@ -11194,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
         <v>197</v>
       </c>
@@ -11265,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27" t="s">
         <v>281</v>
       </c>
@@ -11334,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>175</v>
       </c>
@@ -11405,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
         <v>554</v>
       </c>
@@ -11476,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
         <v>59</v>
       </c>
@@ -11490,13 +11714,13 @@
         <f>C116*L116*[1]!s_dq_close("000300.SH",I116,1)</f>
         <v>2.2882099333362232E-3</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="4" t="str">
         <f>[1]!s_div_ifdiv(A116,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
+        <v>是</v>
+      </c>
+      <c r="F116" s="3" t="str">
         <f>[1]!s_div_progress(A116,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G116" s="3">
         <f>[1]!s_div_exdate(A116,"2017/12/31")</f>
@@ -11547,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
         <v>283</v>
       </c>
@@ -11618,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>211</v>
       </c>
@@ -11689,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>207</v>
       </c>
@@ -11760,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
@@ -11831,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -11902,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>104</v>
       </c>
@@ -11973,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>305</v>
       </c>
@@ -12115,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27" t="s">
         <v>269</v>
       </c>
@@ -12184,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>303</v>
       </c>
@@ -12255,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>397</v>
       </c>
@@ -12326,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>95</v>
       </c>
@@ -12397,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>257</v>
       </c>
@@ -12468,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="27" t="s">
         <v>329</v>
       </c>
@@ -12537,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
         <v>112</v>
       </c>
@@ -12608,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
         <v>399</v>
       </c>
@@ -12679,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -12750,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
         <v>277</v>
       </c>
@@ -12821,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
@@ -12892,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>27</v>
       </c>
@@ -12963,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="27" t="s">
         <v>120</v>
       </c>
@@ -13032,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>285</v>
       </c>
@@ -13103,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
         <v>363</v>
       </c>
@@ -13174,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
         <v>237</v>
       </c>
@@ -13245,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
         <v>293</v>
       </c>
@@ -13316,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
         <v>67</v>
       </c>
@@ -13387,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
         <v>171</v>
       </c>
@@ -13458,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
         <v>61</v>
       </c>
@@ -13529,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>146</v>
       </c>
@@ -13600,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>311</v>
       </c>
@@ -13671,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>155</v>
       </c>
@@ -13742,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
         <v>457</v>
       </c>
@@ -13813,7 +14037,7 @@
         <v>8.2766468244600457E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
         <v>291</v>
       </c>
@@ -13884,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
         <v>93</v>
       </c>
@@ -13898,13 +14122,13 @@
         <f>C150*L150*[1]!s_dq_close("000300.SH",I150,1)</f>
         <v>5.0943492750395725E-2</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="4" t="str">
         <f>[1]!s_div_ifdiv(A150,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
+        <v>是</v>
+      </c>
+      <c r="F150" s="3" t="str">
         <f>[1]!s_div_progress(A150,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G150" s="3">
         <f>[1]!s_div_exdate(A150,"2017/12/31")</f>
@@ -13955,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
         <v>403</v>
       </c>
@@ -14026,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
         <v>301</v>
       </c>
@@ -14097,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
         <v>126</v>
       </c>
@@ -14168,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>233</v>
       </c>
@@ -14182,13 +14406,13 @@
         <f>C154*L154*[1]!s_dq_close("000300.SH",I154,1)</f>
         <v>3.2430899756909217</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="4" t="str">
         <f>[1]!s_div_ifdiv(A154,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
+        <v>是</v>
+      </c>
+      <c r="F154" s="3" t="str">
         <f>[1]!s_div_progress(A154,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G154" s="3">
         <f>[1]!s_div_exdate(A154,"2017/12/31")</f>
@@ -14239,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>431</v>
       </c>
@@ -14310,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>219</v>
       </c>
@@ -14381,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
@@ -14452,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>242</v>
       </c>
@@ -14523,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
         <v>106</v>
       </c>
@@ -14594,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
         <v>534</v>
       </c>
@@ -14665,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
         <v>187</v>
       </c>
@@ -14679,13 +14903,13 @@
         <f>C161*L161*[1]!s_dq_close("000300.SH",I161,1)</f>
         <v>1.8397068596066848E-2</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="4" t="str">
         <f>[1]!s_div_ifdiv(A161,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="3">
+        <v>是</v>
+      </c>
+      <c r="F161" s="3" t="str">
         <f>[1]!s_div_progress(A161,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G161" s="3">
         <f>[1]!s_div_exdate(A161,"2017/12/31")</f>
@@ -14736,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
         <v>335</v>
       </c>
@@ -14807,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
         <v>349</v>
       </c>
@@ -14878,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
         <v>327</v>
       </c>
@@ -14892,13 +15116,13 @@
         <f>C164*L164*[1]!s_dq_close("000300.SH",I164,1)</f>
         <v>9.6807141481693365E-2</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="4" t="str">
         <f>[1]!s_div_ifdiv(A164,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F164" s="3">
+        <v>是</v>
+      </c>
+      <c r="F164" s="3" t="str">
         <f>[1]!s_div_progress(A164,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G164" s="3">
         <f>[1]!s_div_exdate(A164,"2017/12/31")</f>
@@ -14949,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
         <v>223</v>
       </c>
@@ -15020,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="27" t="s">
         <v>261</v>
       </c>
@@ -15090,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
         <v>483</v>
       </c>
@@ -15161,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>253</v>
       </c>
@@ -15232,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
         <v>128</v>
       </c>
@@ -15303,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
         <v>511</v>
       </c>
@@ -15374,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
         <v>479</v>
       </c>
@@ -15445,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27" t="s">
         <v>564</v>
       </c>
@@ -15514,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>13</v>
       </c>
@@ -15585,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
         <v>413</v>
       </c>
@@ -15656,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27" t="s">
         <v>63</v>
       </c>
@@ -15725,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>167</v>
       </c>
@@ -15796,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
         <v>19</v>
       </c>
@@ -15810,13 +16034,13 @@
         <f>C177*L177*[1]!s_dq_close("000300.SH",I177,1)</f>
         <v>0.13123762329012453</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="4" t="str">
         <f>[1]!s_div_ifdiv(A177,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F177" s="3">
+        <v>是</v>
+      </c>
+      <c r="F177" s="3" t="str">
         <f>[1]!s_div_progress(A177,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G177" s="3">
         <f>[1]!s_div_exdate(A177,"2017/12/31")</f>
@@ -15867,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
         <v>201</v>
       </c>
@@ -15938,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
         <v>391</v>
       </c>
@@ -16009,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
         <v>544</v>
       </c>
@@ -16080,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A183" s="19" t="s">
         <v>622</v>
       </c>
@@ -16089,14 +16313,14 @@
         <v>19.783998957256642</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
       <c r="E186" s="3"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>606</v>
       </c>
@@ -16104,7 +16328,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="14"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>599</v>
       </c>
@@ -16160,7 +16384,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189" s="5" t="s">
         <v>37</v>
       </c>
@@ -16231,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
         <v>7</v>
       </c>
@@ -16302,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
         <v>173</v>
       </c>
@@ -16373,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
         <v>39</v>
       </c>
@@ -16444,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
         <v>69</v>
       </c>
@@ -16515,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
         <v>124</v>
       </c>
@@ -16586,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
         <v>89</v>
       </c>
@@ -16657,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
         <v>337</v>
       </c>
@@ -16728,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
         <v>53</v>
       </c>
@@ -16799,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
         <v>43</v>
       </c>
@@ -16870,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
         <v>507</v>
       </c>
@@ -16941,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
         <v>501</v>
       </c>
@@ -17012,7 +17236,7 @@
         <v>8.7010077258333346E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="s">
         <v>307</v>
       </c>
@@ -17083,7 +17307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
         <v>341</v>
       </c>
@@ -17154,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
         <v>161</v>
       </c>
@@ -17225,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="s">
         <v>309</v>
       </c>
@@ -17296,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="s">
         <v>241</v>
       </c>
@@ -17367,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="s">
         <v>221</v>
       </c>
@@ -17438,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="s">
         <v>179</v>
       </c>
@@ -17452,13 +17676,13 @@
         <f>C207*L207*[1]!s_dq_close("000300.SH",I207,1)</f>
         <v>3.6301851819120711E-3</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="4" t="str">
         <f>[1]!s_div_ifdiv(A207,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F207" s="3">
+        <v>是</v>
+      </c>
+      <c r="F207" s="3" t="str">
         <f>[1]!s_div_progress(A207,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G207" s="3">
         <f>[1]!s_div_exdate(A207,"2017/12/31")</f>
@@ -17509,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="s">
         <v>244</v>
       </c>
@@ -17580,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A209" s="5" t="s">
         <v>315</v>
       </c>
@@ -17651,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27" t="s">
         <v>235</v>
       </c>
@@ -17720,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A211" s="5" t="s">
         <v>279</v>
       </c>
@@ -17734,13 +17958,13 @@
         <f>C211*L211*[1]!s_dq_close("000300.SH",I211,1)</f>
         <v>1.2688603474986874E-2</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="4" t="str">
         <f>[1]!s_div_ifdiv(A211,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F211" s="3">
+        <v>是</v>
+      </c>
+      <c r="F211" s="3" t="str">
         <f>[1]!s_div_progress(A211,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G211" s="3">
         <f>[1]!s_div_exdate(A211,"2017/12/31")</f>
@@ -17791,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A212" s="5" t="s">
         <v>525</v>
       </c>
@@ -17862,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="s">
         <v>321</v>
       </c>
@@ -17933,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
@@ -18004,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A215" s="5" t="s">
         <v>409</v>
       </c>
@@ -18075,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A216" s="5" t="s">
         <v>110</v>
       </c>
@@ -18146,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A217" s="5" t="s">
         <v>437</v>
       </c>
@@ -18217,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A218" s="5" t="s">
         <v>521</v>
       </c>
@@ -18288,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27" t="s">
         <v>572</v>
       </c>
@@ -18357,7 +18581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A220" s="5" t="s">
         <v>497</v>
       </c>
@@ -18428,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A221" s="5" t="s">
         <v>546</v>
       </c>
@@ -18442,13 +18666,13 @@
         <f>C221*L221*[1]!s_dq_close("000300.SH",I221,1)</f>
         <v>4.8678601179491285E-2</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="4" t="str">
         <f>[1]!s_div_ifdiv(A221,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F221" s="3">
+        <v>是</v>
+      </c>
+      <c r="F221" s="3" t="str">
         <f>[1]!s_div_progress(A221,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G221" s="3">
         <f>[1]!s_div_exdate(A221,"2017/12/31")</f>
@@ -18499,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A222" s="5" t="s">
         <v>331</v>
       </c>
@@ -18570,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A223" s="5" t="s">
         <v>177</v>
       </c>
@@ -18641,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A224" s="5" t="s">
         <v>371</v>
       </c>
@@ -18712,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A225" s="5" t="s">
         <v>49</v>
       </c>
@@ -18783,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="s">
         <v>509</v>
       </c>
@@ -18854,7 +19078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A227" s="5" t="s">
         <v>47</v>
       </c>
@@ -18925,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A228" s="5" t="s">
         <v>499</v>
       </c>
@@ -18996,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A229" s="5" t="s">
         <v>65</v>
       </c>
@@ -19010,13 +19234,13 @@
         <f>C229*L229*[1]!s_dq_close("000300.SH",I229,1)</f>
         <v>0.31838464410202627</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229" s="4" t="str">
         <f>[1]!s_div_ifdiv(A229,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F229" s="3">
+        <v>是</v>
+      </c>
+      <c r="F229" s="3" t="str">
         <f>[1]!s_div_progress(A229,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G229" s="3">
         <f>[1]!s_div_exdate(A229,"2017/12/31")</f>
@@ -19067,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="27" t="s">
         <v>576</v>
       </c>
@@ -19136,7 +19360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A231" s="5" t="s">
         <v>317</v>
       </c>
@@ -19207,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A232" s="5" t="s">
         <v>215</v>
       </c>
@@ -19278,7 +19502,7 @@
         <v>1.4925373112124938E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A233" s="5" t="s">
         <v>98</v>
       </c>
@@ -19349,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A234" s="5" t="s">
         <v>153</v>
       </c>
@@ -19420,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
@@ -19491,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A236" s="5" t="s">
         <v>533</v>
       </c>
@@ -19562,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A237" s="5" t="s">
         <v>297</v>
       </c>
@@ -19633,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A238" s="5" t="s">
         <v>582</v>
       </c>
@@ -19704,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>323</v>
       </c>
@@ -19775,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A240" s="5" t="s">
         <v>451</v>
       </c>
@@ -19846,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A241" s="5" t="s">
         <v>552</v>
       </c>
@@ -19917,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A242" s="5" t="s">
         <v>570</v>
       </c>
@@ -19988,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A243" s="5" t="s">
         <v>421</v>
       </c>
@@ -20059,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A244" s="5" t="s">
         <v>85</v>
       </c>
@@ -20130,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A245" s="5" t="s">
         <v>81</v>
       </c>
@@ -20201,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="27" t="s">
         <v>299</v>
       </c>
@@ -20270,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A247" s="5" t="s">
         <v>417</v>
       </c>
@@ -20284,13 +20508,13 @@
         <f>C247*L247*[1]!s_dq_close("000300.SH",I247,1)</f>
         <v>2.2503037187456423</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="4" t="str">
         <f>[1]!s_div_ifdiv(A247,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F247" s="3">
+        <v>是</v>
+      </c>
+      <c r="F247" s="3" t="str">
         <f>[1]!s_div_progress(A247,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G247" s="3">
         <f>[1]!s_div_exdate(A247,"2017/12/31")</f>
@@ -20341,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A248" s="5" t="s">
         <v>369</v>
       </c>
@@ -20412,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>449</v>
       </c>
@@ -20483,7 +20707,7 @@
         <v>8.9814994522222878E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A250" s="5" t="s">
         <v>463</v>
       </c>
@@ -20554,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A251" s="5" t="s">
         <v>108</v>
       </c>
@@ -20625,7 +20849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="27" t="s">
         <v>169</v>
       </c>
@@ -20694,7 +20918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="27" t="s">
         <v>142</v>
       </c>
@@ -20763,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A254" s="5" t="s">
         <v>136</v>
       </c>
@@ -20834,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A255" s="5" t="s">
         <v>433</v>
       </c>
@@ -20905,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A256" s="5" t="s">
         <v>33</v>
       </c>
@@ -20976,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A257" s="5" t="s">
         <v>295</v>
       </c>
@@ -21047,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258" s="5" t="s">
         <v>203</v>
       </c>
@@ -21118,7 +21342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A259" s="5" t="s">
         <v>51</v>
       </c>
@@ -21189,7 +21413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A260" s="5" t="s">
         <v>114</v>
       </c>
@@ -21260,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A261" s="5" t="s">
         <v>447</v>
       </c>
@@ -21274,13 +21498,13 @@
         <f>C261*L261*[1]!s_dq_close("000300.SH",I261,1)</f>
         <v>2.4367119174336529</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="4" t="str">
         <f>[1]!s_div_ifdiv(A261,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F261" s="3">
+        <v>是</v>
+      </c>
+      <c r="F261" s="3" t="str">
         <f>[1]!s_div_progress(A261,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G261" s="3">
         <f>[1]!s_div_exdate(A261,"2017/12/31")</f>
@@ -21331,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A262" s="5" t="s">
         <v>91</v>
       </c>
@@ -21345,13 +21569,13 @@
         <f>C262*L262*[1]!s_dq_close("000300.SH",I262,1)</f>
         <v>0.38596342047223836</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="4" t="str">
         <f>[1]!s_div_ifdiv(A262,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F262" s="3">
+        <v>是</v>
+      </c>
+      <c r="F262" s="3" t="str">
         <f>[1]!s_div_progress(A262,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G262" s="3">
         <f>[1]!s_div_exdate(A262,"2017/12/31")</f>
@@ -21402,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A263" s="5" t="s">
         <v>357</v>
       </c>
@@ -21473,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A264" s="5" t="s">
         <v>475</v>
       </c>
@@ -21544,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A265" s="5" t="s">
         <v>55</v>
       </c>
@@ -21615,7 +21839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A266" s="5" t="s">
         <v>393</v>
       </c>
@@ -21686,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A267" s="5" t="s">
         <v>529</v>
       </c>
@@ -21757,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A268" s="5" t="s">
         <v>485</v>
       </c>
@@ -21828,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A269" s="5" t="s">
         <v>471</v>
       </c>
@@ -21842,13 +22066,13 @@
         <f>C269*L269*[1]!s_dq_close("000300.SH",I269,1)</f>
         <v>0.10869546974488439</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="4" t="str">
         <f>[1]!s_div_ifdiv(A269,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F269" s="3">
+        <v>是</v>
+      </c>
+      <c r="F269" s="3" t="str">
         <f>[1]!s_div_progress(A269,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G269" s="3">
         <f>[1]!s_div_exdate(A269,"2017/12/31")</f>
@@ -21899,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A270" s="5" t="s">
         <v>265</v>
       </c>
@@ -21970,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A271" s="5" t="s">
         <v>351</v>
       </c>
@@ -22041,7 +22265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A272" s="5" t="s">
         <v>373</v>
       </c>
@@ -22112,7 +22336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A273" s="5" t="s">
         <v>423</v>
       </c>
@@ -22183,7 +22407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A274" s="5" t="s">
         <v>23</v>
       </c>
@@ -22254,7 +22478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -22268,13 +22492,13 @@
         <f>C275*L275*[1]!s_dq_close("000300.SH",I275,1)</f>
         <v>1.7484245157717276E-2</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="4" t="str">
         <f>[1]!s_div_ifdiv(A275,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F275" s="3">
+        <v>是</v>
+      </c>
+      <c r="F275" s="3" t="str">
         <f>[1]!s_div_progress(A275,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G275" s="3">
         <f>[1]!s_div_exdate(A275,"2017/12/31")</f>
@@ -22325,7 +22549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="27" t="s">
         <v>289</v>
       </c>
@@ -22394,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A277" s="5" t="s">
         <v>151</v>
       </c>
@@ -22465,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A278" s="5" t="s">
         <v>395</v>
       </c>
@@ -22536,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A279" s="5" t="s">
         <v>584</v>
       </c>
@@ -22607,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A280" s="5" t="s">
         <v>31</v>
       </c>
@@ -22678,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A281" s="5" t="s">
         <v>411</v>
       </c>
@@ -22749,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="27" t="s">
         <v>25</v>
       </c>
@@ -22818,7 +23042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A283" s="5" t="s">
         <v>130</v>
       </c>
@@ -22889,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A284" s="5" t="s">
         <v>217</v>
       </c>
@@ -22960,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A285" s="5" t="s">
         <v>477</v>
       </c>
@@ -23031,7 +23255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A286" s="5" t="s">
         <v>102</v>
       </c>
@@ -23102,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A287" s="5" t="s">
         <v>377</v>
       </c>
@@ -23173,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="27" t="s">
         <v>540</v>
       </c>
@@ -23242,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A289" s="5" t="s">
         <v>225</v>
       </c>
@@ -23256,13 +23480,13 @@
         <f>C289*L289*[1]!s_dq_close("000300.SH",I289,1)</f>
         <v>0.59152885960795243</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="4" t="str">
         <f>[1]!s_div_ifdiv(A289,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F289" s="3">
+        <v>是</v>
+      </c>
+      <c r="F289" s="3" t="str">
         <f>[1]!s_div_progress(A289,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G289" s="3">
         <f>[1]!s_div_exdate(A289,"2017/12/31")</f>
@@ -23313,7 +23537,7 @@
         <v>1.7094018301630928E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A290" s="5" t="s">
         <v>435</v>
       </c>
@@ -23384,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A291" s="5" t="s">
         <v>495</v>
       </c>
@@ -23398,13 +23622,13 @@
         <f>C291*L291*[1]!s_dq_close("000300.SH",I291,1)</f>
         <v>0.10886157048795179</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="4" t="str">
         <f>[1]!s_div_ifdiv(A291,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F291" s="3">
+        <v>是</v>
+      </c>
+      <c r="F291" s="3" t="str">
         <f>[1]!s_div_progress(A291,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G291" s="3">
         <f>[1]!s_div_exdate(A291,"2017/12/31")</f>
@@ -23455,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A292" s="5" t="s">
         <v>489</v>
       </c>
@@ -23526,7 +23750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A293" s="5" t="s">
         <v>443</v>
       </c>
@@ -23597,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A294" s="5" t="s">
         <v>445</v>
       </c>
@@ -23668,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A295" s="5" t="s">
         <v>355</v>
       </c>
@@ -23739,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -23748,7 +23972,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -23757,7 +23981,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A298" s="19" t="s">
         <v>622</v>
       </c>
@@ -23771,7 +23995,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -23780,14 +24004,14 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="E300" s="3"/>
       <c r="F300" s="13"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>607</v>
       </c>
@@ -23795,7 +24019,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="14"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>599</v>
       </c>
@@ -23851,7 +24075,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="27" t="s">
         <v>597</v>
       </c>
@@ -23920,7 +24144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A304" s="5" t="s">
         <v>17</v>
       </c>
@@ -23991,7 +24215,7 @@
         <v>2.016128982969928E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A305" s="5" t="s">
         <v>407</v>
       </c>
@@ -24062,7 +24286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="27" t="s">
         <v>365</v>
       </c>
@@ -24131,7 +24355,7 @@
         <v>2.3696682712425208E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A307" s="5" t="s">
         <v>319</v>
       </c>
@@ -24202,7 +24426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A308" s="5" t="s">
         <v>325</v>
       </c>
@@ -24273,7 +24497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A309" s="5" t="s">
         <v>536</v>
       </c>
@@ -24287,13 +24511,13 @@
         <f>C309*L309*[1]!s_dq_close("000300.SH",I309,1)</f>
         <v>0.20913595954926542</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309" s="4" t="str">
         <f>[1]!s_div_ifdiv(A309,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F309" s="3">
+        <v>是</v>
+      </c>
+      <c r="F309" s="3" t="str">
         <f>[1]!s_div_progress(A309,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G309" s="3">
         <f>[1]!s_div_exdate(A309,"2017/12/31")</f>
@@ -24344,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A310" s="5" t="s">
         <v>588</v>
       </c>
@@ -24415,7 +24639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A311" s="5" t="s">
         <v>263</v>
       </c>
@@ -24486,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A312" s="5" t="s">
         <v>405</v>
       </c>
@@ -24557,7 +24781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A313" s="5" t="s">
         <v>227</v>
       </c>
@@ -24571,13 +24795,13 @@
         <f>C313*L313*[1]!s_dq_close("000300.SH",I313,1)</f>
         <v>0.15634830738298097</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="4" t="str">
         <f>[1]!s_div_ifdiv(A313,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F313" s="3">
+        <v>是</v>
+      </c>
+      <c r="F313" s="3" t="str">
         <f>[1]!s_div_progress(A313,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G313" s="3">
         <f>[1]!s_div_exdate(A313,"2017/12/31")</f>
@@ -24628,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A314" s="5" t="s">
         <v>505</v>
       </c>
@@ -24699,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A315" s="5" t="s">
         <v>381</v>
       </c>
@@ -24770,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A316" s="5" t="s">
         <v>527</v>
       </c>
@@ -24841,7 +25065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A317" s="5" t="s">
         <v>429</v>
       </c>
@@ -24912,7 +25136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A318" s="5" t="s">
         <v>359</v>
       </c>
@@ -24983,7 +25207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A319" s="5" t="s">
         <v>469</v>
       </c>
@@ -25054,7 +25278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A320" s="5" t="s">
         <v>401</v>
       </c>
@@ -25125,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A321" s="5" t="s">
         <v>459</v>
       </c>
@@ -25196,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A322" s="5" t="s">
         <v>379</v>
       </c>
@@ -25267,7 +25491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A323" s="5" t="s">
         <v>163</v>
       </c>
@@ -25338,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A324" s="5" t="s">
         <v>513</v>
       </c>
@@ -25352,13 +25576,13 @@
         <f>C324*L324*[1]!s_dq_close("000300.SH",I324,1)</f>
         <v>0.24911960886626411</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324" s="4" t="str">
         <f>[1]!s_div_ifdiv(A324,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F324" s="3">
+        <v>是</v>
+      </c>
+      <c r="F324" s="3" t="str">
         <f>[1]!s_div_progress(A324,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G324" s="3">
         <f>[1]!s_div_exdate(A324,"2017/12/31")</f>
@@ -25409,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A325" s="5" t="s">
         <v>461</v>
       </c>
@@ -25480,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A326" s="5" t="s">
         <v>487</v>
       </c>
@@ -25551,7 +25775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A327" s="5" t="s">
         <v>77</v>
       </c>
@@ -25622,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A328" s="5" t="s">
         <v>273</v>
       </c>
@@ -25636,13 +25860,13 @@
         <f>C328*L328*[1]!s_dq_close("000300.SH",I328,1)</f>
         <v>0.16127746028093676</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328" s="4" t="str">
         <f>[1]!s_div_ifdiv(A328,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F328" s="3">
+        <v>是</v>
+      </c>
+      <c r="F328" s="3" t="str">
         <f>[1]!s_div_progress(A328,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G328" s="3">
         <f>[1]!s_div_exdate(A328,"2017/12/31")</f>
@@ -25693,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A329" s="5" t="s">
         <v>455</v>
       </c>
@@ -25764,7 +25988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A330" s="5" t="s">
         <v>259</v>
       </c>
@@ -25835,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A331" s="5" t="s">
         <v>441</v>
       </c>
@@ -25906,7 +26130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A332" s="5" t="s">
         <v>493</v>
       </c>
@@ -25977,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A333" s="5" t="s">
         <v>453</v>
       </c>
@@ -26048,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A334" s="5" t="s">
         <v>247</v>
       </c>
@@ -26119,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A335" s="5" t="s">
         <v>229</v>
       </c>
@@ -26190,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A336" s="5" t="s">
         <v>73</v>
       </c>
@@ -26261,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A337" s="5" t="s">
         <v>343</v>
       </c>
@@ -26332,21 +26556,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="E338" s="3"/>
       <c r="F338" s="13"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="E339" s="3"/>
       <c r="F339" s="13"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A340" s="19" t="s">
         <v>622</v>
       </c>
@@ -26359,28 +26583,28 @@
       <c r="E340" s="3"/>
       <c r="F340" s="13"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="E341" s="3"/>
       <c r="F341" s="13"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="E342" s="3"/>
       <c r="F342" s="13"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="E343" s="3"/>
       <c r="F343" s="13"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A344" s="9" t="s">
         <v>620</v>
       </c>
@@ -26388,7 +26612,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="14"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>599</v>
       </c>
@@ -26444,7 +26668,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A346" s="5" t="s">
         <v>209</v>
       </c>
@@ -26458,13 +26682,13 @@
         <f>C346*L346*[1]!s_dq_close("000300.SH",I346,1)</f>
         <v>0.18072811382441864</v>
       </c>
-      <c r="E346" s="4">
+      <c r="E346" s="4" t="str">
         <f>[1]!s_div_ifdiv(A346,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F346" s="3">
+        <v>是</v>
+      </c>
+      <c r="F346" s="3" t="str">
         <f>[1]!s_div_progress(A346,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G346" s="3">
         <f>[1]!s_div_exdate(A346,"2017/12/31")</f>
@@ -26515,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A347" s="5" t="s">
         <v>231</v>
       </c>
@@ -26586,7 +26810,7 @@
         <v>2.5641025620848873E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A348" s="5" t="s">
         <v>116</v>
       </c>
@@ -26600,13 +26824,13 @@
         <f>C348*L348*[1]!s_dq_close("000300.SH",I348,1)</f>
         <v>0.20032472315505923</v>
       </c>
-      <c r="E348" s="4">
+      <c r="E348" s="4" t="str">
         <f>[1]!s_div_ifdiv(A348,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F348" s="3">
+        <v>是</v>
+      </c>
+      <c r="F348" s="3" t="str">
         <f>[1]!s_div_progress(A348,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G348" s="3">
         <f>[1]!s_div_exdate(A348,"2017/12/31")</f>
@@ -26657,7 +26881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A349" s="5" t="s">
         <v>385</v>
       </c>
@@ -26671,13 +26895,13 @@
         <f>C349*L349*[1]!s_dq_close("000300.SH",I349,1)</f>
         <v>0.23696869472965756</v>
       </c>
-      <c r="E349" s="4">
+      <c r="E349" s="4" t="str">
         <f>[1]!s_div_ifdiv(A349,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F349" s="3">
+        <v>是</v>
+      </c>
+      <c r="F349" s="3" t="str">
         <f>[1]!s_div_progress(A349,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G349" s="3">
         <f>[1]!s_div_exdate(A349,"2017/12/31")</f>
@@ -26728,7 +26952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A350" s="5" t="s">
         <v>11</v>
       </c>
@@ -26799,7 +27023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A351" s="5" t="s">
         <v>0</v>
       </c>
@@ -26813,13 +27037,13 @@
         <f>C351*L351*[1]!s_dq_close("000300.SH",I351,1)</f>
         <v>1.7482320172827555</v>
       </c>
-      <c r="E351" s="4">
+      <c r="E351" s="4" t="str">
         <f>[1]!s_div_ifdiv(A351,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F351" s="3">
+        <v>是</v>
+      </c>
+      <c r="F351" s="3" t="str">
         <f>[1]!s_div_progress(A351,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G351" s="3">
         <f>[1]!s_div_exdate(A351,"2017/12/31")</f>
@@ -26870,7 +27094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A354" s="19" t="s">
         <v>622</v>
       </c>
@@ -26879,7 +27103,7 @@
         <v>2.5738946406401024</v>
       </c>
     </row>
-    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="26" t="s">
         <v>636</v>
       </c>
@@ -26898,7 +27122,7 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
     </row>
-    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>620</v>
       </c>
@@ -26917,7 +27141,7 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
     </row>
-    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>599</v>
       </c>
@@ -26954,7 +27178,7 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
     </row>
-    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>449</v>
       </c>
@@ -26997,7 +27221,7 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
     </row>
-    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A364" s="5" t="s">
         <v>501</v>
       </c>
@@ -27040,7 +27264,7 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
     </row>
-    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A365" s="5" t="s">
         <v>225</v>
       </c>
@@ -27083,7 +27307,7 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
     </row>
-    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -27102,7 +27326,7 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
     </row>
-    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A367" s="19" t="s">
         <v>622</v>
       </c>
@@ -27124,7 +27348,7 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
     </row>
-    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>632</v>
       </c>
@@ -27143,7 +27367,7 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>599</v>
       </c>
@@ -27180,7 +27404,7 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A372" s="5" t="s">
         <v>215</v>
       </c>
@@ -27223,7 +27447,7 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="5" t="s">
         <v>17</v>
       </c>
@@ -27266,7 +27490,7 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="5" t="s">
         <v>457</v>
       </c>
@@ -27309,7 +27533,7 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
     </row>
-    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="19" t="s">
         <v>622</v>
       </c>
@@ -27331,7 +27555,7 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
     </row>
-    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>633</v>
       </c>
@@ -27350,7 +27574,7 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
     </row>
-    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>599</v>
       </c>
@@ -27387,7 +27611,7 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
     </row>
-    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A382" s="5" t="s">
         <v>231</v>
       </c>
@@ -27430,7 +27654,7 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="19" t="s">
         <v>622</v>
       </c>
@@ -27452,7 +27676,7 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A387" s="9" t="s">
         <v>634</v>
       </c>
@@ -27471,7 +27695,7 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>599</v>
       </c>
@@ -27508,7 +27732,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
     </row>
-    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="5" t="s">
         <v>365</v>
       </c>
@@ -27551,7 +27775,7 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
     </row>
-    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A390" s="5" t="s">
         <v>4</v>
       </c>
@@ -27594,7 +27818,7 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
     </row>
-    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A391" s="5" t="s">
         <v>558</v>
       </c>
@@ -27637,7 +27861,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
     </row>
-    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -27656,7 +27880,7 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
     </row>
-    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="19" t="s">
         <v>622</v>
       </c>
@@ -27678,7 +27902,7 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
     </row>
-    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B399" s="20" t="s">
         <v>637</v>
       </c>
@@ -27704,7 +27928,7 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
     </row>
-    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A400" s="21" t="s">
         <v>623</v>
       </c>
@@ -27733,20 +27957,20 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
     </row>
-    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A401" s="21" t="s">
         <v>624</v>
       </c>
       <c r="B401" s="17">
         <f>D54</f>
-        <v>1.0004167240990938</v>
+        <v>0.66501412184329478</v>
       </c>
       <c r="C401" s="17">
         <v>0</v>
       </c>
       <c r="D401" s="17">
         <f t="shared" ref="D401:D409" si="23">B401+C401</f>
-        <v>1.0004167240990938</v>
+        <v>0.66501412184329478</v>
       </c>
       <c r="E401" s="17"/>
       <c r="F401" s="15"/>
@@ -27762,7 +27986,7 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
     </row>
-    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="21" t="s">
         <v>626</v>
       </c>
@@ -27791,7 +28015,7 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
     </row>
-    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A403" s="21" t="s">
         <v>627</v>
       </c>
@@ -27820,7 +28044,7 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
     </row>
-    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A404" s="21" t="s">
         <v>628</v>
       </c>
@@ -27849,7 +28073,7 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
     </row>
-    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A405" s="21" t="s">
         <v>629</v>
       </c>
@@ -27878,7 +28102,7 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
     </row>
-    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="21" t="s">
         <v>630</v>
       </c>
@@ -27908,7 +28132,7 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
     </row>
-    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="21" t="s">
         <v>641</v>
       </c>
@@ -27937,7 +28161,7 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
     </row>
-    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A408" s="21" t="s">
         <v>640</v>
       </c>
@@ -27966,7 +28190,7 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
     </row>
-    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A409" s="21" t="s">
         <v>642</v>
       </c>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5308,7 +5308,7 @@
   <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5710,13 +5710,13 @@
         <f>C7*J7*[1]!s_dq_close("000300.SH",G7,1)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="str">
         <f>[1]!s_div_ifdiv(A7,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+        <v>是</v>
+      </c>
+      <c r="F7" s="3" t="str">
         <f>[1]!s_div_progress(A7,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G7" s="3">
         <f>[1]!s_div_recorddate(A7,"2016/12/31")</f>
@@ -5836,13 +5836,13 @@
         <f>C9*J9*[1]!s_dq_close("000300.SH",G9,1)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="str">
         <f>[1]!s_div_ifdiv(A9,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+        <v>否</v>
+      </c>
+      <c r="F9" s="3" t="str">
         <f>[1]!s_div_progress(A9,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G9" s="3">
         <f>[1]!s_div_recorddate(A9,"2016/12/31")</f>
@@ -5962,13 +5962,13 @@
         <f>C11*J11*[1]!s_dq_close("000300.SH",G11,1)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="str">
         <f>[1]!s_div_ifdiv(A11,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+        <v>是</v>
+      </c>
+      <c r="F11" s="3" t="str">
         <f>[1]!s_div_progress(A11,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G11" s="3">
         <f>[1]!s_div_recorddate(A11,"2016/12/31")</f>
@@ -6277,13 +6277,13 @@
         <f>C16*J16*[1]!s_dq_close("000300.SH",G16,1)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="str">
         <f>[1]!s_div_ifdiv(A16,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+        <v>是</v>
+      </c>
+      <c r="F16" s="3" t="str">
         <f>[1]!s_div_progress(A16,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G16" s="3">
         <f>[1]!s_div_recorddate(A16,"2016/12/31")</f>
@@ -6403,13 +6403,13 @@
         <f>C18*J18*[1]!s_dq_close("000300.SH",G18,1)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="str">
         <f>[1]!s_div_ifdiv(A18,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+        <v>否</v>
+      </c>
+      <c r="F18" s="3" t="str">
         <f>[1]!s_div_progress(A18,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G18" s="3">
         <f>[1]!s_div_recorddate(A18,"2016/12/31")</f>
@@ -6466,13 +6466,13 @@
         <f>C19*J19*[1]!s_dq_close("000300.SH",G19,1)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="str">
         <f>[1]!s_div_ifdiv(A19,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+        <v>否</v>
+      </c>
+      <c r="F19" s="3" t="str">
         <f>[1]!s_div_progress(A19,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G19" s="3">
         <f>[1]!s_div_recorddate(A19,"2016/12/31")</f>
@@ -6907,13 +6907,13 @@
         <f>C26*J26*[1]!s_dq_close("000300.SH",G26,1)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="str">
         <f>[1]!s_div_ifdiv(A26,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+        <v>否</v>
+      </c>
+      <c r="F26" s="3" t="str">
         <f>[1]!s_div_progress(A26,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G26" s="3">
         <f>[1]!s_div_recorddate(A26,"2016/12/31")</f>
@@ -7286,13 +7286,13 @@
         <f>C43*L43*[1]!s_dq_close("000300.SH",I43,1)</f>
         <v>0.42071679443554988</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="4" t="str">
         <f>[1]!s_div_ifdiv(A43,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+        <v>是</v>
+      </c>
+      <c r="F43" s="3" t="str">
         <f>[1]!s_div_progress(A43,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G43" s="3">
         <f>[1]!s_div_exdate(A43,"2017/12/31")</f>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D45" s="37">
         <f>C45*L45*[1]!s_dq_close("000300.SH",I45,1)</f>
-        <v>6.9200661790352516E-2</v>
+        <v>7.0439336503959268E-2</v>
       </c>
       <c r="E45" s="25" t="str">
         <f>[1]!s_div_ifdiv(A45,"2017/12/31")</f>
@@ -7452,11 +7452,11 @@
       </c>
       <c r="K45" s="38">
         <f>[1]!s_dq_close(A45,I45,3)</f>
-        <v>48.51</v>
+        <v>47.656952351635425</v>
       </c>
       <c r="L45" s="36">
         <f t="shared" ref="L45" si="2">J45/K45</f>
-        <v>1.8552875695732839E-2</v>
+        <v>1.8884967577435009E-2</v>
       </c>
       <c r="M45" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A45,"2017/12/31",1)</f>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="Q45" s="38">
         <f>[1]!s_dq_close(A45,O45,3)</f>
-        <v>8.3438283234204427</v>
+        <v>8.1971022230359534</v>
       </c>
       <c r="R45" s="36">
         <f>P45/Q45</f>
@@ -7566,13 +7566,13 @@
         <f>C47*L47*[1]!s_dq_close("000300.SH",I47,1)</f>
         <v>2.1355396217040832E-2</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="4" t="str">
         <f>[1]!s_div_ifdiv(A47,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+        <v>是</v>
+      </c>
+      <c r="F47" s="3" t="str">
         <f>[1]!s_div_progress(A47,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G47" s="3">
         <f>[1]!s_div_exdate(A47,"2017/12/31")</f>
@@ -7846,13 +7846,13 @@
         <f>C51*L51*[1]!s_dq_close("000300.SH",I51,1)</f>
         <v>7.7803309375488764E-3</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="4" t="str">
         <f>[1]!s_div_ifdiv(A51,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+        <v>是</v>
+      </c>
+      <c r="F51" s="3" t="str">
         <f>[1]!s_div_progress(A51,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G51" s="3">
         <f>[1]!s_div_exdate(A51,"2017/12/31")</f>
@@ -7917,13 +7917,13 @@
         <f>C52*L52*[1]!s_dq_close("000300.SH",I52,1)</f>
         <v>5.2359267210499175E-2</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="4" t="str">
         <f>[1]!s_div_ifdiv(A52,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+        <v>是</v>
+      </c>
+      <c r="F52" s="3" t="str">
         <f>[1]!s_div_progress(A52,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G52" s="3">
         <f>[1]!s_div_exdate(A52,"2017/12/31")</f>
@@ -7982,7 +7982,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="22">
         <f>SUM(D43:D52)</f>
-        <v>0.66501412184329478</v>
+        <v>0.66625279655690151</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="13"/>
@@ -8356,13 +8356,13 @@
         <f>C62*L62*[1]!s_dq_close("000300.SH",I62,1)</f>
         <v>1.219995680055661E-2</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="4" t="str">
         <f>[1]!s_div_ifdiv(A62,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+        <v>是</v>
+      </c>
+      <c r="F62" s="3" t="str">
         <f>[1]!s_div_progress(A62,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G62" s="3">
         <f>[1]!s_div_exdate(A62,"2017/12/31")</f>
@@ -8427,13 +8427,13 @@
         <f>C63*L63*[1]!s_dq_close("000300.SH",I63,1)</f>
         <v>7.6911268680102632E-2</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="4" t="str">
         <f>[1]!s_div_ifdiv(A63,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+        <v>是</v>
+      </c>
+      <c r="F63" s="3" t="str">
         <f>[1]!s_div_progress(A63,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G63" s="3">
         <f>[1]!s_div_exdate(A63,"2017/12/31")</f>
@@ -8498,13 +8498,13 @@
         <f>C64*L64*[1]!s_dq_close("000300.SH",I64,1)</f>
         <v>2.7818244800211264E-2</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="4" t="str">
         <f>[1]!s_div_ifdiv(A64,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+        <v>是</v>
+      </c>
+      <c r="F64" s="3" t="str">
         <f>[1]!s_div_progress(A64,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G64" s="3">
         <f>[1]!s_div_exdate(A64,"2017/12/31")</f>
@@ -8569,13 +8569,13 @@
         <f>C65*L65*[1]!s_dq_close("000300.SH",I65,1)</f>
         <v>5.0643116387776244E-2</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="4" t="str">
         <f>[1]!s_div_ifdiv(A65,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+        <v>是</v>
+      </c>
+      <c r="F65" s="3" t="str">
         <f>[1]!s_div_progress(A65,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G65" s="3">
         <f>[1]!s_div_exdate(A65,"2017/12/31")</f>
@@ -8782,13 +8782,13 @@
         <f>C68*L68*[1]!s_dq_close("000300.SH",I68,1)</f>
         <v>2.0949905823736841</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="4" t="str">
         <f>[1]!s_div_ifdiv(A68,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+        <v>是</v>
+      </c>
+      <c r="F68" s="3" t="str">
         <f>[1]!s_div_progress(A68,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G68" s="3">
         <f>[1]!s_div_exdate(A68,"2017/12/31")</f>
@@ -8924,13 +8924,13 @@
         <f>C70*L70*[1]!s_dq_close("000300.SH",I70,1)</f>
         <v>0.22001404856076526</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="4" t="str">
         <f>[1]!s_div_ifdiv(A70,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+        <v>是</v>
+      </c>
+      <c r="F70" s="3" t="str">
         <f>[1]!s_div_progress(A70,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G70" s="3">
         <f>[1]!s_div_exdate(A70,"2017/12/31")</f>
@@ -9350,13 +9350,13 @@
         <f>C76*L76*[1]!s_dq_close("000300.SH",I76,1)</f>
         <v>3.6990166205266378E-2</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="4" t="str">
         <f>[1]!s_div_ifdiv(A76,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+        <v>是</v>
+      </c>
+      <c r="F76" s="3" t="str">
         <f>[1]!s_div_progress(A76,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G76" s="3">
         <f>[1]!s_div_exdate(A76,"2017/12/31")</f>
@@ -9632,13 +9632,13 @@
         <f>C80*L80*[1]!s_dq_close("000300.SH",I80,1)</f>
         <v>3.8394908727243895E-2</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="4" t="str">
         <f>[1]!s_div_ifdiv(A80,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
+        <v>是</v>
+      </c>
+      <c r="F80" s="3" t="str">
         <f>[1]!s_div_progress(A80,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G80" s="3">
         <f>[1]!s_div_exdate(A80,"2017/12/31")</f>
@@ -9703,13 +9703,13 @@
         <f>C81*L81*[1]!s_dq_close("000300.SH",I81,1)</f>
         <v>4.2981470931597349E-2</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="4" t="str">
         <f>[1]!s_div_ifdiv(A81,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+        <v>是</v>
+      </c>
+      <c r="F81" s="3" t="str">
         <f>[1]!s_div_progress(A81,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G81" s="3">
         <f>[1]!s_div_exdate(A81,"2017/12/31")</f>
@@ -9774,13 +9774,13 @@
         <f>C82*L82*[1]!s_dq_close("000300.SH",I82,1)</f>
         <v>9.1669846557625709E-2</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="4" t="str">
         <f>[1]!s_div_ifdiv(A82,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+        <v>是</v>
+      </c>
+      <c r="F82" s="3" t="str">
         <f>[1]!s_div_progress(A82,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G82" s="3">
         <f>[1]!s_div_exdate(A82,"2017/12/31")</f>
@@ -10054,13 +10054,13 @@
         <f>C86*L86*[1]!s_dq_close("000300.SH",I86,1)</f>
         <v>2.2437055489983423E-2</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="4" t="str">
         <f>[1]!s_div_ifdiv(A86,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+        <v>是</v>
+      </c>
+      <c r="F86" s="3" t="str">
         <f>[1]!s_div_progress(A86,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G86" s="3">
         <f>[1]!s_div_exdate(A86,"2017/12/31")</f>
@@ -10125,13 +10125,13 @@
         <f>C87*L87*[1]!s_dq_close("000300.SH",I87,1)</f>
         <v>1.1060916559313081E-2</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="4" t="str">
         <f>[1]!s_div_ifdiv(A87,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+        <v>是</v>
+      </c>
+      <c r="F87" s="3" t="str">
         <f>[1]!s_div_progress(A87,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G87" s="3">
         <f>[1]!s_div_exdate(A87,"2017/12/31")</f>
@@ -10408,13 +10408,13 @@
         <f>C91*L91*[1]!s_dq_close("000300.SH",I91,1)</f>
         <v>0.16965485983982315</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="4" t="str">
         <f>[1]!s_div_ifdiv(A91,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+        <v>是</v>
+      </c>
+      <c r="F91" s="3" t="str">
         <f>[1]!s_div_progress(A91,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G91" s="3">
         <f>[1]!s_div_exdate(A91,"2017/12/31")</f>
@@ -10651,13 +10651,13 @@
         <f>C101*L101*[1]!s_dq_close("000300.SH",I101,1)</f>
         <v>8.0288427439427101E-2</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="4" t="str">
         <f>[1]!s_div_ifdiv(A101,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+        <v>是</v>
+      </c>
+      <c r="F101" s="3" t="str">
         <f>[1]!s_div_progress(A101,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G101" s="3">
         <f>[1]!s_div_exdate(A101,"2017/12/31")</f>
@@ -10793,13 +10793,13 @@
         <f>C103*L103*[1]!s_dq_close("000300.SH",I103,1)</f>
         <v>0.14720467847054416</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="4" t="str">
         <f>[1]!s_div_ifdiv(A103,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+        <v>是</v>
+      </c>
+      <c r="F103" s="3" t="str">
         <f>[1]!s_div_progress(A103,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G103" s="3">
         <f>[1]!s_div_exdate(A103,"2017/12/31")</f>
@@ -10864,13 +10864,13 @@
         <f>C104*L104*[1]!s_dq_close("000300.SH",I104,1)</f>
         <v>0.23813099838069568</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="4" t="str">
         <f>[1]!s_div_ifdiv(A104,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
+        <v>是</v>
+      </c>
+      <c r="F104" s="3" t="str">
         <f>[1]!s_div_progress(A104,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G104" s="3">
         <f>[1]!s_div_exdate(A104,"2017/12/31")</f>
@@ -11219,13 +11219,13 @@
         <f>C109*L109*[1]!s_dq_close("000300.SH",I109,1)</f>
         <v>4.4710666539871088E-2</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="4" t="str">
         <f>[1]!s_div_ifdiv(A109,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
+        <v>是</v>
+      </c>
+      <c r="F109" s="3" t="str">
         <f>[1]!s_div_progress(A109,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G109" s="3">
         <f>[1]!s_div_exdate(A109,"2017/12/31")</f>
@@ -11572,13 +11572,13 @@
         <f>C114*L114*[1]!s_dq_close("000300.SH",I114,1)</f>
         <v>2.2616411238720054E-2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="4" t="str">
         <f>[1]!s_div_ifdiv(A114,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
+        <v>是</v>
+      </c>
+      <c r="F114" s="3" t="str">
         <f>[1]!s_div_progress(A114,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G114" s="3">
         <f>[1]!s_div_exdate(A114,"2017/12/31")</f>
@@ -11927,13 +11927,13 @@
         <f>C119*L119*[1]!s_dq_close("000300.SH",I119,1)</f>
         <v>4.0510462451199727E-2</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="4" t="str">
         <f>[1]!s_div_ifdiv(A119,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
+        <v>是</v>
+      </c>
+      <c r="F119" s="3" t="str">
         <f>[1]!s_div_progress(A119,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G119" s="3">
         <f>[1]!s_div_exdate(A119,"2017/12/31")</f>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="F130" s="24" t="str">
         <f>[1]!s_div_progress(A130,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G130" s="24">
         <f>[1]!s_div_exdate(A130,"2017/12/31")</f>
@@ -12917,13 +12917,13 @@
         <f>C133*L133*[1]!s_dq_close("000300.SH",I133,1)</f>
         <v>9.3796321874401553E-2</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="4" t="str">
         <f>[1]!s_div_ifdiv(A133,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
+        <v>是</v>
+      </c>
+      <c r="F133" s="3" t="str">
         <f>[1]!s_div_progress(A133,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G133" s="3">
         <f>[1]!s_div_exdate(A133,"2017/12/31")</f>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="M135" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A135,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>7137234700</v>
       </c>
       <c r="N135" s="23" t="str">
         <f>[1]!s_div_ifdiv(A135,"2017/06/30")</f>
@@ -13980,13 +13980,13 @@
         <f>C148*L148*[1]!s_dq_close("000300.SH",I148,1)</f>
         <v>1.9171472933225606E-2</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="4" t="str">
         <f>[1]!s_div_ifdiv(A148,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
+        <v>是</v>
+      </c>
+      <c r="F148" s="3" t="str">
         <f>[1]!s_div_progress(A148,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G148" s="3">
         <f>[1]!s_div_exdate(A148,"2017/12/31")</f>
@@ -14051,13 +14051,13 @@
         <f>C149*L149*[1]!s_dq_close("000300.SH",I149,1)</f>
         <v>0.24921084800071364</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="4" t="str">
         <f>[1]!s_div_ifdiv(A149,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
+        <v>是</v>
+      </c>
+      <c r="F149" s="3" t="str">
         <f>[1]!s_div_progress(A149,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G149" s="3">
         <f>[1]!s_div_exdate(A149,"2017/12/31")</f>
@@ -14264,13 +14264,13 @@
         <f>C152*L152*[1]!s_dq_close("000300.SH",I152,1)</f>
         <v>1.6048420861302103E-2</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="4" t="str">
         <f>[1]!s_div_ifdiv(A152,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
+        <v>是</v>
+      </c>
+      <c r="F152" s="3" t="str">
         <f>[1]!s_div_progress(A152,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G152" s="3">
         <f>[1]!s_div_exdate(A152,"2017/12/31")</f>
@@ -14690,13 +14690,13 @@
         <f>C158*L158*[1]!s_dq_close("000300.SH",I158,1)</f>
         <v>0.42646040005907038</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="4" t="str">
         <f>[1]!s_div_ifdiv(A158,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F158" s="3">
+        <v>是</v>
+      </c>
+      <c r="F158" s="3" t="str">
         <f>[1]!s_div_progress(A158,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G158" s="3">
         <f>[1]!s_div_exdate(A158,"2017/12/31")</f>
@@ -14974,13 +14974,13 @@
         <f>C162*L162*[1]!s_dq_close("000300.SH",I162,1)</f>
         <v>6.7745522614774553E-2</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="4" t="str">
         <f>[1]!s_div_ifdiv(A162,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
+        <v>是</v>
+      </c>
+      <c r="F162" s="3" t="str">
         <f>[1]!s_div_progress(A162,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G162" s="3">
         <f>[1]!s_div_exdate(A162,"2017/12/31")</f>
@@ -15045,13 +15045,13 @@
         <f>C163*L163*[1]!s_dq_close("000300.SH",I163,1)</f>
         <v>7.4021332830131598E-2</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="4" t="str">
         <f>[1]!s_div_ifdiv(A163,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
+        <v>是</v>
+      </c>
+      <c r="F163" s="3" t="str">
         <f>[1]!s_div_progress(A163,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G163" s="3">
         <f>[1]!s_div_exdate(A163,"2017/12/31")</f>
@@ -15399,13 +15399,13 @@
         <f>C168*L168*[1]!s_dq_close("000300.SH",I168,1)</f>
         <v>1.9476548786710604</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="4" t="str">
         <f>[1]!s_div_ifdiv(A168,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
+        <v>是</v>
+      </c>
+      <c r="F168" s="3" t="str">
         <f>[1]!s_div_progress(A168,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G168" s="3">
         <f>[1]!s_div_exdate(A168,"2017/12/31")</f>
@@ -15823,13 +15823,13 @@
         <f>C174*L174*[1]!s_dq_close("000300.SH",I174,1)</f>
         <v>7.742525456935867E-2</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="4" t="str">
         <f>[1]!s_div_ifdiv(A174,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F174" s="3">
+        <v>是</v>
+      </c>
+      <c r="F174" s="3" t="str">
         <f>[1]!s_div_progress(A174,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G174" s="3">
         <f>[1]!s_div_exdate(A174,"2017/12/31")</f>
@@ -16432,7 +16432,7 @@
       </c>
       <c r="M189" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A189,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>2557944600</v>
       </c>
       <c r="N189" s="23" t="str">
         <f>[1]!s_div_ifdiv(A189,"2017/06/30")</f>
@@ -16611,13 +16611,13 @@
         <f>C192*L192*[1]!s_dq_close("000300.SH",I192,1)</f>
         <v>7.8755492016872833E-2</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="4" t="str">
         <f>[1]!s_div_ifdiv(A192,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F192" s="3">
+        <v>是</v>
+      </c>
+      <c r="F192" s="3" t="str">
         <f>[1]!s_div_progress(A192,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G192" s="3">
         <f>[1]!s_div_exdate(A192,"2017/12/31")</f>
@@ -16682,13 +16682,13 @@
         <f>C193*L193*[1]!s_dq_close("000300.SH",I193,1)</f>
         <v>1.0970466648986838E-2</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="4" t="str">
         <f>[1]!s_div_ifdiv(A193,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F193" s="3">
+        <v>否</v>
+      </c>
+      <c r="F193" s="3" t="str">
         <f>[1]!s_div_progress(A193,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G193" s="3">
         <f>[1]!s_div_exdate(A193,"2017/12/31")</f>
@@ -17534,13 +17534,13 @@
         <f>C205*L205*[1]!s_dq_close("000300.SH",I205,1)</f>
         <v>1.4670068235280623E-2</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="4" t="str">
         <f>[1]!s_div_ifdiv(A205,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F205" s="3">
+        <v>是</v>
+      </c>
+      <c r="F205" s="3" t="str">
         <f>[1]!s_div_progress(A205,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G205" s="3">
         <f>[1]!s_div_exdate(A205,"2017/12/31")</f>
@@ -17605,13 +17605,13 @@
         <f>C206*L206*[1]!s_dq_close("000300.SH",I206,1)</f>
         <v>3.4345679107117749E-2</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="4" t="str">
         <f>[1]!s_div_ifdiv(A206,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F206" s="3">
+        <v>是</v>
+      </c>
+      <c r="F206" s="3" t="str">
         <f>[1]!s_div_progress(A206,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G206" s="3">
         <f>[1]!s_div_exdate(A206,"2017/12/31")</f>
@@ -17747,13 +17747,13 @@
         <f>C208*L208*[1]!s_dq_close("000300.SH",I208,1)</f>
         <v>0.15147817516039741</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="4" t="str">
         <f>[1]!s_div_ifdiv(A208,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F208" s="3">
+        <v>是</v>
+      </c>
+      <c r="F208" s="3" t="str">
         <f>[1]!s_div_progress(A208,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G208" s="3">
         <f>[1]!s_div_exdate(A208,"2017/12/31")</f>
@@ -18455,13 +18455,13 @@
         <f>C218*L218*[1]!s_dq_close("000300.SH",I218,1)</f>
         <v>0.77753441660082345</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="4" t="str">
         <f>[1]!s_div_ifdiv(A218,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F218" s="3">
+        <v>是</v>
+      </c>
+      <c r="F218" s="3" t="str">
         <f>[1]!s_div_progress(A218,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G218" s="3">
         <f>[1]!s_div_exdate(A218,"2017/12/31")</f>
@@ -18595,13 +18595,13 @@
         <f>C220*L220*[1]!s_dq_close("000300.SH",I220,1)</f>
         <v>7.9302800419306721E-2</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="4" t="str">
         <f>[1]!s_div_ifdiv(A220,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F220" s="3">
+        <v>是</v>
+      </c>
+      <c r="F220" s="3" t="str">
         <f>[1]!s_div_progress(A220,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G220" s="3">
         <f>[1]!s_div_exdate(A220,"2017/12/31")</f>
@@ -18737,13 +18737,13 @@
         <f>C222*L222*[1]!s_dq_close("000300.SH",I222,1)</f>
         <v>3.1739627772292063E-2</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="4" t="str">
         <f>[1]!s_div_ifdiv(A222,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F222" s="3">
+        <v>是</v>
+      </c>
+      <c r="F222" s="3" t="str">
         <f>[1]!s_div_progress(A222,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G222" s="3">
         <f>[1]!s_div_exdate(A222,"2017/12/31")</f>
@@ -19021,13 +19021,13 @@
         <f>C226*L226*[1]!s_dq_close("000300.SH",I226,1)</f>
         <v>2.6852923445925353E-2</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="4" t="str">
         <f>[1]!s_div_ifdiv(A226,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F226" s="3">
+        <v>是</v>
+      </c>
+      <c r="F226" s="3" t="str">
         <f>[1]!s_div_progress(A226,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G226" s="3">
         <f>[1]!s_div_exdate(A226,"2017/12/31")</f>
@@ -19163,13 +19163,13 @@
         <f>C228*L228*[1]!s_dq_close("000300.SH",I228,1)</f>
         <v>0.52699224555203772</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228" s="4" t="str">
         <f>[1]!s_div_ifdiv(A228,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F228" s="3">
+        <v>是</v>
+      </c>
+      <c r="F228" s="3" t="str">
         <f>[1]!s_div_progress(A228,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G228" s="3">
         <f>[1]!s_div_exdate(A228,"2017/12/31")</f>
@@ -19445,13 +19445,13 @@
         <f>C232*L232*[1]!s_dq_close("000300.SH",I232,1)</f>
         <v>1.2998877729703373</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="4" t="str">
         <f>[1]!s_div_ifdiv(A232,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F232" s="3">
+        <v>是</v>
+      </c>
+      <c r="F232" s="3" t="str">
         <f>[1]!s_div_progress(A232,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G232" s="3">
         <f>[1]!s_div_exdate(A232,"2017/12/31")</f>
@@ -19729,13 +19729,13 @@
         <f>C236*L236*[1]!s_dq_close("000300.SH",I236,1)</f>
         <v>3.9142212314364988E-2</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="4" t="str">
         <f>[1]!s_div_ifdiv(A236,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F236" s="3">
+        <v>是</v>
+      </c>
+      <c r="F236" s="3" t="str">
         <f>[1]!s_div_progress(A236,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G236" s="3">
         <f>[1]!s_div_exdate(A236,"2017/12/31")</f>
@@ -19800,13 +19800,13 @@
         <f>C237*L237*[1]!s_dq_close("000300.SH",I237,1)</f>
         <v>7.2396561316578165E-2</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="4" t="str">
         <f>[1]!s_div_ifdiv(A237,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F237" s="3">
+        <v>是</v>
+      </c>
+      <c r="F237" s="3" t="str">
         <f>[1]!s_div_progress(A237,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G237" s="3">
         <f>[1]!s_div_exdate(A237,"2017/12/31")</f>
@@ -19942,13 +19942,13 @@
         <f>C239*L239*[1]!s_dq_close("000300.SH",I239,1)</f>
         <v>1.7496426593648446</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="4" t="str">
         <f>[1]!s_div_ifdiv(A239,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F239" s="3">
+        <v>是</v>
+      </c>
+      <c r="F239" s="3" t="str">
         <f>[1]!s_div_progress(A239,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G239" s="3">
         <f>[1]!s_div_exdate(A239,"2017/12/31")</f>
@@ -20013,13 +20013,13 @@
         <f>C240*L240*[1]!s_dq_close("000300.SH",I240,1)</f>
         <v>2.5400189291919966</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="4" t="str">
         <f>[1]!s_div_ifdiv(A240,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F240" s="3">
+        <v>是</v>
+      </c>
+      <c r="F240" s="3" t="str">
         <f>[1]!s_div_progress(A240,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G240" s="3">
         <f>[1]!s_div_exdate(A240,"2017/12/31")</f>
@@ -20084,13 +20084,13 @@
         <f>C241*L241*[1]!s_dq_close("000300.SH",I241,1)</f>
         <v>2.3548414391879019E-2</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="4" t="str">
         <f>[1]!s_div_ifdiv(A241,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F241" s="3">
+        <v>是</v>
+      </c>
+      <c r="F241" s="3" t="str">
         <f>[1]!s_div_progress(A241,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G241" s="3">
         <f>[1]!s_div_exdate(A241,"2017/12/31")</f>
@@ -20226,13 +20226,13 @@
         <f>C243*L243*[1]!s_dq_close("000300.SH",I243,1)</f>
         <v>9.2826729071408112E-2</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="4" t="str">
         <f>[1]!s_div_ifdiv(A243,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F243" s="3">
+        <v>是</v>
+      </c>
+      <c r="F243" s="3" t="str">
         <f>[1]!s_div_progress(A243,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G243" s="3">
         <f>[1]!s_div_exdate(A243,"2017/12/31")</f>
@@ -20579,13 +20579,13 @@
         <f>C248*L248*[1]!s_dq_close("000300.SH",I248,1)</f>
         <v>0.54963080020452715</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="4" t="str">
         <f>[1]!s_div_ifdiv(A248,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F248" s="3">
+        <v>是</v>
+      </c>
+      <c r="F248" s="3" t="str">
         <f>[1]!s_div_progress(A248,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G248" s="3">
         <f>[1]!s_div_exdate(A248,"2017/12/31")</f>
@@ -20721,13 +20721,13 @@
         <f>C250*L250*[1]!s_dq_close("000300.SH",I250,1)</f>
         <v>2.096487963645282</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="4" t="str">
         <f>[1]!s_div_ifdiv(A250,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F250" s="3">
+        <v>是</v>
+      </c>
+      <c r="F250" s="3" t="str">
         <f>[1]!s_div_progress(A250,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G250" s="3">
         <f>[1]!s_div_exdate(A250,"2017/12/31")</f>
@@ -20792,13 +20792,13 @@
         <f>C251*L251*[1]!s_dq_close("000300.SH",I251,1)</f>
         <v>0.38996089612368784</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="4" t="str">
         <f>[1]!s_div_ifdiv(A251,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F251" s="3">
+        <v>是</v>
+      </c>
+      <c r="F251" s="3" t="str">
         <f>[1]!s_div_progress(A251,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G251" s="3">
         <f>[1]!s_div_exdate(A251,"2017/12/31")</f>
@@ -21214,13 +21214,13 @@
         <f>C257*L257*[1]!s_dq_close("000300.SH",I257,1)</f>
         <v>5.2646826796157474E-2</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="4" t="str">
         <f>[1]!s_div_ifdiv(A257,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F257" s="3">
+        <v>是</v>
+      </c>
+      <c r="F257" s="3" t="str">
         <f>[1]!s_div_progress(A257,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G257" s="3">
         <f>[1]!s_div_exdate(A257,"2017/12/31")</f>
@@ -21356,13 +21356,13 @@
         <f>C259*L259*[1]!s_dq_close("000300.SH",I259,1)</f>
         <v>3.5282174438369854E-2</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="4" t="str">
         <f>[1]!s_div_ifdiv(A259,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F259" s="3">
+        <v>是</v>
+      </c>
+      <c r="F259" s="3" t="str">
         <f>[1]!s_div_progress(A259,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G259" s="3">
         <f>[1]!s_div_exdate(A259,"2017/12/31")</f>
@@ -21924,13 +21924,13 @@
         <f>C267*L267*[1]!s_dq_close("000300.SH",I267,1)</f>
         <v>1.2844097853803087</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="4" t="str">
         <f>[1]!s_div_ifdiv(A267,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F267" s="3">
+        <v>是</v>
+      </c>
+      <c r="F267" s="3" t="str">
         <f>[1]!s_div_progress(A267,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G267" s="3">
         <f>[1]!s_div_exdate(A267,"2017/12/31")</f>
@@ -23127,13 +23127,13 @@
         <f>C284*L284*[1]!s_dq_close("000300.SH",I284,1)</f>
         <v>0.16865807001943847</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="4" t="str">
         <f>[1]!s_div_ifdiv(A284,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F284" s="3">
+        <v>是</v>
+      </c>
+      <c r="F284" s="3" t="str">
         <f>[1]!s_div_progress(A284,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G284" s="3">
         <f>[1]!s_div_exdate(A284,"2017/12/31")</f>
@@ -23198,13 +23198,13 @@
         <f>C285*L285*[1]!s_dq_close("000300.SH",I285,1)</f>
         <v>8.0970329312745712E-2</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="4" t="str">
         <f>[1]!s_div_ifdiv(A285,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F285" s="3">
+        <v>是</v>
+      </c>
+      <c r="F285" s="3" t="str">
         <f>[1]!s_div_progress(A285,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G285" s="3">
         <f>[1]!s_div_exdate(A285,"2017/12/31")</f>
@@ -23551,13 +23551,13 @@
         <f>C290*L290*[1]!s_dq_close("000300.SH",I290,1)</f>
         <v>0.18228743064821118</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="4" t="str">
         <f>[1]!s_div_ifdiv(A290,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F290" s="3">
+        <v>是</v>
+      </c>
+      <c r="F290" s="3" t="str">
         <f>[1]!s_div_progress(A290,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G290" s="3">
         <f>[1]!s_div_exdate(A290,"2017/12/31")</f>
@@ -23764,13 +23764,13 @@
         <f>C293*L293*[1]!s_dq_close("000300.SH",I293,1)</f>
         <v>0.13612309898473135</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="4" t="str">
         <f>[1]!s_div_ifdiv(A293,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F293" s="3">
+        <v>是</v>
+      </c>
+      <c r="F293" s="3" t="str">
         <f>[1]!s_div_progress(A293,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G293" s="3">
         <f>[1]!s_div_exdate(A293,"2017/12/31")</f>
@@ -23906,13 +23906,13 @@
         <f>C295*L295*[1]!s_dq_close("000300.SH",I295,1)</f>
         <v>1.7033887330645209E-3</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="4" t="str">
         <f>[1]!s_div_ifdiv(A295,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F295" s="3">
+        <v>否</v>
+      </c>
+      <c r="F295" s="3" t="str">
         <f>[1]!s_div_progress(A295,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G295" s="3">
         <f>[1]!s_div_exdate(A295,"2017/12/31")</f>
@@ -24158,13 +24158,13 @@
         <f>C304*L304*[1]!s_dq_close("000300.SH",I304,1)</f>
         <v>0.47985351063622195</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="4" t="str">
         <f>[1]!s_div_ifdiv(A304,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F304" s="3">
+        <v>是</v>
+      </c>
+      <c r="F304" s="3" t="str">
         <f>[1]!s_div_progress(A304,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G304" s="3">
         <f>[1]!s_div_exdate(A304,"2017/12/31")</f>
@@ -24229,13 +24229,13 @@
         <f>C305*L305*[1]!s_dq_close("000300.SH",I305,1)</f>
         <v>0.13198011319667255</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305" s="4" t="str">
         <f>[1]!s_div_ifdiv(A305,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F305" s="3">
+        <v>是</v>
+      </c>
+      <c r="F305" s="3" t="str">
         <f>[1]!s_div_progress(A305,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G305" s="3">
         <f>[1]!s_div_exdate(A305,"2017/12/31")</f>
@@ -24866,13 +24866,13 @@
         <f>C314*L314*[1]!s_dq_close("000300.SH",I314,1)</f>
         <v>5.4249689149733285E-2</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="4" t="str">
         <f>[1]!s_div_ifdiv(A314,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F314" s="3">
+        <v>是</v>
+      </c>
+      <c r="F314" s="3" t="str">
         <f>[1]!s_div_progress(A314,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G314" s="3">
         <f>[1]!s_div_exdate(A314,"2017/12/31")</f>
@@ -24937,13 +24937,13 @@
         <f>C315*L315*[1]!s_dq_close("000300.SH",I315,1)</f>
         <v>0.45974914065280037</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315" s="4" t="str">
         <f>[1]!s_div_ifdiv(A315,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F315" s="3">
+        <v>是</v>
+      </c>
+      <c r="F315" s="3" t="str">
         <f>[1]!s_div_progress(A315,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G315" s="3">
         <f>[1]!s_div_exdate(A315,"2017/12/31")</f>
@@ -25221,13 +25221,13 @@
         <f>C319*L319*[1]!s_dq_close("000300.SH",I319,1)</f>
         <v>0.80614642897895072</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="4" t="str">
         <f>[1]!s_div_ifdiv(A319,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F319" s="3">
+        <v>是</v>
+      </c>
+      <c r="F319" s="3" t="str">
         <f>[1]!s_div_progress(A319,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G319" s="3">
         <f>[1]!s_div_exdate(A319,"2017/12/31")</f>
@@ -25292,13 +25292,13 @@
         <f>C320*L320*[1]!s_dq_close("000300.SH",I320,1)</f>
         <v>0.11894521755825573</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320" s="4" t="str">
         <f>[1]!s_div_ifdiv(A320,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F320" s="3">
+        <v>是</v>
+      </c>
+      <c r="F320" s="3" t="str">
         <f>[1]!s_div_progress(A320,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G320" s="3">
         <f>[1]!s_div_exdate(A320,"2017/12/31")</f>
@@ -25363,13 +25363,13 @@
         <f>C321*L321*[1]!s_dq_close("000300.SH",I321,1)</f>
         <v>0.19140318306776338</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="4" t="str">
         <f>[1]!s_div_ifdiv(A321,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F321" s="3">
+        <v>是</v>
+      </c>
+      <c r="F321" s="3" t="str">
         <f>[1]!s_div_progress(A321,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G321" s="3">
         <f>[1]!s_div_exdate(A321,"2017/12/31")</f>
@@ -25505,13 +25505,13 @@
         <f>C323*L323*[1]!s_dq_close("000300.SH",I323,1)</f>
         <v>6.66153444133393E-2</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323" s="4" t="str">
         <f>[1]!s_div_ifdiv(A323,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F323" s="3">
+        <v>是</v>
+      </c>
+      <c r="F323" s="3" t="str">
         <f>[1]!s_div_progress(A323,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G323" s="3">
         <f>[1]!s_div_exdate(A323,"2017/12/31")</f>
@@ -25647,13 +25647,13 @@
         <f>C325*L325*[1]!s_dq_close("000300.SH",I325,1)</f>
         <v>0.13805545654931925</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325" s="4" t="str">
         <f>[1]!s_div_ifdiv(A325,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F325" s="3">
+        <v>是</v>
+      </c>
+      <c r="F325" s="3" t="str">
         <f>[1]!s_div_progress(A325,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G325" s="3">
         <f>[1]!s_div_exdate(A325,"2017/12/31")</f>
@@ -25718,13 +25718,13 @@
         <f>C326*L326*[1]!s_dq_close("000300.SH",I326,1)</f>
         <v>0.45679318770598637</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326" s="4" t="str">
         <f>[1]!s_div_ifdiv(A326,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F326" s="3">
+        <v>否</v>
+      </c>
+      <c r="F326" s="3" t="str">
         <f>[1]!s_div_progress(A326,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G326" s="3">
         <f>[1]!s_div_exdate(A326,"2017/12/31")</f>
@@ -26002,13 +26002,13 @@
         <f>C330*L330*[1]!s_dq_close("000300.SH",I330,1)</f>
         <v>7.0214352104464653E-2</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330" s="4" t="str">
         <f>[1]!s_div_ifdiv(A330,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F330" s="3">
+        <v>是</v>
+      </c>
+      <c r="F330" s="3" t="str">
         <f>[1]!s_div_progress(A330,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G330" s="3">
         <f>[1]!s_div_exdate(A330,"2017/12/31")</f>
@@ -26144,13 +26144,13 @@
         <f>C332*L332*[1]!s_dq_close("000300.SH",I332,1)</f>
         <v>0.50168291650206476</v>
       </c>
-      <c r="E332" s="4">
+      <c r="E332" s="4" t="str">
         <f>[1]!s_div_ifdiv(A332,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F332" s="3">
+        <v>是</v>
+      </c>
+      <c r="F332" s="3" t="str">
         <f>[1]!s_div_progress(A332,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G332" s="3">
         <f>[1]!s_div_exdate(A332,"2017/12/31")</f>
@@ -26215,13 +26215,13 @@
         <f>C333*L333*[1]!s_dq_close("000300.SH",I333,1)</f>
         <v>7.9424725310091801E-2</v>
       </c>
-      <c r="E333" s="4">
+      <c r="E333" s="4" t="str">
         <f>[1]!s_div_ifdiv(A333,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F333" s="3">
+        <v>是</v>
+      </c>
+      <c r="F333" s="3" t="str">
         <f>[1]!s_div_progress(A333,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G333" s="3">
         <f>[1]!s_div_exdate(A333,"2017/12/31")</f>
@@ -26286,13 +26286,13 @@
         <f>C334*L334*[1]!s_dq_close("000300.SH",I334,1)</f>
         <v>4.139422502392659E-2</v>
       </c>
-      <c r="E334" s="4">
+      <c r="E334" s="4" t="str">
         <f>[1]!s_div_ifdiv(A334,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F334" s="3">
+        <v>是</v>
+      </c>
+      <c r="F334" s="3" t="str">
         <f>[1]!s_div_progress(A334,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G334" s="3">
         <f>[1]!s_div_exdate(A334,"2017/12/31")</f>
@@ -26966,13 +26966,13 @@
         <f>C350*L350*[1]!s_dq_close("000300.SH",I350,1)</f>
         <v>0.19272716709954521</v>
       </c>
-      <c r="E350" s="4">
+      <c r="E350" s="4" t="str">
         <f>[1]!s_div_ifdiv(A350,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F350" s="3">
+        <v>是</v>
+      </c>
+      <c r="F350" s="3" t="str">
         <f>[1]!s_div_progress(A350,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G350" s="3">
         <f>[1]!s_div_exdate(A350,"2017/12/31")</f>
@@ -27963,14 +27963,14 @@
       </c>
       <c r="B401" s="17">
         <f>D54</f>
-        <v>0.66501412184329478</v>
+        <v>0.66625279655690151</v>
       </c>
       <c r="C401" s="17">
         <v>0</v>
       </c>
       <c r="D401" s="17">
         <f t="shared" ref="D401:D409" si="23">B401+C401</f>
-        <v>0.66501412184329478</v>
+        <v>0.66625279655690151</v>
       </c>
       <c r="E401" s="17"/>
       <c r="F401" s="15"/>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5307,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="K28" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A28,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>-7723508500</v>
       </c>
       <c r="L28" s="23" t="str">
         <f>[1]!s_div_ifdiv(A28,"2017/06/30")</f>
@@ -7643,11 +7643,11 @@
       </c>
       <c r="F48" s="24" t="str">
         <f>[1]!s_div_progress(A48,"20171231")</f>
-        <v>董事会预案</v>
-      </c>
-      <c r="G48" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G48" s="24" t="str">
         <f>[1]!s_div_exdate(A48,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-04-16</v>
       </c>
       <c r="H48" s="24">
         <f>[1]!s_div_ifdiv(A48,"2018/06/30")</f>
@@ -7712,11 +7712,11 @@
       </c>
       <c r="F49" s="24" t="str">
         <f>[1]!s_div_progress(A49,"20171231")</f>
-        <v>董事会预案</v>
-      </c>
-      <c r="G49" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G49" s="24" t="str">
         <f>[1]!s_div_exdate(A49,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-04-18</v>
       </c>
       <c r="H49" s="24">
         <f>[1]!s_div_ifdiv(A49,"2018/06/30")</f>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="M66" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A66,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>1261581542</v>
       </c>
       <c r="N66" s="23" t="str">
         <f>[1]!s_div_ifdiv(A66,"2017/06/30")</f>
@@ -9066,13 +9066,13 @@
         <f>C72*L72*[1]!s_dq_close("000300.SH",I72,1)</f>
         <v>6.5788937329127412E-2</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="4" t="str">
         <f>[1]!s_div_ifdiv(A72,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+        <v>是</v>
+      </c>
+      <c r="F72" s="3" t="str">
         <f>[1]!s_div_progress(A72,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G72" s="3">
         <f>[1]!s_div_exdate(A72,"2017/12/31")</f>
@@ -9279,13 +9279,13 @@
         <f>C75*L75*[1]!s_dq_close("000300.SH",I75,1)</f>
         <v>1.4805152422239674E-2</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="4" t="str">
         <f>[1]!s_div_ifdiv(A75,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+        <v>是</v>
+      </c>
+      <c r="F75" s="3" t="str">
         <f>[1]!s_div_progress(A75,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G75" s="3">
         <f>[1]!s_div_exdate(A75,"2017/12/31")</f>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="F78" s="24" t="str">
         <f>[1]!s_div_progress(A78,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G78" s="24">
         <f>[1]!s_div_exdate(A78,"2017/12/31")</f>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="F84" s="24" t="str">
         <f>[1]!s_div_progress(A84,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G84" s="24">
         <f>[1]!s_div_exdate(A84,"2017/12/31")</f>
@@ -10935,13 +10935,13 @@
         <f>C105*L105*[1]!s_dq_close("000300.SH",I105,1)</f>
         <v>2.6167962457341057E-2</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="4" t="str">
         <f>[1]!s_div_ifdiv(A105,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+        <v>是</v>
+      </c>
+      <c r="F105" s="3" t="str">
         <f>[1]!s_div_progress(A105,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G105" s="3">
         <f>[1]!s_div_exdate(A105,"2017/12/31")</f>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="F134" s="3" t="str">
         <f>[1]!s_div_progress(A134,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G134" s="3">
         <f>[1]!s_div_exdate(A134,"2017/12/31")</f>
@@ -13483,13 +13483,13 @@
         <f>C141*L141*[1]!s_dq_close("000300.SH",I141,1)</f>
         <v>0.1905354761446211</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="4" t="str">
         <f>[1]!s_div_ifdiv(A141,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
+        <v>是</v>
+      </c>
+      <c r="F141" s="3" t="str">
         <f>[1]!s_div_progress(A141,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G141" s="3">
         <f>[1]!s_div_exdate(A141,"2017/12/31")</f>
@@ -13909,13 +13909,13 @@
         <f>C147*L147*[1]!s_dq_close("000300.SH",I147,1)</f>
         <v>3.9341726163358098E-2</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="4" t="str">
         <f>[1]!s_div_ifdiv(A147,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
+        <v>是</v>
+      </c>
+      <c r="F147" s="3" t="str">
         <f>[1]!s_div_progress(A147,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G147" s="3">
         <f>[1]!s_div_exdate(A147,"2017/12/31")</f>
@@ -14548,13 +14548,13 @@
         <f>C156*L156*[1]!s_dq_close("000300.SH",I156,1)</f>
         <v>0.88607959295702854</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="4" t="str">
         <f>[1]!s_div_ifdiv(A156,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="3">
+        <v>是</v>
+      </c>
+      <c r="F156" s="3" t="str">
         <f>[1]!s_div_progress(A156,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G156" s="3">
         <f>[1]!s_div_exdate(A156,"2017/12/31")</f>
@@ -15187,13 +15187,13 @@
         <f>C165*L165*[1]!s_dq_close("000300.SH",I165,1)</f>
         <v>0.28252932688624749</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="4" t="str">
         <f>[1]!s_div_ifdiv(A165,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F165" s="3">
+        <v>是</v>
+      </c>
+      <c r="F165" s="3" t="str">
         <f>[1]!s_div_progress(A165,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G165" s="3">
         <f>[1]!s_div_exdate(A165,"2017/12/31")</f>
@@ -15328,13 +15328,13 @@
         <f>C167*L167*[1]!s_dq_close("000300.SH",I167,1)</f>
         <v>0.94197986458023508</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="4" t="str">
         <f>[1]!s_div_ifdiv(A167,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F167" s="3">
+        <v>是</v>
+      </c>
+      <c r="F167" s="3" t="str">
         <f>[1]!s_div_progress(A167,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G167" s="3">
         <f>[1]!s_div_exdate(A167,"2017/12/31")</f>
@@ -16247,13 +16247,13 @@
         <f>C180*L180*[1]!s_dq_close("000300.SH",I180,1)</f>
         <v>2.9339515634949961E-2</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="4" t="str">
         <f>[1]!s_div_ifdiv(A180,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
+        <v>否</v>
+      </c>
+      <c r="F180" s="3" t="str">
         <f>[1]!s_div_progress(A180,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G180" s="3">
         <f>[1]!s_div_exdate(A180,"2017/12/31")</f>
@@ -16398,13 +16398,13 @@
         <f>C189*L189*[1]!s_dq_close("000300.SH",I189,1)</f>
         <v>0.25815407646222271</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="4" t="str">
         <f>[1]!s_div_ifdiv(A189,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F189" s="3">
+        <v>是</v>
+      </c>
+      <c r="F189" s="3" t="str">
         <f>[1]!s_div_progress(A189,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G189" s="3">
         <f>[1]!s_div_exdate(A189,"2017/12/31")</f>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="M198" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A198,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>1388733800</v>
       </c>
       <c r="N198" s="23" t="str">
         <f>[1]!s_div_ifdiv(A198,"2017/06/30")</f>
@@ -17463,13 +17463,13 @@
         <f>C204*L204*[1]!s_dq_close("000300.SH",I204,1)</f>
         <v>3.6573677980248076E-2</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="4" t="str">
         <f>[1]!s_div_ifdiv(A204,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F204" s="3">
+        <v>是</v>
+      </c>
+      <c r="F204" s="3" t="str">
         <f>[1]!s_div_progress(A204,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G204" s="3">
         <f>[1]!s_div_exdate(A204,"2017/12/31")</f>
@@ -18313,13 +18313,13 @@
         <f>C216*L216*[1]!s_dq_close("000300.SH",I216,1)</f>
         <v>0.22695233818465457</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="4" t="str">
         <f>[1]!s_div_ifdiv(A216,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F216" s="3">
+        <v>是</v>
+      </c>
+      <c r="F216" s="3" t="str">
         <f>[1]!s_div_progress(A216,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G216" s="3">
         <f>[1]!s_div_exdate(A216,"2017/12/31")</f>
@@ -20938,7 +20938,7 @@
       </c>
       <c r="F253" s="24" t="str">
         <f>[1]!s_div_progress(A253,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G253" s="24">
         <f>[1]!s_div_exdate(A253,"2017/12/31")</f>
@@ -21143,13 +21143,13 @@
         <f>C256*L256*[1]!s_dq_close("000300.SH",I256,1)</f>
         <v>0.19193086813695792</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="4" t="str">
         <f>[1]!s_div_ifdiv(A256,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F256" s="3">
+        <v>是</v>
+      </c>
+      <c r="F256" s="3" t="str">
         <f>[1]!s_div_progress(A256,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G256" s="3">
         <f>[1]!s_div_exdate(A256,"2017/12/31")</f>
@@ -21427,13 +21427,13 @@
         <f>C260*L260*[1]!s_dq_close("000300.SH",I260,1)</f>
         <v>7.6637707211733254E-3</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="4" t="str">
         <f>[1]!s_div_ifdiv(A260,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F260" s="3">
+        <v>是</v>
+      </c>
+      <c r="F260" s="3" t="str">
         <f>[1]!s_div_progress(A260,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G260" s="3">
         <f>[1]!s_div_exdate(A260,"2017/12/31")</f>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="M260" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A260,"2017/12/31",1)</f>
-        <v>805677693.66999996</v>
+        <v>655890460.38</v>
       </c>
       <c r="N260" s="23" t="str">
         <f>[1]!s_div_ifdiv(A260,"2017/06/30")</f>
@@ -22703,13 +22703,13 @@
         <f>C278*L278*[1]!s_dq_close("000300.SH",I278,1)</f>
         <v>1.5239369669792729E-2</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="4" t="str">
         <f>[1]!s_div_ifdiv(A278,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F278" s="3">
+        <v>是</v>
+      </c>
+      <c r="F278" s="3" t="str">
         <f>[1]!s_div_progress(A278,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G278" s="3">
         <f>[1]!s_div_exdate(A278,"2017/12/31")</f>
@@ -22845,13 +22845,13 @@
         <f>C280*L280*[1]!s_dq_close("000300.SH",I280,1)</f>
         <v>0.13826735952763961</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="4" t="str">
         <f>[1]!s_div_ifdiv(A280,"2017/12/31")</f>
-        <v>0</v>
-      </c>
-      <c r="F280" s="3">
+        <v>是</v>
+      </c>
+      <c r="F280" s="3" t="str">
         <f>[1]!s_div_progress(A280,"20171231")</f>
-        <v>0</v>
+        <v>董事会预案</v>
       </c>
       <c r="G280" s="3">
         <f>[1]!s_div_exdate(A280,"2017/12/31")</f>
@@ -25184,7 +25184,7 @@
       </c>
       <c r="M318" s="10">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A318,"2017/12/31",1)</f>
-        <v>0</v>
+        <v>6926034300</v>
       </c>
       <c r="N318" s="23" t="str">
         <f>[1]!s_div_ifdiv(A318,"2017/06/30")</f>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\党\东方工作\期权业务\期权每日交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="132" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300分红" sheetId="6" r:id="rId1"/>
@@ -5383,31 +5383,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D409" sqref="D402:D409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>467</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>517</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>165</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>503</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>83</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>425</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>560</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>383</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>578</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>246</v>
       </c>
@@ -6150,28 +6150,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>602</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>599</v>
       </c>
@@ -6235,14 +6235,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>621</v>
       </c>
@@ -6255,28 +6255,28 @@
       <c r="E20" s="3"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>603</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>599</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>189</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>132</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>191</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>622</v>
       </c>
@@ -6566,14 +6566,14 @@
       <c r="E30" s="3"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>604</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>599</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>556</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>31.980000415286199</v>
       </c>
       <c r="L34" s="36">
-        <f>J34/K34</f>
+        <f t="shared" ref="L34:L54" si="2">J34/K34</f>
         <v>1.4071294376372284E-2</v>
       </c>
       <c r="M34" s="39">
@@ -6704,11 +6704,11 @@
         <v>4.4092115150603348</v>
       </c>
       <c r="R34" s="36">
-        <f>P34/Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R34:R53" si="3">P34/Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>79</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>25.250000308666333</v>
       </c>
       <c r="L35" s="36">
-        <f>J35/K35</f>
+        <f t="shared" si="2"/>
         <v>4.3564355903095056E-2</v>
       </c>
       <c r="M35" s="39">
@@ -6775,11 +6775,11 @@
         <v>0.59947594068361587</v>
       </c>
       <c r="R35" s="36">
-        <f>P35/Q35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>339</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>28.169999985720917</v>
       </c>
       <c r="L36" s="36">
-        <f>J36/K36</f>
+        <f t="shared" si="2"/>
         <v>5.3248136342219895E-3</v>
       </c>
       <c r="M36" s="39">
@@ -6846,11 +6846,11 @@
         <v>2.8558162329437149</v>
       </c>
       <c r="R36" s="36">
-        <f>P36/Q36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>562</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>34.980003898207215</v>
       </c>
       <c r="L37" s="36">
-        <f>J37/K37</f>
+        <f t="shared" si="2"/>
         <v>4.8599194126651537E-3</v>
       </c>
       <c r="M37" s="39">
@@ -6917,11 +6917,11 @@
         <v>12.190403605404217</v>
       </c>
       <c r="R37" s="36">
-        <f>P37/Q37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>375</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>9.2599998688788254</v>
       </c>
       <c r="L38" s="36">
-        <f>J38/K38</f>
+        <f t="shared" si="2"/>
         <v>5.399568111014872E-2</v>
       </c>
       <c r="M38" s="39">
@@ -6988,11 +6988,11 @@
         <v>0.29227749568244782</v>
       </c>
       <c r="R38" s="36">
-        <f>P38/Q38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>15</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>51.999998089479234</v>
       </c>
       <c r="L39" s="36">
-        <f>J39/K39</f>
+        <f t="shared" si="2"/>
         <v>2.3076923924787354E-2</v>
       </c>
       <c r="M39" s="39">
@@ -7059,11 +7059,11 @@
         <v>9.6071901084152298</v>
       </c>
       <c r="R39" s="36">
-        <f>P39/Q39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>549</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>40.499998379290041</v>
       </c>
       <c r="L40" s="36">
-        <f>J40/K40</f>
+        <f t="shared" si="2"/>
         <v>1.9753087210222845E-2</v>
       </c>
       <c r="M40" s="39">
@@ -7130,11 +7130,11 @@
         <v>6.251982896233196</v>
       </c>
       <c r="R40" s="36">
-        <f>P40/Q40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>558</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>17.869999733229982</v>
       </c>
       <c r="L41" s="36">
-        <f>J41/K41</f>
+        <f t="shared" si="2"/>
         <v>3.0777840414695307E-2</v>
       </c>
       <c r="M41" s="39">
@@ -7201,11 +7201,11 @@
         <v>15.706584301842726</v>
       </c>
       <c r="R41" s="36">
-        <f>P41/Q41</f>
+        <f t="shared" si="3"/>
         <v>3.1833783233273641E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>576</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>3.0799999326308338</v>
       </c>
       <c r="L42" s="36">
-        <f>J42/K42</f>
+        <f t="shared" si="2"/>
         <v>1.9480519906618955E-2</v>
       </c>
       <c r="M42" s="39">
@@ -7272,11 +7272,11 @@
         <v>1.8205715279294921</v>
       </c>
       <c r="R42" s="36">
-        <f>P42/Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>419</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D43" s="37">
         <f>C43*L43*[1]!s_dq_close("000300.SH",I43,1)</f>
-        <v>2.3830473215845076E-2</v>
+        <v>2.3914683302243635E-2</v>
       </c>
       <c r="E43" s="25" t="str">
         <f>[1]!s_div_ifdiv(A43,"2017/12/31")</f>
@@ -7316,11 +7316,11 @@
       </c>
       <c r="K43" s="38">
         <f>[1]!s_dq_close(A43,I43,3)</f>
-        <v>2.84</v>
+        <v>2.8299995896935219</v>
       </c>
       <c r="L43" s="36">
-        <f>J43/K43</f>
-        <v>3.5211267605633804E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.5335694169068631E-3</v>
       </c>
       <c r="M43" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A43,"2017/12/31",1)</f>
@@ -7340,14 +7340,14 @@
       </c>
       <c r="Q43" s="38">
         <f>[1]!s_dq_close(A43,O43,3)</f>
-        <v>14.752844110440805</v>
+        <v>14.70089534484506</v>
       </c>
       <c r="R43" s="36">
-        <f>P43/Q43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>149</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D44" s="37">
         <f>C44*L44*[1]!s_dq_close("000300.SH",I44,1)</f>
-        <v>5.1657551305524664E-2</v>
+        <v>5.1849798941460148E-2</v>
       </c>
       <c r="E44" s="25" t="str">
         <f>[1]!s_div_ifdiv(A44,"2017/12/31")</f>
@@ -7387,11 +7387,11 @@
       </c>
       <c r="K44" s="38">
         <f>[1]!s_dq_close(A44,I44,3)</f>
-        <v>53.94</v>
+        <v>53.740002358850646</v>
       </c>
       <c r="L44" s="36">
-        <f>J44/K44</f>
-        <v>3.7078235076010387E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.7216224641095732E-3</v>
       </c>
       <c r="M44" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A44,"2017/12/31",1)</f>
@@ -7411,14 +7411,14 @@
       </c>
       <c r="Q44" s="38">
         <f>[1]!s_dq_close(A44,O44,3)</f>
-        <v>12.868561090336678</v>
+        <v>12.820847299772096</v>
       </c>
       <c r="R44" s="36">
-        <f>P44/Q44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>134</v>
       </c>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="D45" s="37">
         <f>C45*L45*[1]!s_dq_close("000300.SH",I45,1)</f>
-        <v>6.151196903703704E-2</v>
+        <v>6.243696338230266E-2</v>
       </c>
       <c r="E45" s="25" t="str">
         <f>[1]!s_div_ifdiv(A45,"2017/12/31")</f>
@@ -7458,11 +7458,11 @@
       </c>
       <c r="K45" s="38">
         <f>[1]!s_dq_close(A45,I45,3)</f>
-        <v>5.4</v>
+        <v>5.3199998014981915</v>
       </c>
       <c r="L45" s="36">
-        <f>J45/K45</f>
-        <v>1.4814814814814814E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5037594546050697E-2</v>
       </c>
       <c r="M45" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A45,"2017/12/31",1)</f>
@@ -7482,14 +7482,14 @@
       </c>
       <c r="Q45" s="38">
         <f>[1]!s_dq_close(A45,O45,3)</f>
-        <v>6.324796729197538</v>
+        <v>6.2310958044161691</v>
       </c>
       <c r="R45" s="36">
-        <f>P45/Q45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>199</v>
       </c>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="D46" s="37">
         <f>C46*L46*[1]!s_dq_close("000300.SH",I46,1)</f>
-        <v>2.6958762622725039E-2</v>
+        <v>2.6778453777777777E-2</v>
       </c>
       <c r="E46" s="25" t="str">
         <f>[1]!s_div_ifdiv(A46,"2017/12/31")</f>
@@ -7529,11 +7529,11 @@
       </c>
       <c r="K46" s="38">
         <f>[1]!s_dq_close(A46,I46,3)</f>
-        <v>20.329999999999998</v>
+        <v>20.79</v>
       </c>
       <c r="L46" s="36">
-        <f>J46/K46</f>
-        <v>5.9026069847515992E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.772005772005772E-3</v>
       </c>
       <c r="M46" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A46,"2017/12/31",1)</f>
@@ -7556,11 +7556,11 @@
         <v>7.7994988196137616</v>
       </c>
       <c r="R46" s="36">
-        <f>P46/Q46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>35</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="D47" s="37">
         <f>C47*L47*[1]!s_dq_close("000300.SH",I47,1)</f>
-        <v>9.3595550009592327E-2</v>
+        <v>9.3835504894674571E-2</v>
       </c>
       <c r="E47" s="25" t="str">
         <f>[1]!s_div_ifdiv(A47,"2017/12/31")</f>
@@ -7600,11 +7600,11 @@
       </c>
       <c r="K47" s="38">
         <f>[1]!s_dq_close(A47,I47,3)</f>
-        <v>8.34</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="L47" s="36">
-        <f>J47/K47</f>
-        <v>2.3980815347721823E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3668639053254441E-2</v>
       </c>
       <c r="M47" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A47,"2017/12/31",1)</f>
@@ -7627,11 +7627,11 @@
         <v>0.2748646056219079</v>
       </c>
       <c r="R47" s="36">
-        <f>P47/Q47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>91</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="D48" s="37">
         <f>C48*L48*[1]!s_dq_close("000300.SH",I48,1)</f>
-        <v>0.46222337421394305</v>
+        <v>0.45994269533312637</v>
       </c>
       <c r="E48" s="25" t="str">
         <f>[1]!s_div_ifdiv(A48,"2017/12/31")</f>
@@ -7671,11 +7671,11 @@
       </c>
       <c r="K48" s="38">
         <f>[1]!s_dq_close(A48,I48,3)</f>
-        <v>22.09</v>
+        <v>22.55</v>
       </c>
       <c r="L48" s="36">
-        <f>J48/K48</f>
-        <v>2.806699864191942E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.7494456762749444E-2</v>
       </c>
       <c r="M48" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A48,"2017/12/31",1)</f>
@@ -7698,11 +7698,11 @@
         <v>22.226398594693279</v>
       </c>
       <c r="R48" s="36">
-        <f>P48/Q48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>465</v>
       </c>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D49" s="37">
         <f>C49*L49*[1]!s_dq_close("000300.SH",I49,1)</f>
-        <v>0.12262772292698018</v>
+        <v>0.12334243520220586</v>
       </c>
       <c r="E49" s="25" t="str">
         <f>[1]!s_div_ifdiv(A49,"2017/12/31")</f>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="K49" s="38">
         <f>[1]!s_dq_close(A49,I49,3)</f>
-        <v>8.08</v>
+        <v>8.16</v>
       </c>
       <c r="L49" s="36">
-        <f>J49/K49</f>
-        <v>1.8564356435643563E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8382352941176471E-2</v>
       </c>
       <c r="M49" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A49,"2017/12/31",1)</f>
@@ -7769,11 +7769,11 @@
         <v>6.8835564479724871</v>
       </c>
       <c r="R49" s="36">
-        <f>P49/Q49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>147</v>
       </c>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D50" s="37">
         <f>C50*L50*[1]!s_dq_close("000300.SH",I50,1)</f>
-        <v>3.810285209309091E-2</v>
+        <v>3.8564148750724642E-2</v>
       </c>
       <c r="E50" s="25" t="str">
         <f>[1]!s_div_ifdiv(A50,"2017/12/31")</f>
@@ -7813,11 +7813,11 @@
       </c>
       <c r="K50" s="38">
         <f>[1]!s_dq_close(A50,I50,3)</f>
-        <v>11</v>
+        <v>11.04</v>
       </c>
       <c r="L50" s="36">
-        <f>J50/K50</f>
-        <v>7.2727272727272727E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.2463768115942039E-3</v>
       </c>
       <c r="M50" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A50,"2017/12/31",1)</f>
@@ -7840,11 +7840,11 @@
         <v>7.6260326760150354</v>
       </c>
       <c r="R50" s="36">
-        <f>P50/Q50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>207</v>
       </c>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="D51" s="37">
         <f>C51*L51*[1]!s_dq_close("000300.SH",I51,1)</f>
-        <v>6.3450682110743797E-2</v>
+        <v>6.3924080178688517E-2</v>
       </c>
       <c r="E51" s="25" t="str">
         <f>[1]!s_div_ifdiv(A51,"2017/12/31")</f>
@@ -7884,11 +7884,11 @@
       </c>
       <c r="K51" s="38">
         <f>[1]!s_dq_close(A51,I51,3)</f>
-        <v>4.84</v>
+        <v>4.88</v>
       </c>
       <c r="L51" s="36">
-        <f>J51/K51</f>
-        <v>1.6528925619834711E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="M51" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A51,"2017/12/31",1)</f>
@@ -7911,11 +7911,11 @@
         <v>2.3814025312586429</v>
       </c>
       <c r="R51" s="36">
-        <f>P51/Q51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>120</v>
       </c>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D52" s="37">
         <f>C52*L52*[1]!s_dq_close("000300.SH",I52,1)</f>
-        <v>0.14216595532941176</v>
+        <v>0.1433861432740926</v>
       </c>
       <c r="E52" s="25" t="str">
         <f>[1]!s_div_ifdiv(A52,"2017/12/31")</f>
@@ -7955,11 +7955,11 @@
       </c>
       <c r="K52" s="38">
         <f>[1]!s_dq_close(A52,I52,3)</f>
-        <v>23.8</v>
+        <v>23.97</v>
       </c>
       <c r="L52" s="36">
-        <f>J52/K52</f>
-        <v>8.4033613445378148E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.343763037129746E-3</v>
       </c>
       <c r="M52" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A52,"2017/12/31",1)</f>
@@ -7982,11 +7982,11 @@
         <v>1.0073460247262804</v>
       </c>
       <c r="R52" s="36">
-        <f>P52/Q52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>118</v>
       </c>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="D53" s="37">
         <f>C53*L53*[1]!s_dq_close("000300.SH",I53,1)</f>
-        <v>3.2613363288376385E-2</v>
+        <v>3.2381426508746612E-2</v>
       </c>
       <c r="E53" s="25" t="str">
         <f>[1]!s_div_ifdiv(A53,"2017/12/31")</f>
@@ -8026,11 +8026,11 @@
       </c>
       <c r="K53" s="38">
         <f>[1]!s_dq_close(A53,I53,3)</f>
-        <v>54.2</v>
+        <v>55.45</v>
       </c>
       <c r="L53" s="36">
-        <f>J53/K53</f>
-        <v>1.8450184501845018E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.8034265103697023E-3</v>
       </c>
       <c r="M53" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A53,"2017/12/31",1)</f>
@@ -8053,11 +8053,11 @@
         <v>3.4009743101329506</v>
       </c>
       <c r="R53" s="36">
-        <f>P53/Q53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>427</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>36.450000000000003</v>
       </c>
       <c r="L54" s="28">
-        <f>J54/K54</f>
+        <f t="shared" si="2"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="M54" s="31">
@@ -8122,11 +8122,11 @@
         <v>21.929906489683233</v>
       </c>
       <c r="R54" s="28">
-        <f t="shared" ref="R54:R81" si="2">P54/Q54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R54:R81" si="4">P54/Q54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>580</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>33.74</v>
       </c>
       <c r="L55" s="28">
-        <f t="shared" ref="L54:L81" si="3">J55/K55</f>
+        <f t="shared" ref="L55:L81" si="5">J55/K55</f>
         <v>5.3349140486069939E-3</v>
       </c>
       <c r="M55" s="31">
@@ -8191,11 +8191,11 @@
         <v>3.5703994183231815</v>
       </c>
       <c r="R55" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>568</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>33.950000000000003</v>
       </c>
       <c r="L56" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8291605301914579E-3</v>
       </c>
       <c r="M56" s="31">
@@ -8260,11 +8260,11 @@
         <v>9.3156917571714501</v>
       </c>
       <c r="R56" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>255</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>8.24</v>
       </c>
       <c r="L57" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0679611650485436E-3</v>
       </c>
       <c r="M57" s="31">
@@ -8329,11 +8329,11 @@
         <v>1.022078301066204</v>
       </c>
       <c r="R57" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>100</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>25.46</v>
       </c>
       <c r="L58" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9638648860958365E-3</v>
       </c>
       <c r="M58" s="31">
@@ -8398,11 +8398,11 @@
         <v>0.78404144747168236</v>
       </c>
       <c r="R58" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>183</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>13.87</v>
       </c>
       <c r="L59" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1629416005767843E-3</v>
       </c>
       <c r="M59" s="31">
@@ -8467,11 +8467,11 @@
         <v>1.9284769559029904</v>
       </c>
       <c r="R59" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>542</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>8.5</v>
       </c>
       <c r="L60" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9411764705882354E-3</v>
       </c>
       <c r="M60" s="31">
@@ -8536,11 +8536,11 @@
         <v>2.9834589969567484</v>
       </c>
       <c r="R60" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>415</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>30.36</v>
       </c>
       <c r="L61" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1594202898550728E-3</v>
       </c>
       <c r="M61" s="31">
@@ -8605,11 +8605,11 @@
         <v>12.935023641661756</v>
       </c>
       <c r="R61" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>387</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>27.98</v>
       </c>
       <c r="L62" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5017869907076482E-2</v>
       </c>
       <c r="M62" s="31">
@@ -8674,11 +8674,11 @@
         <v>0.11924759684112975</v>
       </c>
       <c r="R62" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>157</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>37.01</v>
       </c>
       <c r="L63" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0264793299108349E-2</v>
       </c>
       <c r="M63" s="31">
@@ -8743,11 +8743,11 @@
         <v>6.2140048690123955</v>
       </c>
       <c r="R63" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>181</v>
       </c>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="F64" s="24" t="str">
         <f>[1]!s_div_progress(A64,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G64" s="24">
         <f>[1]!s_div_exdate(A64,"2017/12/31")</f>
@@ -8788,7 +8788,7 @@
         <v>82.16</v>
       </c>
       <c r="L64" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3028237585199612E-3</v>
       </c>
       <c r="M64" s="31">
@@ -8812,11 +8812,11 @@
         <v>27.28210592016729</v>
       </c>
       <c r="R64" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>75</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>67.5</v>
       </c>
       <c r="L65" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9259259259259261E-2</v>
       </c>
       <c r="M65" s="31">
@@ -8881,11 +8881,11 @@
         <v>3.2053462566767323</v>
       </c>
       <c r="R65" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>347</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>23.99</v>
       </c>
       <c r="L66" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1263026260942059E-2</v>
       </c>
       <c r="M66" s="31">
@@ -8950,11 +8950,11 @@
         <v>0.55370413758838577</v>
       </c>
       <c r="R66" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>138</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>41.5</v>
       </c>
       <c r="L67" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2048192771084338E-2</v>
       </c>
       <c r="M67" s="31">
@@ -9019,11 +9019,11 @@
         <v>4.1413091723098514</v>
       </c>
       <c r="R67" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>353</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>33.28</v>
       </c>
       <c r="L68" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.704326923076923E-3</v>
       </c>
       <c r="M68" s="31">
@@ -9088,11 +9088,11 @@
         <v>0.79593930867258644</v>
       </c>
       <c r="R68" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>287</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>36.44</v>
       </c>
       <c r="L69" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M69" s="39">
@@ -9157,11 +9157,11 @@
         <v>0.88380760968045302</v>
       </c>
       <c r="R69" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>566</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>40.01</v>
       </c>
       <c r="L70" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4981254686328422E-3</v>
       </c>
       <c r="M70" s="31">
@@ -9226,11 +9226,11 @@
         <v>4.6223133582896692</v>
       </c>
       <c r="R70" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>195</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>32.03</v>
       </c>
       <c r="L71" s="28">
-        <f>J71/K71</f>
+        <f t="shared" ref="L71:L78" si="6">J71/K71</f>
         <v>3.1220730565095223E-3</v>
       </c>
       <c r="M71" s="31">
@@ -9295,11 +9295,11 @@
         <v>3.586292854051448</v>
       </c>
       <c r="R71" s="28">
-        <f>P71/Q71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R71:R78" si="7">P71/Q71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>140</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>14.36</v>
       </c>
       <c r="L72" s="28">
-        <f>J72/K72</f>
+        <f t="shared" si="6"/>
         <v>5.5710306406685237E-3</v>
       </c>
       <c r="M72" s="31">
@@ -9364,11 +9364,11 @@
         <v>3.8985874762518504</v>
       </c>
       <c r="R72" s="28">
-        <f>P72/Q72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>439</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>17.09</v>
       </c>
       <c r="L73" s="28">
-        <f>J73/K73</f>
+        <f t="shared" si="6"/>
         <v>2.3405500292568757E-2</v>
       </c>
       <c r="M73" s="31">
@@ -9433,11 +9433,11 @@
         <v>26.868460990081012</v>
       </c>
       <c r="R73" s="28">
-        <f>P73/Q73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>122</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>13.66</v>
       </c>
       <c r="L74" s="28">
-        <f>J74/K74</f>
+        <f t="shared" si="6"/>
         <v>7.320644216691069E-3</v>
       </c>
       <c r="M74" s="31">
@@ -9502,11 +9502,11 @@
         <v>1.3843855131232035</v>
       </c>
       <c r="R74" s="28">
-        <f>P74/Q74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>389</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>27.33</v>
       </c>
       <c r="L75" s="28">
-        <f>J75/K75</f>
+        <f t="shared" si="6"/>
         <v>4.7200878155872674E-3</v>
       </c>
       <c r="M75" s="31">
@@ -9571,11 +9571,11 @@
         <v>2.6332404256302069</v>
       </c>
       <c r="R75" s="28">
-        <f>P75/Q75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>519</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="L76" s="28">
-        <f>J76/K76</f>
+        <f t="shared" si="6"/>
         <v>1.506024096385542E-2</v>
       </c>
       <c r="M76" s="31">
@@ -9640,11 +9640,11 @@
         <v>3.7013983697340476</v>
       </c>
       <c r="R76" s="28">
-        <f>P76/Q76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>333</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>57.63</v>
       </c>
       <c r="L77" s="28">
-        <f>J77/K77</f>
+        <f t="shared" si="6"/>
         <v>5.0321013361096642E-3</v>
       </c>
       <c r="M77" s="31">
@@ -9709,11 +9709,11 @@
         <v>1.3986343439816027</v>
       </c>
       <c r="R77" s="28">
-        <f>P77/Q77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>4</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>9.34</v>
       </c>
       <c r="L78" s="28">
-        <f>J78/K78</f>
+        <f t="shared" si="6"/>
         <v>2.676659528907923E-2</v>
       </c>
       <c r="M78" s="31">
@@ -9778,11 +9778,11 @@
         <v>10.290000141990662</v>
       </c>
       <c r="R78" s="28">
-        <f>P78/Q78</f>
+        <f t="shared" si="7"/>
         <v>2.9154518548137084E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>313</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>24.27</v>
       </c>
       <c r="L79" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5702513391017719E-3</v>
       </c>
       <c r="M79" s="31">
@@ -9847,11 +9847,11 @@
         <v>2.2379203006645922</v>
       </c>
       <c r="R79" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>267</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>3.75</v>
       </c>
       <c r="L80" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="M80" s="31">
@@ -9916,11 +9916,11 @@
         <v>0.87205388542237039</v>
       </c>
       <c r="R80" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>538</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>88.06</v>
       </c>
       <c r="L81" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8135362253009309E-3</v>
       </c>
       <c r="M81" s="31">
@@ -9985,48 +9985,48 @@
         <v>27.846331275732464</v>
       </c>
       <c r="R81" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>622</v>
       </c>
       <c r="D84" s="22">
         <f>SUM(D34:D81)</f>
-        <v>9.8659267386428304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+        <v>9.8675448160356041</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="E85" s="3"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="E86" s="3"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="E87" s="3"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="E88" s="3"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>605</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>599</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>329</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>26.92</v>
       </c>
       <c r="L91" s="28">
-        <f>J91/K91</f>
+        <f t="shared" ref="L91:L122" si="8">J91/K91</f>
         <v>1.4858841010401188E-3</v>
       </c>
       <c r="M91" s="31">
@@ -10155,11 +10155,11 @@
         <v>0.9654129759075829</v>
       </c>
       <c r="R91" s="28">
-        <f>P91/Q91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R91:R122" si="9">P91/Q91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>277</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>3.1999994827962355</v>
       </c>
       <c r="L92" s="6">
-        <f>J92/K92</f>
+        <f t="shared" si="8"/>
         <v>1.6062502596120878E-2</v>
       </c>
       <c r="M92" s="10">
@@ -10226,11 +10226,11 @@
         <v>1.8807409617858513</v>
       </c>
       <c r="R92" s="6">
-        <f>P92/Q92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>155</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>9.3099972432611757</v>
       </c>
       <c r="L93" s="6">
-        <f>J93/K93</f>
+        <f t="shared" si="8"/>
         <v>9.6670275670752096E-3</v>
       </c>
       <c r="M93" s="10">
@@ -10297,11 +10297,11 @@
         <v>12.400652272440553</v>
       </c>
       <c r="R93" s="6">
-        <f>P93/Q93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>291</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>34.940000050636101</v>
       </c>
       <c r="L94" s="6">
-        <f>J94/K94</f>
+        <f t="shared" si="8"/>
         <v>1.8889524872453007E-2</v>
       </c>
       <c r="M94" s="10">
@@ -10368,11 +10368,11 @@
         <v>0.53770719962211</v>
       </c>
       <c r="R94" s="6">
-        <f>P94/Q94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>35.980000297599581</v>
       </c>
       <c r="L95" s="6">
-        <f>J95/K95</f>
+        <f t="shared" si="8"/>
         <v>1.1117287289924957E-2</v>
       </c>
       <c r="M95" s="10">
@@ -10439,11 +10439,11 @@
         <v>1.2941219237340507</v>
       </c>
       <c r="R95" s="6">
-        <f>P95/Q95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>301</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>20.659999112030921</v>
       </c>
       <c r="L96" s="6">
-        <f>J96/K96</f>
+        <f t="shared" si="8"/>
         <v>5.808325515857379E-3</v>
       </c>
       <c r="M96" s="10">
@@ -10510,11 +10510,11 @@
         <v>2.7824712885793557</v>
       </c>
       <c r="R96" s="6">
-        <f>P96/Q96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>187</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>8.2599998099962431</v>
       </c>
       <c r="L97" s="6">
-        <f>J97/K97</f>
+        <f t="shared" si="8"/>
         <v>3.6319613426254601E-3</v>
       </c>
       <c r="M97" s="10">
@@ -10581,11 +10581,11 @@
         <v>4.7042538386405726</v>
       </c>
       <c r="R97" s="6">
-        <f>P97/Q97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>335</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>6.4300000801086101</v>
       </c>
       <c r="L98" s="6">
-        <f>J98/K98</f>
+        <f t="shared" si="8"/>
         <v>1.5552099339680084E-2</v>
       </c>
       <c r="M98" s="10">
@@ -10652,11 +10652,11 @@
         <v>0.80418706507485871</v>
       </c>
       <c r="R98" s="6">
-        <f>P98/Q98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>327</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>40.389999150418099</v>
       </c>
       <c r="L99" s="6">
-        <f>J99/K99</f>
+        <f t="shared" si="8"/>
         <v>1.3864818315902418E-2</v>
       </c>
       <c r="M99" s="10">
@@ -10723,11 +10723,11 @@
         <v>2.8534320770014512</v>
       </c>
       <c r="R99" s="6">
-        <f>P99/Q99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>564</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>29.78</v>
       </c>
       <c r="L100" s="28">
-        <f>J100/K100</f>
+        <f t="shared" si="8"/>
         <v>4.264607118871726E-3</v>
       </c>
       <c r="M100" s="31">
@@ -10792,11 +10792,11 @@
         <v>14.886605858560339</v>
       </c>
       <c r="R100" s="28">
-        <f>P100/Q100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>413</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>5.5600006645579167</v>
       </c>
       <c r="L101" s="6">
-        <f>J101/K101</f>
+        <f t="shared" si="8"/>
         <v>1.2230214365524142E-2</v>
       </c>
       <c r="M101" s="10">
@@ -10863,11 +10863,11 @@
         <v>3.0811321650347598</v>
       </c>
       <c r="R101" s="6">
-        <f>P101/Q101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>63</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>15.67</v>
       </c>
       <c r="L102" s="28">
-        <f>J102/K102</f>
+        <f t="shared" si="8"/>
         <v>5.4243777919591582E-3</v>
       </c>
       <c r="M102" s="31">
@@ -10932,11 +10932,11 @@
         <v>1.4657379236465149</v>
       </c>
       <c r="R102" s="28">
-        <f>P102/Q102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>19</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>11.390000122567612</v>
       </c>
       <c r="L103" s="6">
-        <f>J103/K103</f>
+        <f t="shared" si="8"/>
         <v>3.5118524644039188E-2</v>
       </c>
       <c r="M103" s="10">
@@ -11003,11 +11003,11 @@
         <v>0.19122956757242826</v>
       </c>
       <c r="R103" s="6">
-        <f>P103/Q103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>249</v>
       </c>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f>[1]!s_div_progress(A104,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G104" s="3">
         <f>[1]!s_div_exdate(A104,"2017/12/31")</f>
@@ -11050,7 +11050,7 @@
         <v>9.5612008023447395</v>
       </c>
       <c r="L104" s="6">
-        <f>J104/K104</f>
+        <f t="shared" si="8"/>
         <v>2.1963768394917583E-2</v>
       </c>
       <c r="M104" s="10">
@@ -11074,11 +11074,11 @@
         <v>0.3514798179033275</v>
       </c>
       <c r="R104" s="6">
-        <f>P104/Q104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>57</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>11.449996421188944</v>
       </c>
       <c r="L105" s="6">
-        <f>J105/K105</f>
+        <f t="shared" si="8"/>
         <v>2.6200881551790792E-2</v>
       </c>
       <c r="M105" s="10">
@@ -11145,11 +11145,11 @@
         <v>6.4106999577049608</v>
       </c>
       <c r="R105" s="6">
-        <f>P105/Q105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>87</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>45.579996787515647</v>
       </c>
       <c r="L106" s="6">
-        <f>J106/K106</f>
+        <f t="shared" si="8"/>
         <v>2.9618255707507309E-2</v>
       </c>
       <c r="M106" s="10">
@@ -11216,11 +11216,11 @@
         <v>3.0554163923533988</v>
       </c>
       <c r="R106" s="6">
-        <f>P106/Q106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>71</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>33.080001723907934</v>
       </c>
       <c r="L107" s="6">
-        <f>J107/K107</f>
+        <f t="shared" si="8"/>
         <v>6.0459488989522596E-3</v>
       </c>
       <c r="M107" s="10">
@@ -11287,11 +11287,11 @@
         <v>2.1412031098751876</v>
       </c>
       <c r="R107" s="6">
-        <f>P107/Q107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>159</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>22.469999788722294</v>
       </c>
       <c r="L108" s="6">
-        <f>J108/K108</f>
+        <f t="shared" si="8"/>
         <v>4.4503783239993652E-3</v>
       </c>
       <c r="M108" s="10">
@@ -11358,11 +11358,11 @@
         <v>3.2466340600611456</v>
       </c>
       <c r="R108" s="6">
-        <f>P108/Q108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>205</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>11.750000307340471</v>
       </c>
       <c r="L109" s="6">
-        <f>J109/K109</f>
+        <f t="shared" si="8"/>
         <v>1.7021276150525361E-2</v>
       </c>
       <c r="M109" s="10">
@@ -11429,11 +11429,11 @@
         <v>2.274319482632067</v>
       </c>
       <c r="R109" s="6">
-        <f>P109/Q109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>144</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>20.319999522477065</v>
       </c>
       <c r="L110" s="6">
-        <f>J110/K110</f>
+        <f t="shared" si="8"/>
         <v>2.8051181761569025E-3</v>
       </c>
       <c r="M110" s="10">
@@ -11500,11 +11500,11 @@
         <v>1.3716812070575701</v>
       </c>
       <c r="R110" s="6">
-        <f>P110/Q110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>481</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>11.959999755981787</v>
       </c>
       <c r="L111" s="6">
-        <f>J111/K111</f>
+        <f t="shared" si="8"/>
         <v>2.9264214643896433E-2</v>
       </c>
       <c r="M111" s="10">
@@ -11571,11 +11571,11 @@
         <v>3.442399791306328</v>
       </c>
       <c r="R111" s="6">
-        <f>P111/Q111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>361</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>18.530000840039374</v>
       </c>
       <c r="L112" s="6">
-        <f>J112/K112</f>
+        <f t="shared" si="8"/>
         <v>1.0793307659643637E-2</v>
       </c>
       <c r="M112" s="10">
@@ -11642,11 +11642,11 @@
         <v>0.44501219221789667</v>
       </c>
       <c r="R112" s="6">
-        <f>P112/Q112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>197</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>22.630000669680673</v>
       </c>
       <c r="L113" s="6">
-        <f>J113/K113</f>
+        <f t="shared" si="8"/>
         <v>1.2152010245781424E-2</v>
       </c>
       <c r="M113" s="10">
@@ -11713,11 +11713,11 @@
         <v>5.8171789470861848</v>
       </c>
       <c r="R113" s="6">
-        <f>P113/Q113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>281</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>20.8</v>
       </c>
       <c r="L114" s="28">
-        <f>J114/K114</f>
+        <f t="shared" si="8"/>
         <v>2.019230769230769E-2</v>
       </c>
       <c r="M114" s="31">
@@ -11782,11 +11782,11 @@
         <v>1.5871105483791121</v>
       </c>
       <c r="R114" s="28">
-        <f>P114/Q114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>175</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>9.5000025873317764</v>
       </c>
       <c r="L115" s="6">
-        <f>J115/K115</f>
+        <f t="shared" si="8"/>
         <v>4.2105251690499404E-3</v>
       </c>
       <c r="M115" s="10">
@@ -11853,11 +11853,11 @@
         <v>9.5283468318246793</v>
       </c>
       <c r="R115" s="6">
-        <f>P115/Q115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>554</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>24.569997450327577</v>
       </c>
       <c r="L116" s="6">
-        <f>J116/K116</f>
+        <f t="shared" si="8"/>
         <v>4.0700044923556462E-3</v>
       </c>
       <c r="M116" s="10">
@@ -11924,11 +11924,11 @@
         <v>19.344253814346896</v>
       </c>
       <c r="R116" s="6">
-        <f>P116/Q116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>59</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>18.950003726615485</v>
       </c>
       <c r="L117" s="6">
-        <f>J117/K117</f>
+        <f t="shared" si="8"/>
         <v>1.0554087634246628E-3</v>
       </c>
       <c r="M117" s="10">
@@ -11995,11 +11995,11 @@
         <v>6.1419106385625684</v>
       </c>
       <c r="R117" s="6">
-        <f>P117/Q117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>283</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>48.959999346166711</v>
       </c>
       <c r="L118" s="6">
-        <f>J118/K118</f>
+        <f t="shared" si="8"/>
         <v>2.7573529779993705E-3</v>
       </c>
       <c r="M118" s="10">
@@ -12066,11 +12066,11 @@
         <v>0.9784539149442375</v>
       </c>
       <c r="R118" s="6">
-        <f>P118/Q118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>211</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>2.1400002209884441</v>
       </c>
       <c r="L119" s="6">
-        <f>J119/K119</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M119" s="10">
@@ -12137,11 +12137,11 @@
         <v>0.77285575999737233</v>
       </c>
       <c r="R119" s="6">
-        <f>P119/Q119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>3.4299994692088025</v>
       </c>
       <c r="L120" s="6">
-        <f>J120/K120</f>
+        <f t="shared" si="8"/>
         <v>2.3323618769671001E-2</v>
       </c>
       <c r="M120" s="10">
@@ -12208,11 +12208,11 @@
         <v>2.5991646373891371</v>
       </c>
       <c r="R120" s="6">
-        <f>P120/Q120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>193</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>17.970000160192573</v>
       </c>
       <c r="L121" s="6">
-        <f>J121/K121</f>
+        <f t="shared" si="8"/>
         <v>3.116304924918815E-3</v>
       </c>
       <c r="M121" s="10">
@@ -12279,11 +12279,11 @@
         <v>8.4434833384709922</v>
       </c>
       <c r="R121" s="6">
-        <f>P121/Q121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>104</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>23.182963044716587</v>
       </c>
       <c r="L122" s="6">
-        <f>J122/K122</f>
+        <f t="shared" si="8"/>
         <v>6.4702686930342623E-3</v>
       </c>
       <c r="M122" s="10">
@@ -12350,11 +12350,11 @@
         <v>3.3245362260702653</v>
       </c>
       <c r="R122" s="6">
-        <f>P122/Q122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>6.9999998299503581</v>
       </c>
       <c r="L123" s="6">
-        <f>J123/K123</f>
+        <f t="shared" ref="L123:L154" si="10">J123/K123</f>
         <v>1.428571463275438E-3</v>
       </c>
       <c r="M123" s="10">
@@ -12421,11 +12421,11 @@
         <v>0.93640669416966427</v>
       </c>
       <c r="R123" s="6">
-        <f>P123/Q123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R123:R154" si="11">P123/Q123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>305</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>11.230000057769884</v>
       </c>
       <c r="L124" s="6">
-        <f>J124/K124</f>
+        <f t="shared" si="10"/>
         <v>6.2333036188693472E-2</v>
       </c>
       <c r="M124" s="10">
@@ -12492,11 +12492,11 @@
         <v>1.8951339933706943</v>
       </c>
       <c r="R124" s="6">
-        <f>P124/Q124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>269</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>9.19</v>
       </c>
       <c r="L125" s="28">
-        <f>J125/K125</f>
+        <f t="shared" si="10"/>
         <v>3.8084874863982592E-2</v>
       </c>
       <c r="M125" s="31">
@@ -12561,11 +12561,11 @@
         <v>1.1042665461600405</v>
       </c>
       <c r="R125" s="28">
-        <f>P125/Q125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>303</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>11.429999380512077</v>
       </c>
       <c r="L126" s="6">
-        <f>J126/K126</f>
+        <f t="shared" si="10"/>
         <v>3.0621174013075018E-2</v>
       </c>
       <c r="M126" s="10">
@@ -12632,11 +12632,11 @@
         <v>3.6813831438859714</v>
       </c>
       <c r="R126" s="6">
-        <f>P126/Q126</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>397</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>9.3500030905046945</v>
       </c>
       <c r="L127" s="6">
-        <f>J127/K127</f>
+        <f t="shared" si="10"/>
         <v>1.9037426862539349E-2</v>
       </c>
       <c r="M127" s="10">
@@ -12703,11 +12703,11 @@
         <v>8.859446789848624</v>
       </c>
       <c r="R127" s="6">
-        <f>P127/Q127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>95</v>
       </c>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="F128" s="3" t="str">
         <f>[1]!s_div_progress(A128,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G128" s="3">
         <f>[1]!s_div_exdate(A128,"2017/12/31")</f>
@@ -12750,7 +12750,7 @@
         <v>32.350000771537893</v>
       </c>
       <c r="L128" s="6">
-        <f>J128/K128</f>
+        <f t="shared" si="10"/>
         <v>6.1823800689353794E-3</v>
       </c>
       <c r="M128" s="10">
@@ -12774,11 +12774,11 @@
         <v>3.09327347148847</v>
       </c>
       <c r="R128" s="6">
-        <f>P128/Q128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>257</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>10.80999995231757</v>
       </c>
       <c r="L129" s="6">
-        <f>J129/K129</f>
+        <f t="shared" si="10"/>
         <v>9.2506938428395529E-4</v>
       </c>
       <c r="M129" s="10">
@@ -12845,11 +12845,11 @@
         <v>0.40863330923405145</v>
       </c>
       <c r="R129" s="6">
-        <f>P129/Q129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>112</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>20.379999443486945</v>
       </c>
       <c r="L130" s="6">
-        <f>J130/K130</f>
+        <f t="shared" si="10"/>
         <v>1.9627085913774757E-3</v>
       </c>
       <c r="M130" s="10">
@@ -12916,11 +12916,11 @@
         <v>4.8395723307516274</v>
       </c>
       <c r="R130" s="6">
-        <f>P130/Q130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>399</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>15.549995666856669</v>
       </c>
       <c r="L131" s="6">
-        <f>J131/K131</f>
+        <f t="shared" si="10"/>
         <v>1.9292609877661984E-2</v>
       </c>
       <c r="M131" s="10">
@@ -12987,11 +12987,11 @@
         <v>14.598817862132767</v>
       </c>
       <c r="R131" s="6">
-        <f>P131/Q131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>10.379999958715992</v>
       </c>
       <c r="L132" s="6">
-        <f>J132/K132</f>
+        <f t="shared" si="10"/>
         <v>6.7437379844324206E-3</v>
       </c>
       <c r="M132" s="10">
@@ -13058,11 +13058,11 @@
         <v>0.38027803673962635</v>
       </c>
       <c r="R132" s="6">
-        <f>P132/Q132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>41</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>13.609998492827536</v>
       </c>
       <c r="L133" s="6">
-        <f>J133/K133</f>
+        <f t="shared" si="10"/>
         <v>4.7171202872530349E-2</v>
       </c>
       <c r="M133" s="10">
@@ -13129,11 +13129,11 @@
         <v>1.6844072861641566</v>
       </c>
       <c r="R133" s="6">
-        <f>P133/Q133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>27</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>3.4400000228540915</v>
       </c>
       <c r="L134" s="6">
-        <f>J134/K134</f>
+        <f t="shared" si="10"/>
         <v>4.360465087309748E-3</v>
       </c>
       <c r="M134" s="10">
@@ -13200,11 +13200,11 @@
         <v>0.22746542881736936</v>
       </c>
       <c r="R134" s="6">
-        <f>P134/Q134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>285</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>7.4399994793444373</v>
       </c>
       <c r="L135" s="6">
-        <f>J135/K135</f>
+        <f t="shared" si="10"/>
         <v>2.6881722311306217E-2</v>
       </c>
       <c r="M135" s="10">
@@ -13271,11 +13271,11 @@
         <v>4.7453142171959239</v>
       </c>
       <c r="R135" s="6">
-        <f>P135/Q135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>363</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>7.1599998363548654</v>
       </c>
       <c r="L136" s="6">
-        <f>J136/K136</f>
+        <f t="shared" si="10"/>
         <v>6.9832403830688991E-2</v>
       </c>
       <c r="M136" s="10">
@@ -13342,11 +13342,11 @@
         <v>0.66919171109339848</v>
       </c>
       <c r="R136" s="6">
-        <f>P136/Q136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>237</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>9.739999942920571</v>
       </c>
       <c r="L137" s="6">
-        <f>J137/K137</f>
+        <f t="shared" si="10"/>
         <v>3.2340862612525459E-2</v>
       </c>
       <c r="M137" s="10">
@@ -13413,11 +13413,11 @@
         <v>1.0583259618826704</v>
       </c>
       <c r="R137" s="6">
-        <f>P137/Q137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>293</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>9.2400001063513297</v>
       </c>
       <c r="L138" s="6">
-        <f>J138/K138</f>
+        <f t="shared" si="10"/>
         <v>2.1645021395889957E-2</v>
       </c>
       <c r="M138" s="10">
@@ -13484,11 +13484,11 @@
         <v>0.63358238966799096</v>
       </c>
       <c r="R138" s="6">
-        <f>P138/Q138</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>67</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>9.320001027118213</v>
       </c>
       <c r="L139" s="6">
-        <f>J139/K139</f>
+        <f t="shared" si="10"/>
         <v>1.6094418827159795E-2</v>
       </c>
       <c r="M139" s="10">
@@ -13555,11 +13555,11 @@
         <v>1.9511427740133751</v>
       </c>
       <c r="R139" s="6">
-        <f>P139/Q139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>171</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>13.109996872032093</v>
       </c>
       <c r="L140" s="6">
-        <f>J140/K140</f>
+        <f t="shared" si="10"/>
         <v>1.525553376955149E-2</v>
       </c>
       <c r="M140" s="10">
@@ -13626,11 +13626,11 @@
         <v>7.9380454453101752</v>
       </c>
       <c r="R140" s="6">
-        <f>P140/Q140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>61</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>5.3899999188142891</v>
       </c>
       <c r="L141" s="6">
-        <f>J141/K141</f>
+        <f t="shared" si="10"/>
         <v>1.8552875975181526E-2</v>
       </c>
       <c r="M141" s="10">
@@ -13697,11 +13697,11 @@
         <v>1.4274410736712151</v>
       </c>
       <c r="R141" s="6">
-        <f>P141/Q141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>146</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>16.759999728700961</v>
       </c>
       <c r="L142" s="6">
-        <f>J142/K142</f>
+        <f t="shared" si="10"/>
         <v>6.5632459296302102E-3</v>
       </c>
       <c r="M142" s="10">
@@ -13768,11 +13768,11 @@
         <v>2.2755698361078576</v>
       </c>
       <c r="R142" s="6">
-        <f>P142/Q142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>311</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>56.300002635878784</v>
       </c>
       <c r="L143" s="6">
-        <f>J143/K143</f>
+        <f t="shared" si="10"/>
         <v>4.7957368980287548E-3</v>
       </c>
       <c r="M143" s="10">
@@ -13839,11 +13839,11 @@
         <v>2.4777260490875057</v>
       </c>
       <c r="R143" s="6">
-        <f>P143/Q143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>457</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>9.9311778200427465</v>
       </c>
       <c r="L144" s="6">
-        <f>J144/K144</f>
+        <f t="shared" si="10"/>
         <v>1.2183851924975318E-2</v>
       </c>
       <c r="M144" s="10">
@@ -13910,11 +13910,11 @@
         <v>8.819996980451366</v>
       </c>
       <c r="R144" s="6">
-        <f>P144/Q144</f>
+        <f t="shared" si="11"/>
         <v>8.2766468244600457E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="35" t="s">
         <v>403</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>10.630002276357345</v>
       </c>
       <c r="L145" s="36">
-        <f>J145/K145</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M145" s="39">
@@ -13981,11 +13981,11 @@
         <v>5.9593673995377712</v>
       </c>
       <c r="R145" s="36">
-        <f>P145/Q145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="35" t="s">
         <v>126</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>15.489999140585653</v>
       </c>
       <c r="L146" s="36">
-        <f>J146/K146</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M146" s="39">
@@ -14052,11 +14052,11 @@
         <v>5.1754437516469469</v>
       </c>
       <c r="R146" s="36">
-        <f>P146/Q146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>233</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>21.750000749657413</v>
       </c>
       <c r="L147" s="6">
-        <f>J147/K147</f>
+        <f t="shared" si="10"/>
         <v>3.4022987333076564E-2</v>
       </c>
       <c r="M147" s="10">
@@ -14123,11 +14123,11 @@
         <v>2.3029821458392608</v>
       </c>
       <c r="R147" s="6">
-        <f>P147/Q147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>431</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>15.929999792544685</v>
       </c>
       <c r="L148" s="6">
-        <f>J148/K148</f>
+        <f t="shared" si="10"/>
         <v>3.8292530316634585E-2</v>
       </c>
       <c r="M148" s="10">
@@ -14194,11 +14194,11 @@
         <v>5.8245048842596292</v>
       </c>
       <c r="R148" s="6">
-        <f>P148/Q148</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>219</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>6.370001101848791</v>
       </c>
       <c r="L149" s="6">
-        <f>J149/K149</f>
+        <f t="shared" si="10"/>
         <v>3.2967027264571569E-2</v>
       </c>
       <c r="M149" s="10">
@@ -14265,11 +14265,11 @@
         <v>2.8194366126760757</v>
       </c>
       <c r="R149" s="6">
-        <f>P149/Q149</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>21</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>10.41000021012038</v>
       </c>
       <c r="L150" s="6">
-        <f>J150/K150</f>
+        <f t="shared" si="10"/>
         <v>6.724303418548204E-3</v>
       </c>
       <c r="M150" s="10">
@@ -14336,11 +14336,11 @@
         <v>2.3359127472882175</v>
       </c>
       <c r="R150" s="6">
-        <f>P150/Q150</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>242</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>22.050000243158564</v>
       </c>
       <c r="L151" s="6">
-        <f>J151/K151</f>
+        <f t="shared" si="10"/>
         <v>4.5351473422784616E-2</v>
       </c>
       <c r="M151" s="10">
@@ -14407,11 +14407,11 @@
         <v>0.67515303856893227</v>
       </c>
       <c r="R151" s="6">
-        <f>P151/Q151</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>106</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>10.430000035378432</v>
       </c>
       <c r="L152" s="6">
-        <f>J152/K152</f>
+        <f t="shared" si="10"/>
         <v>1.4381591514017434E-2</v>
       </c>
       <c r="M152" s="10">
@@ -14478,11 +14478,11 @@
         <v>0.7162327658295744</v>
       </c>
       <c r="R152" s="6">
-        <f>P152/Q152</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>534</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>15.569996626336801</v>
       </c>
       <c r="L153" s="6">
-        <f>J153/K153</f>
+        <f t="shared" si="10"/>
         <v>1.6698783322804802E-2</v>
       </c>
       <c r="M153" s="10">
@@ -14549,11 +14549,11 @@
         <v>12.029125631086487</v>
       </c>
       <c r="R153" s="6">
-        <f>P153/Q153</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>349</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>23.109999801177029</v>
       </c>
       <c r="L154" s="6">
-        <f>J154/K154</f>
+        <f t="shared" si="10"/>
         <v>1.7048896728243716E-2</v>
       </c>
       <c r="M154" s="10">
@@ -14620,11 +14620,11 @@
         <v>1.9390471566222698</v>
       </c>
       <c r="R154" s="6">
-        <f>P154/Q154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>223</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>5.519999235852473</v>
       </c>
       <c r="L155" s="6">
-        <f>J155/K155</f>
+        <f t="shared" ref="L155:L186" si="12">J155/K155</f>
         <v>4.1666672434689252E-2</v>
       </c>
       <c r="M155" s="10">
@@ -14691,11 +14691,11 @@
         <v>5.9005478605530435</v>
       </c>
       <c r="R155" s="6">
-        <f>P155/Q155</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R155:R186" si="13">P155/Q155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>261</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>21.68</v>
       </c>
       <c r="L156" s="28">
-        <f>J156/K156</f>
+        <f t="shared" si="12"/>
         <v>5.0738007380073807E-3</v>
       </c>
       <c r="M156" s="31">
@@ -14761,11 +14761,11 @@
         <v>0.73312323989177597</v>
       </c>
       <c r="R156" s="28">
-        <f>P156/Q156</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>483</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>9.3299974111149453</v>
       </c>
       <c r="L157" s="6">
-        <f>J157/K157</f>
+        <f t="shared" si="12"/>
         <v>2.3043950660036384E-2</v>
       </c>
       <c r="M157" s="10">
@@ -14832,11 +14832,11 @@
         <v>5.3161696224461217</v>
       </c>
       <c r="R157" s="6">
-        <f>P157/Q157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>253</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>30.170000476046411</v>
       </c>
       <c r="L158" s="6">
-        <f>J158/K158</f>
+        <f t="shared" si="12"/>
         <v>5.4690088629929717E-2</v>
       </c>
       <c r="M158" s="10">
@@ -14903,11 +14903,11 @@
         <v>1.5468510609060016</v>
       </c>
       <c r="R158" s="6">
-        <f>P158/Q158</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>128</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>85.470008024142729</v>
       </c>
       <c r="L159" s="6">
-        <f>J159/K159</f>
+        <f t="shared" si="12"/>
         <v>2.4570022263327888E-2</v>
       </c>
       <c r="M159" s="10">
@@ -14974,11 +14974,11 @@
         <v>22.393726597842448</v>
       </c>
       <c r="R159" s="6">
-        <f>P159/Q159</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>511</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>28.139999523271371</v>
       </c>
       <c r="L160" s="6">
-        <f>J160/K160</f>
+        <f t="shared" si="12"/>
         <v>3.5536603302818624E-2</v>
       </c>
       <c r="M160" s="10">
@@ -15045,11 +15045,11 @@
         <v>7.9828676816312711</v>
       </c>
       <c r="R160" s="6">
-        <f>P160/Q160</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>479</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>26.899989547988756</v>
       </c>
       <c r="L161" s="6">
-        <f>J161/K161</f>
+        <f t="shared" si="12"/>
         <v>8.9219365521256925E-3</v>
       </c>
       <c r="M161" s="10">
@@ -15116,11 +15116,11 @@
         <v>33.081040476475756</v>
       </c>
       <c r="R161" s="6">
-        <f>P161/Q161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>13</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>5.5799983405481335</v>
       </c>
       <c r="L162" s="6">
-        <f>J162/K162</f>
+        <f t="shared" si="12"/>
         <v>1.7921152283026813E-2</v>
       </c>
       <c r="M162" s="10">
@@ -15187,11 +15187,11 @@
         <v>14.055271191629494</v>
       </c>
       <c r="R162" s="6">
-        <f>P162/Q162</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>167</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>14.059997874428063</v>
       </c>
       <c r="L163" s="6">
-        <f>J163/K163</f>
+        <f t="shared" si="12"/>
         <v>7.8236142695344915E-3</v>
       </c>
       <c r="M163" s="10">
@@ -15258,11 +15258,11 @@
         <v>5.915699245850341</v>
       </c>
       <c r="R163" s="6">
-        <f>P163/Q163</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>201</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>8.4899998742331562</v>
       </c>
       <c r="L164" s="6">
-        <f>J164/K164</f>
+        <f t="shared" si="12"/>
         <v>4.7114252759176784E-3</v>
       </c>
       <c r="M164" s="10">
@@ -15329,11 +15329,11 @@
         <v>2.9545226695134423</v>
       </c>
       <c r="R164" s="6">
-        <f>P164/Q164</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>391</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>16.44000022233768</v>
       </c>
       <c r="L165" s="6">
-        <f>J165/K165</f>
+        <f t="shared" si="12"/>
         <v>9.1240874678449845E-3</v>
       </c>
       <c r="M165" s="10">
@@ -15400,11 +15400,11 @@
         <v>1.1641847965803229</v>
       </c>
       <c r="R165" s="6">
-        <f>P165/Q165</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
         <v>544</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>7.8900005521646994</v>
       </c>
       <c r="L166" s="36">
-        <f>J166/K166</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M166" s="39">
@@ -15471,11 +15471,11 @@
         <v>3.3664742270441459</v>
       </c>
       <c r="R166" s="36">
-        <f>P166/Q166</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
         <v>185</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>3.176457743665059</v>
       </c>
       <c r="L167" s="43">
-        <f t="shared" ref="L167:L170" si="4">J167/K167</f>
+        <f t="shared" ref="L167:L170" si="14">J167/K167</f>
         <v>0</v>
       </c>
       <c r="M167" s="47">
@@ -15542,11 +15542,11 @@
         <v>3.176457743665059</v>
       </c>
       <c r="R167" s="43">
-        <f t="shared" ref="R167:R170" si="5">P167/Q167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R167:R170" si="15">P167/Q167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="42" t="s">
         <v>613</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>1.3175001068885304</v>
       </c>
       <c r="L168" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M168" s="47">
@@ -15613,11 +15613,11 @@
         <v>1.3175001068885304</v>
       </c>
       <c r="R168" s="43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
         <v>239</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1.8494269998298785</v>
       </c>
       <c r="L169" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M169" s="47">
@@ -15684,11 +15684,11 @@
         <v>1.8494269998298785</v>
       </c>
       <c r="R169" s="43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="s">
         <v>531</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>4.9459373296109694</v>
       </c>
       <c r="L170" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M170" s="47">
@@ -15755,11 +15755,11 @@
         <v>4.9459373296109694</v>
       </c>
       <c r="R170" s="43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>593</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>6.826270908559767</v>
       </c>
       <c r="L171" s="43">
-        <f t="shared" ref="L171:L182" si="6">J171/K171</f>
+        <f t="shared" ref="L171:L182" si="16">J171/K171</f>
         <v>0</v>
       </c>
       <c r="M171" s="47">
@@ -15826,11 +15826,11 @@
         <v>6.826270908559767</v>
       </c>
       <c r="R171" s="43">
-        <f t="shared" ref="R171:R182" si="7">P171/Q171</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R171:R182" si="17">P171/Q171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>515</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>5.4278082122738249</v>
       </c>
       <c r="L172" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M172" s="47">
@@ -15897,11 +15897,11 @@
         <v>5.4278082122738249</v>
       </c>
       <c r="R172" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>367</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="F173" s="45" t="str">
         <f>[1]!s_div_progress(A173,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G173" s="45">
         <f>[1]!s_div_exdate(A173,"2017/12/31")</f>
@@ -15944,7 +15944,7 @@
         <v>0.42854632800078851</v>
       </c>
       <c r="L173" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M173" s="47">
@@ -15968,11 +15968,11 @@
         <v>0.42854632800078851</v>
       </c>
       <c r="R173" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>491</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>6.2317686400906167</v>
       </c>
       <c r="L174" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M174" s="47">
@@ -16039,11 +16039,11 @@
         <v>6.2317686400906167</v>
       </c>
       <c r="R174" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>275</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>2.7681090729221172</v>
       </c>
       <c r="L175" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M175" s="47">
@@ -16110,11 +16110,11 @@
         <v>2.7681090729221172</v>
       </c>
       <c r="R175" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>45</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>0.54501569568710151</v>
       </c>
       <c r="L176" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M176" s="47">
@@ -16181,11 +16181,11 @@
         <v>0.54501569568710151</v>
       </c>
       <c r="R176" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>590</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>4.7165619115923674</v>
       </c>
       <c r="L177" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M177" s="47">
@@ -16252,11 +16252,11 @@
         <v>4.7165619115923674</v>
       </c>
       <c r="R177" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>345</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>1.2924166394918422</v>
       </c>
       <c r="L178" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M178" s="47">
@@ -16323,11 +16323,11 @@
         <v>1.2924166394918422</v>
       </c>
       <c r="R178" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>523</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>17.117542482628163</v>
       </c>
       <c r="L179" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M179" s="47">
@@ -16394,11 +16394,11 @@
         <v>17.117542482628163</v>
       </c>
       <c r="R179" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>473</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>3.0470311484190424</v>
       </c>
       <c r="L180" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M180" s="47">
@@ -16465,11 +16465,11 @@
         <v>3.0470311484190424</v>
       </c>
       <c r="R180" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>595</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>72.12</v>
       </c>
       <c r="L181" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M181" s="47">
@@ -16536,11 +16536,11 @@
         <v>72.12</v>
       </c>
       <c r="R181" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>586</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>12.17</v>
       </c>
       <c r="L182" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M182" s="47">
@@ -16607,11 +16607,11 @@
         <v>12.17</v>
       </c>
       <c r="R182" s="43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -16630,7 +16630,7 @@
       <c r="Q183" s="14"/>
       <c r="R183" s="6"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>622</v>
       </c>
@@ -16639,14 +16639,14 @@
         <v>19.424987032965539</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
       <c r="E189" s="3"/>
       <c r="F189" s="13"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>606</v>
       </c>
@@ -16654,7 +16654,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="14"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>599</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>39</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>22.169999997535783</v>
       </c>
       <c r="L192" s="6">
-        <f t="shared" ref="L192:L221" si="8">J192/K192</f>
+        <f t="shared" ref="L192:L221" si="18">J192/K192</f>
         <v>1.3531799730868078E-2</v>
       </c>
       <c r="M192" s="10">
@@ -16777,11 +16777,11 @@
         <v>1.0946064781285454</v>
       </c>
       <c r="R192" s="6">
-        <f t="shared" ref="R192:R221" si="9">P192/Q192</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R192:R221" si="19">P192/Q192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="35" t="s">
         <v>69</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>9.770000359638173</v>
       </c>
       <c r="L193" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.0470828315036715E-3</v>
       </c>
       <c r="M193" s="39">
@@ -16848,11 +16848,11 @@
         <v>1.3150543046857326</v>
       </c>
       <c r="R193" s="36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>241</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>15.220000075598074</v>
       </c>
       <c r="L194" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.5992115408875463E-3</v>
       </c>
       <c r="M194" s="10">
@@ -16919,11 +16919,11 @@
         <v>2.5428443500919373</v>
       </c>
       <c r="R194" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>221</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>12.400000186973736</v>
       </c>
       <c r="L195" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.4516128813376222E-2</v>
       </c>
       <c r="M195" s="10">
@@ -16990,11 +16990,11 @@
         <v>4.2659534110652038</v>
       </c>
       <c r="R195" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>179</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>16.220003677329267</v>
       </c>
       <c r="L196" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.1652267156862743E-3</v>
       </c>
       <c r="M196" s="10">
@@ -17061,11 +17061,11 @@
         <v>6.2514597506373208</v>
       </c>
       <c r="R196" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>244</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>10.780000829609387</v>
       </c>
       <c r="L197" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9109460495975159E-2</v>
       </c>
       <c r="M197" s="10">
@@ -17132,11 +17132,11 @@
         <v>2.7537454423770051</v>
       </c>
       <c r="R197" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>279</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>19.600000213597756</v>
       </c>
       <c r="L198" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.6530611410879235E-3</v>
       </c>
       <c r="M198" s="10">
@@ -17203,11 +17203,11 @@
         <v>3.7593204906157349</v>
       </c>
       <c r="R198" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>331</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>21.499999757266234</v>
       </c>
       <c r="L199" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.3023256864180719E-3</v>
       </c>
       <c r="M199" s="10">
@@ -17274,11 +17274,11 @@
         <v>2.0561572655879576</v>
       </c>
       <c r="R199" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
         <v>142</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>5.48</v>
       </c>
       <c r="L200" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.4744525547445249E-3</v>
       </c>
       <c r="M200" s="31">
@@ -17343,11 +17343,11 @@
         <v>3.4804791969654811</v>
       </c>
       <c r="R200" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>33</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>6.7199999841209834</v>
       </c>
       <c r="L201" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.9741592332182626E-2</v>
       </c>
       <c r="M201" s="10">
@@ -17414,11 +17414,11 @@
         <v>0.11720225735328381</v>
       </c>
       <c r="R201" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>51</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>10.039999958584373</v>
       </c>
       <c r="L202" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.9601594036360808E-3</v>
       </c>
       <c r="M202" s="10">
@@ -17485,11 +17485,11 @@
         <v>1.1715843874871603</v>
       </c>
       <c r="R202" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>37</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>48.349999136064511</v>
       </c>
       <c r="L203" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9855222691905511E-2</v>
       </c>
       <c r="M203" s="10">
@@ -17556,11 +17556,11 @@
         <v>0.31646577194564024</v>
       </c>
       <c r="R203" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>7</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>9.3500001282528835</v>
       </c>
       <c r="L204" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.0695187019070742E-2</v>
       </c>
       <c r="M204" s="10">
@@ -17627,11 +17627,11 @@
         <v>0.35100789486957146</v>
       </c>
       <c r="R204" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>173</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>57.180004031786716</v>
       </c>
       <c r="L205" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.4977262311632366E-3</v>
       </c>
       <c r="M205" s="10">
@@ -17698,11 +17698,11 @@
         <v>15.225690901634307</v>
       </c>
       <c r="R205" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>124</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>20.239999627467466</v>
       </c>
       <c r="L206" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.4822134660164397E-3</v>
       </c>
       <c r="M206" s="10">
@@ -17769,11 +17769,11 @@
         <v>0.85927515053512193</v>
       </c>
       <c r="R206" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>89</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>8.3000001954427596</v>
       </c>
       <c r="L207" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.3253011736119855E-3</v>
       </c>
       <c r="M207" s="10">
@@ -17840,11 +17840,11 @@
         <v>1.7929046525229642</v>
       </c>
       <c r="R207" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>337</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>20.590000902479439</v>
       </c>
       <c r="L208" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.428363176709673E-2</v>
       </c>
       <c r="M208" s="10">
@@ -17911,11 +17911,11 @@
         <v>1.524554038489452</v>
       </c>
       <c r="R208" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>53</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>4.2999997847341023</v>
       </c>
       <c r="L209" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.8604652094173751E-2</v>
       </c>
       <c r="M209" s="10">
@@ -17982,11 +17982,11 @@
         <v>1.7358451064785327</v>
       </c>
       <c r="R209" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>43</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>7.1800000443338075</v>
       </c>
       <c r="L210" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.4818941289184368E-3</v>
       </c>
       <c r="M210" s="10">
@@ -18053,11 +18053,11 @@
         <v>0.91623201063420245</v>
       </c>
       <c r="R210" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>507</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>19.090001868819609</v>
       </c>
       <c r="L211" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.5715032510813989E-2</v>
       </c>
       <c r="M211" s="10">
@@ -18124,11 +18124,11 @@
         <v>17.213440693935112</v>
       </c>
       <c r="R211" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>501</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>7.6130480408157526</v>
       </c>
       <c r="L212" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.9927440095238326E-3</v>
       </c>
       <c r="M212" s="10">
@@ -18195,11 +18195,11 @@
         <v>7.9599975292938447</v>
       </c>
       <c r="R212" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>8.7010077258333346E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>307</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>16.900000054057656</v>
       </c>
       <c r="L213" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.7751479233159565E-2</v>
       </c>
       <c r="M213" s="10">
@@ -18266,11 +18266,11 @@
         <v>0.60274287004608884</v>
       </c>
       <c r="R213" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>341</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>7.7499999916248123</v>
       </c>
       <c r="L214" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.2258064550989334E-2</v>
       </c>
       <c r="M214" s="10">
@@ -18337,11 +18337,11 @@
         <v>0.29564410868058338</v>
       </c>
       <c r="R214" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>161</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>44.919998703564026</v>
       </c>
       <c r="L215" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.4523598791673981E-3</v>
       </c>
       <c r="M215" s="10">
@@ -18408,11 +18408,11 @@
         <v>9.362330284744484</v>
       </c>
       <c r="R215" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>309</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>7.3399999104541571</v>
       </c>
       <c r="L216" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8.1743870207060462E-3</v>
       </c>
       <c r="M216" s="10">
@@ -18479,11 +18479,11 @@
         <v>0.59611946694639073</v>
       </c>
       <c r="R216" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
         <v>315</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>14.589998354620066</v>
       </c>
       <c r="L217" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.2371494353996245E-4</v>
       </c>
       <c r="M217" s="39">
@@ -18550,11 +18550,11 @@
         <v>6.7619807543624679</v>
       </c>
       <c r="R217" s="36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
         <v>235</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>39.31</v>
       </c>
       <c r="L218" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.9272449758331217E-3</v>
       </c>
       <c r="M218" s="31">
@@ -18619,11 +18619,11 @@
         <v>6.2796352664851289</v>
       </c>
       <c r="R218" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>525</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>22.060005596870518</v>
       </c>
       <c r="L219" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.5249300944669351E-3</v>
       </c>
       <c r="M219" s="10">
@@ -18690,11 +18690,11 @@
         <v>18.547076230567249</v>
       </c>
       <c r="R219" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>321</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>21.719999638149375</v>
       </c>
       <c r="L220" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.4383058662641291E-3</v>
       </c>
       <c r="M220" s="10">
@@ -18761,11 +18761,11 @@
         <v>0.81956466939071793</v>
       </c>
       <c r="R220" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>213</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>9.3100003700706004</v>
       </c>
       <c r="L221" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9441460022050185E-2</v>
       </c>
       <c r="M221" s="10">
@@ -18832,11 +18832,11 @@
         <v>1.7070998641482766</v>
       </c>
       <c r="R221" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>409</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>8.1100011121464615</v>
       </c>
       <c r="L222" s="6">
-        <f t="shared" ref="L222:L252" si="10">J222/K222</f>
+        <f t="shared" ref="L222:L252" si="20">J222/K222</f>
         <v>3.0826136339928676E-2</v>
       </c>
       <c r="M222" s="10">
@@ -18903,11 +18903,11 @@
         <v>3.4683889647424433</v>
       </c>
       <c r="R222" s="6">
-        <f t="shared" ref="R222:R252" si="11">P222/Q222</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R222:R252" si="21">P222/Q222</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>110</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>10.160000008300903</v>
       </c>
       <c r="L223" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.9370078707991418E-2</v>
       </c>
       <c r="M223" s="10">
@@ -18974,11 +18974,11 @@
         <v>5.271073789326179</v>
       </c>
       <c r="R223" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>437</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>17.22000125973118</v>
       </c>
       <c r="L224" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.7108007564885414E-3</v>
       </c>
       <c r="M224" s="10">
@@ -19045,11 +19045,11 @@
         <v>12.909803247567449</v>
       </c>
       <c r="R224" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>521</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>6.1599984454117438</v>
       </c>
       <c r="L225" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.5129881519218144E-2</v>
       </c>
       <c r="M225" s="10">
@@ -19116,11 +19116,11 @@
         <v>5.2621578672036158</v>
       </c>
       <c r="R225" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="27" t="s">
         <v>572</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>6.99</v>
       </c>
       <c r="L226" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4306151645207439E-2</v>
       </c>
       <c r="M226" s="31">
@@ -19185,11 +19185,11 @@
         <v>3.0337808382487701</v>
       </c>
       <c r="R226" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>497</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>15.93999372759254</v>
       </c>
       <c r="L227" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.2198248212822026E-2</v>
       </c>
       <c r="M227" s="10">
@@ -19256,11 +19256,11 @@
         <v>5.5997632292304278</v>
       </c>
       <c r="R227" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>546</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>5.5899982727881623</v>
       </c>
       <c r="L228" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.1985692433243267E-2</v>
       </c>
       <c r="M228" s="10">
@@ -19327,11 +19327,11 @@
         <v>2.4468834381495035</v>
       </c>
       <c r="R228" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>177</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>74.500030296679</v>
       </c>
       <c r="L229" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>6.7114066666666651E-3</v>
       </c>
       <c r="M229" s="10">
@@ -19398,11 +19398,11 @@
         <v>52.597021389455371</v>
       </c>
       <c r="R229" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>371</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>3.4900000027456985</v>
       </c>
       <c r="L230" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.1518624617037069E-2</v>
       </c>
       <c r="M230" s="10">
@@ -19469,11 +19469,11 @@
         <v>0.10893962785480171</v>
       </c>
       <c r="R230" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>49</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>5.7500000390748021</v>
       </c>
       <c r="L231" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.6956521148207153E-3</v>
       </c>
       <c r="M231" s="10">
@@ -19540,11 +19540,11 @@
         <v>0.41940287970874163</v>
       </c>
       <c r="R231" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>509</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>11.780005193866495</v>
       </c>
       <c r="L232" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.3157888935456835E-2</v>
       </c>
       <c r="M232" s="10">
@@ -19611,11 +19611,11 @@
         <v>9.686659761259877</v>
       </c>
       <c r="R232" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>499</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>3.9300004899671568</v>
       </c>
       <c r="L233" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.4936383659539697E-2</v>
       </c>
       <c r="M233" s="10">
@@ -19682,11 +19682,11 @@
         <v>2.8019996784590533</v>
       </c>
       <c r="R233" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>65</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>16.650001230402502</v>
       </c>
       <c r="L234" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.1021019467608711E-2</v>
       </c>
       <c r="M234" s="10">
@@ -19753,11 +19753,11 @@
         <v>1.701579894040407</v>
       </c>
       <c r="R234" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>317</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>9.9899995881986658</v>
       </c>
       <c r="L235" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.5035036479226698E-3</v>
       </c>
       <c r="M235" s="10">
@@ -19824,11 +19824,11 @@
         <v>0.75668495121784241</v>
       </c>
       <c r="R235" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>215</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>7.9217645621799999</v>
       </c>
       <c r="L236" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.082869273693656E-2</v>
       </c>
       <c r="M236" s="10">
@@ -19895,11 +19895,11 @@
         <v>8.0400000119605384</v>
       </c>
       <c r="R236" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.4925373112124938E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>98</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>9.409999702835222</v>
       </c>
       <c r="L237" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.3358131018545104E-2</v>
       </c>
       <c r="M237" s="10">
@@ -19966,11 +19966,11 @@
         <v>1.4115326948793105</v>
       </c>
       <c r="R237" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>153</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>19.280000482560837</v>
       </c>
       <c r="L238" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.149377489505857E-3</v>
       </c>
       <c r="M238" s="10">
@@ -20037,11 +20037,11 @@
         <v>2.6219575801488637</v>
       </c>
       <c r="R238" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>251</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>13.870000135106114</v>
       </c>
       <c r="L239" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.802451316256511E-2</v>
       </c>
       <c r="M239" s="10">
@@ -20108,11 +20108,11 @@
         <v>1.601432616108825</v>
       </c>
       <c r="R239" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>533</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>6.490000891435848</v>
       </c>
       <c r="L240" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.0878264532600018E-3</v>
       </c>
       <c r="M240" s="10">
@@ -20179,11 +20179,11 @@
         <v>7.098470645111842</v>
       </c>
       <c r="R240" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>297</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>5.5100001746720313</v>
       </c>
       <c r="L241" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.8148819751344608E-2</v>
       </c>
       <c r="M241" s="10">
@@ -20250,11 +20250,11 @@
         <v>3.3362358002555452</v>
       </c>
       <c r="R241" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>582</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>8.3800026568304009</v>
       </c>
       <c r="L242" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.3126487485101311E-3</v>
       </c>
       <c r="M242" s="10">
@@ -20321,11 +20321,11 @@
         <v>2.5569495591759033</v>
       </c>
       <c r="R242" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>323</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>449.18999194753042</v>
       </c>
       <c r="L243" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.5109419447601552E-2</v>
       </c>
       <c r="M243" s="10">
@@ -20392,11 +20392,11 @@
         <v>4.9993938850170343</v>
       </c>
       <c r="R243" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>451</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>5.9200009037208163</v>
       </c>
       <c r="L244" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.5861479485477412E-2</v>
       </c>
       <c r="M244" s="10">
@@ -20463,11 +20463,11 @@
         <v>8.1035628145816236</v>
       </c>
       <c r="R244" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>552</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>48.960003901477265</v>
       </c>
       <c r="L245" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.0424834973712639E-3</v>
       </c>
       <c r="M245" s="10">
@@ -20534,11 +20534,11 @@
         <v>9.5048334968314556</v>
       </c>
       <c r="R245" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>570</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>39.899999270326127</v>
       </c>
       <c r="L246" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.2531328549969501E-3</v>
       </c>
       <c r="M246" s="10">
@@ -20605,11 +20605,11 @@
         <v>3.9840193739935779</v>
       </c>
       <c r="R246" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>421</v>
       </c>
@@ -20652,7 +20652,7 @@
         <v>9.6999978404876188</v>
       </c>
       <c r="L247" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.1104126183453399E-2</v>
       </c>
       <c r="M247" s="10">
@@ -20676,11 +20676,11 @@
         <v>2.5194311124548077</v>
       </c>
       <c r="R247" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>85</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>6.6599996484418291</v>
       </c>
       <c r="L248" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.2522523711407992E-3</v>
       </c>
       <c r="M248" s="10">
@@ -20747,11 +20747,11 @@
         <v>1.4210351315780465</v>
       </c>
       <c r="R248" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>81</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>58.900005896042096</v>
       </c>
       <c r="L249" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6977926993165158E-3</v>
       </c>
       <c r="M249" s="10">
@@ -20818,11 +20818,11 @@
         <v>20.545134597935437</v>
       </c>
       <c r="R249" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="27" t="s">
         <v>299</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>13.34</v>
       </c>
       <c r="L250" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.4977511244377807E-3</v>
       </c>
       <c r="M250" s="31">
@@ -20887,11 +20887,11 @@
         <v>4.6518501600437974</v>
       </c>
       <c r="R250" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>417</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>19.32000207879414</v>
       </c>
       <c r="L251" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.15372669153384338</v>
       </c>
       <c r="M251" s="10">
@@ -20958,11 +20958,11 @@
         <v>45.302023294261154</v>
       </c>
       <c r="R251" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>369</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>23.559999868605146</v>
       </c>
       <c r="L252" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.2444821968464823E-2</v>
       </c>
       <c r="M252" s="10">
@@ -21029,11 +21029,11 @@
         <v>0.23705004432860344</v>
       </c>
       <c r="R252" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>449</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>50.129758111115592</v>
       </c>
       <c r="L253" s="6">
-        <f t="shared" ref="L253:L284" si="12">J253/K253</f>
+        <f t="shared" ref="L253:L284" si="22">J253/K253</f>
         <v>1.0971527107329987E-2</v>
       </c>
       <c r="M253" s="10">
@@ -21100,11 +21100,11 @@
         <v>55.669991704590622</v>
       </c>
       <c r="R253" s="6">
-        <f t="shared" ref="R253:R284" si="13">P253/Q253</f>
+        <f t="shared" ref="R253:R284" si="23">P253/Q253</f>
         <v>8.9814994522222878E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>463</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>5.0000001902598035</v>
       </c>
       <c r="L254" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.685999821688519E-2</v>
       </c>
       <c r="M254" s="10">
@@ -21171,11 +21171,11 @@
         <v>2.013071462195684</v>
       </c>
       <c r="R254" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>108</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>14.559996511545366</v>
       </c>
       <c r="L255" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.4038467297877928E-2</v>
       </c>
       <c r="M255" s="10">
@@ -21242,11 +21242,11 @@
         <v>11.220857713642493</v>
       </c>
       <c r="R255" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="27" t="s">
         <v>169</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>48.8</v>
       </c>
       <c r="L256" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4139344262295081E-2</v>
       </c>
       <c r="M256" s="31">
@@ -21311,11 +21311,11 @@
         <v>8.3575084593851852</v>
       </c>
       <c r="R256" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>136</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>28.069997949873319</v>
       </c>
       <c r="L257" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.8500180207658705E-3</v>
       </c>
       <c r="M257" s="10">
@@ -21382,11 +21382,11 @@
         <v>9.4676825594446381</v>
       </c>
       <c r="R257" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>433</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>7.5900002896944105</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.2938075159159912E-2</v>
       </c>
       <c r="M258" s="10">
@@ -21453,11 +21453,11 @@
         <v>7.3002991577617822</v>
       </c>
       <c r="R258" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>295</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>16.870003280707195</v>
       </c>
       <c r="L259" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>8.8915216852116681E-3</v>
       </c>
       <c r="M259" s="10">
@@ -21524,11 +21524,11 @@
         <v>2.959698662871062</v>
       </c>
       <c r="R259" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>203</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>8.0800002750997173</v>
       </c>
       <c r="L260" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.3514850684538519E-3</v>
       </c>
       <c r="M260" s="10">
@@ -21595,11 +21595,11 @@
         <v>1.9649979821926968</v>
       </c>
       <c r="R260" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>114</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>29.739995397344725</v>
       </c>
       <c r="L261" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.3537327112784219E-3</v>
       </c>
       <c r="M261" s="10">
@@ -21666,11 +21666,11 @@
         <v>5.5141042678193948</v>
       </c>
       <c r="R261" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>447</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>3.4200005758386527</v>
       </c>
       <c r="L262" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.9707593969721069E-2</v>
       </c>
       <c r="M262" s="10">
@@ -21737,11 +21737,11 @@
         <v>1.8960541007436749</v>
       </c>
       <c r="R262" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>357</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>6.4700005749274156</v>
       </c>
       <c r="L263" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.8639872918837359E-2</v>
       </c>
       <c r="M263" s="10">
@@ -21808,11 +21808,11 @@
         <v>1.724782246241412</v>
       </c>
       <c r="R263" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>475</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>11.750005218910948</v>
       </c>
       <c r="L264" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.9574441624365478E-3</v>
       </c>
       <c r="M264" s="10">
@@ -21879,11 +21879,11 @@
         <v>4.970391378557931</v>
       </c>
       <c r="R264" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>55</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>3.9200003222978959</v>
       </c>
       <c r="L265" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>7.6530605952639472E-3</v>
       </c>
       <c r="M265" s="10">
@@ -21950,11 +21950,11 @@
         <v>4.7965510333439285</v>
       </c>
       <c r="R265" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>393</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>14.500000811034278</v>
       </c>
       <c r="L266" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.9999997203330232E-2</v>
       </c>
       <c r="M266" s="10">
@@ -22021,11 +22021,11 @@
         <v>2.1697800201178632</v>
       </c>
       <c r="R266" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>529</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>3.6399996404011175</v>
       </c>
       <c r="L267" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.6153850713426682E-2</v>
       </c>
       <c r="M267" s="10">
@@ -22092,11 +22092,11 @@
         <v>2.3099657040184263</v>
       </c>
       <c r="R267" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>485</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>8.1599976276403368</v>
       </c>
       <c r="L268" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.0466914807755696E-2</v>
       </c>
       <c r="M268" s="10">
@@ -22163,11 +22163,11 @@
         <v>4.5796100466390266</v>
       </c>
       <c r="R268" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>471</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>26.840000416643882</v>
       </c>
       <c r="L269" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.3412816483294785E-2</v>
       </c>
       <c r="M269" s="10">
@@ -22234,11 +22234,11 @@
         <v>2.0061836896072522</v>
       </c>
       <c r="R269" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="35" t="s">
         <v>265</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>3.6800000262024222</v>
       </c>
       <c r="L270" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.989130413499332E-3</v>
       </c>
       <c r="M270" s="39">
@@ -22305,11 +22305,11 @@
         <v>0.5467046750204192</v>
       </c>
       <c r="R270" s="36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>351</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>9.5999999832827143</v>
       </c>
       <c r="L271" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.1250000054418248E-2</v>
       </c>
       <c r="M271" s="10">
@@ -22376,11 +22376,11 @@
         <v>0.57674632378549762</v>
       </c>
       <c r="R271" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>373</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>16.960001510335797</v>
       </c>
       <c r="L272" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>9.7287727185310317E-3</v>
       </c>
       <c r="M272" s="10">
@@ -22447,11 +22447,11 @@
         <v>0.84704665792266165</v>
       </c>
       <c r="R272" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>423</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>7.2399992437642826</v>
       </c>
       <c r="L273" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4917128629953796E-2</v>
       </c>
       <c r="M273" s="10">
@@ -22518,11 +22518,11 @@
         <v>5.3028724045897979</v>
       </c>
       <c r="R273" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>23</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>6.8900002076792237</v>
       </c>
       <c r="L274" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>7.2568938306086976E-3</v>
       </c>
       <c r="M274" s="10">
@@ -22589,11 +22589,11 @@
         <v>0.52282881175969809</v>
       </c>
       <c r="R274" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>271</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>12.880001516142176</v>
       </c>
       <c r="L275" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>9.3167690896314784E-3</v>
       </c>
       <c r="M275" s="10">
@@ -22660,11 +22660,11 @@
         <v>2.9147833338071281</v>
       </c>
       <c r="R275" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
         <v>289</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>26.94</v>
       </c>
       <c r="L276" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4142538975501114E-2</v>
       </c>
       <c r="M276" s="31">
@@ -22729,11 +22729,11 @@
         <v>10.082906181644583</v>
       </c>
       <c r="R276" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>151</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>7.5100005706170574</v>
       </c>
       <c r="L277" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.3315578215965905E-2</v>
       </c>
       <c r="M277" s="10">
@@ -22800,11 +22800,11 @@
         <v>6.5822216560774978</v>
       </c>
       <c r="R277" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>395</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>10.060002147194133</v>
       </c>
       <c r="L278" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.9642134387351779E-3</v>
       </c>
       <c r="M278" s="10">
@@ -22871,11 +22871,11 @@
         <v>9.1752786382017639</v>
       </c>
       <c r="R278" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>584</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>8.1100007381796484</v>
       </c>
       <c r="L279" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.9913684083640838E-3</v>
       </c>
       <c r="M279" s="10">
@@ -22942,11 +22942,11 @@
         <v>3.2918822184493037</v>
       </c>
       <c r="R279" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>31</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>88.899999001881852</v>
       </c>
       <c r="L280" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>8.9988752416416285E-3</v>
       </c>
       <c r="M280" s="10">
@@ -23013,11 +23013,11 @@
         <v>0.6112735497564562</v>
       </c>
       <c r="R280" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>411</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>8.3900000622463438</v>
       </c>
       <c r="L281" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.0989272714068067E-2</v>
       </c>
       <c r="M281" s="10">
@@ -23084,11 +23084,11 @@
         <v>4.0653303306268338</v>
       </c>
       <c r="R281" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
         <v>25</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>61.38</v>
       </c>
       <c r="L282" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4662756598240468E-2</v>
       </c>
       <c r="M282" s="31">
@@ -23153,11 +23153,11 @@
         <v>1.1703536463883042</v>
       </c>
       <c r="R282" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>130</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>16.980000127084203</v>
       </c>
       <c r="L283" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.7642814944515718E-3</v>
       </c>
       <c r="M283" s="10">
@@ -23224,11 +23224,11 @@
         <v>2.5570482962112844</v>
       </c>
       <c r="R283" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>217</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>6.5400006769487664</v>
       </c>
       <c r="L284" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.3853208540152892E-2</v>
       </c>
       <c r="M284" s="10">
@@ -23295,11 +23295,11 @@
         <v>2.8507064712541226</v>
       </c>
       <c r="R284" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>477</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>5.1200009956578247</v>
       </c>
       <c r="L285" s="6">
-        <f t="shared" ref="L285:L316" si="14">J285/K285</f>
+        <f t="shared" ref="L285:L295" si="24">J285/K285</f>
         <v>1.1718747721120535E-2</v>
       </c>
       <c r="M285" s="10">
@@ -23366,11 +23366,11 @@
         <v>6.3980234348351166</v>
       </c>
       <c r="R285" s="6">
-        <f t="shared" ref="R285:R316" si="15">P285/Q285</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R285:R295" si="25">P285/Q285</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>102</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>9.769999852089315</v>
       </c>
       <c r="L286" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5353122033868044E-2</v>
       </c>
       <c r="M286" s="10">
@@ -23437,11 +23437,11 @@
         <v>0.80132199431548856</v>
       </c>
       <c r="R286" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>377</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>9.7200002840840316</v>
       </c>
       <c r="L287" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.6460904868695451E-2</v>
       </c>
       <c r="M287" s="10">
@@ -23508,11 +23508,11 @@
         <v>0.60426070158509582</v>
       </c>
       <c r="R287" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
         <v>540</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>51.85</v>
       </c>
       <c r="L288" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.1128254580520733E-2</v>
       </c>
       <c r="M288" s="31">
@@ -23577,11 +23577,11 @@
         <v>78.593962124097786</v>
       </c>
       <c r="R288" s="28">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>225</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>6.0073114617859069</v>
       </c>
       <c r="L289" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.8298849007815697E-2</v>
       </c>
       <c r="M289" s="10">
@@ -23648,11 +23648,11 @@
         <v>5.849999586724385</v>
       </c>
       <c r="R289" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7094018301630928E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>435</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>13.210003159763282</v>
       </c>
       <c r="L290" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.2112033438973616E-2</v>
       </c>
       <c r="M290" s="10">
@@ -23719,11 +23719,11 @@
         <v>9.9673833649166941</v>
       </c>
       <c r="R290" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>495</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>14.620002418357034</v>
       </c>
       <c r="L291" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.3679888298026396E-2</v>
       </c>
       <c r="M291" s="10">
@@ -23790,11 +23790,11 @@
         <v>23.332036162952985</v>
       </c>
       <c r="R291" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>489</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>8.3100028663351306</v>
       </c>
       <c r="L292" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.7761712928468475E-3</v>
       </c>
       <c r="M292" s="10">
@@ -23861,11 +23861,11 @@
         <v>5.8367286318499962</v>
       </c>
       <c r="R292" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>443</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>8.8399996366008011</v>
       </c>
       <c r="L293" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.2443439425558363E-2</v>
       </c>
       <c r="M293" s="10">
@@ -23932,11 +23932,11 @@
         <v>4.3512272373436662</v>
       </c>
       <c r="R293" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>445</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>20.549993656010781</v>
       </c>
       <c r="L294" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.4330907754502019E-2</v>
       </c>
       <c r="M294" s="10">
@@ -24003,11 +24003,11 @@
         <v>19.326510020482026</v>
       </c>
       <c r="R294" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="35" t="s">
         <v>355</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>26.030011071536496</v>
       </c>
       <c r="L295" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.1467511312339809E-4</v>
       </c>
       <c r="M295" s="39">
@@ -24074,11 +24074,11 @@
         <v>3.3140303860424338</v>
       </c>
       <c r="R295" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -24087,7 +24087,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -24096,7 +24096,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>622</v>
       </c>
@@ -24110,7 +24110,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -24119,14 +24119,14 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="E300" s="3"/>
       <c r="F300" s="13"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>607</v>
       </c>
@@ -24134,7 +24134,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="14"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>599</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="27" t="s">
         <v>597</v>
       </c>
@@ -24231,7 +24231,7 @@
         <v>11.71</v>
       </c>
       <c r="L303" s="28">
-        <f t="shared" ref="L303:L337" si="16">J303/K303</f>
+        <f t="shared" ref="L303:L337" si="26">J303/K303</f>
         <v>1.161400512382579E-2</v>
       </c>
       <c r="M303" s="31">
@@ -24255,11 +24255,11 @@
         <v>0.46092143028886479</v>
       </c>
       <c r="R303" s="28">
-        <f t="shared" ref="R303:R337" si="17">P303/Q303</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R303:R337" si="27">P303/Q303</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>17</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>6.82245073441144</v>
       </c>
       <c r="L304" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.6643723748569806E-2</v>
       </c>
       <c r="M304" s="10">
@@ -24326,11 +24326,11 @@
         <v>7.4400001818850567</v>
       </c>
       <c r="R304" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.016128982969928E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>407</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>17.910004284490149</v>
       </c>
       <c r="L305" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0552761294628598E-2</v>
       </c>
       <c r="M305" s="10">
@@ -24397,11 +24397,11 @@
         <v>22.222486696922573</v>
       </c>
       <c r="R305" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>365</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>5.48</v>
       </c>
       <c r="L306" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0036496350364963E-2</v>
       </c>
       <c r="M306" s="31">
@@ -24466,11 +24466,11 @@
         <v>6.3299999337607042</v>
       </c>
       <c r="R306" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.3696682712425208E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>319</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>23.660001416009404</v>
       </c>
       <c r="L307" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4370244279442052E-2</v>
       </c>
       <c r="M307" s="10">
@@ -24537,11 +24537,11 @@
         <v>7.6691069228699682</v>
       </c>
       <c r="R307" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>325</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>11.380000007287034</v>
       </c>
       <c r="L308" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.7873462158142637E-3</v>
       </c>
       <c r="M308" s="10">
@@ -24608,11 +24608,11 @@
         <v>1.4683376486752595</v>
       </c>
       <c r="R308" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>536</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>6.799999453374709</v>
       </c>
       <c r="L309" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.1617649600442194E-2</v>
       </c>
       <c r="M309" s="10">
@@ -24679,11 +24679,11 @@
         <v>8.3988237214692987</v>
       </c>
       <c r="R309" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>588</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>6.4399977921637594</v>
       </c>
       <c r="L310" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.055902697273516E-3</v>
       </c>
       <c r="M310" s="10">
@@ -24750,11 +24750,11 @@
         <v>19.449985938185844</v>
       </c>
       <c r="R310" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>263</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>12.840000175591259</v>
       </c>
       <c r="L311" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.1152647549055095E-2</v>
       </c>
       <c r="M311" s="10">
@@ -24821,11 +24821,11 @@
         <v>1.0400949892060938</v>
       </c>
       <c r="R311" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>405</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>17.120006006326395</v>
       </c>
       <c r="L312" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2441584420080788E-2</v>
       </c>
       <c r="M312" s="10">
@@ -24892,11 +24892,11 @@
         <v>12.684412990261452</v>
       </c>
       <c r="R312" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>227</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>8.2100013257945026</v>
       </c>
       <c r="L313" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2180265998961061E-2</v>
       </c>
       <c r="M313" s="10">
@@ -24963,11 +24963,11 @@
         <v>2.3276392159215322</v>
       </c>
       <c r="R313" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>505</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>5.0600004995853443</v>
       </c>
       <c r="L314" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.9762843898571705E-2</v>
       </c>
       <c r="M314" s="10">
@@ -25034,11 +25034,11 @@
         <v>5.3039310705447811</v>
       </c>
       <c r="R314" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>381</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>14.769999944313408</v>
       </c>
       <c r="L315" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4895057605244077E-2</v>
       </c>
       <c r="M315" s="10">
@@ -25105,11 +25105,11 @@
         <v>0.69953405969206972</v>
       </c>
       <c r="R315" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>527</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>7.8799971958576585</v>
       </c>
       <c r="L316" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.3959395830473722E-2</v>
       </c>
       <c r="M316" s="10">
@@ -25176,11 +25176,11 @@
         <v>4.7514634117844077</v>
       </c>
       <c r="R316" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>429</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>24.539998032077147</v>
       </c>
       <c r="L317" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6299919807538088E-2</v>
       </c>
       <c r="M317" s="10">
@@ -25247,11 +25247,11 @@
         <v>31.270294204467188</v>
       </c>
       <c r="R317" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>359</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>13.790000121836755</v>
       </c>
       <c r="L318" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.7984046251550555E-2</v>
       </c>
       <c r="M318" s="10">
@@ -25318,11 +25318,11 @@
         <v>0.35988270693811364</v>
       </c>
       <c r="R318" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>469</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>35.089994793016217</v>
       </c>
       <c r="L319" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.9948706294459679E-2</v>
       </c>
       <c r="M319" s="10">
@@ -25389,11 +25389,11 @@
         <v>39.624077158780104</v>
       </c>
       <c r="R319" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>401</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>16.18999951937403</v>
       </c>
       <c r="L320" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>9.2649786567627762E-3</v>
       </c>
       <c r="M320" s="10">
@@ -25460,11 +25460,11 @@
         <v>13.880477934461842</v>
       </c>
       <c r="R320" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>459</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>8.0400007730027259</v>
       </c>
       <c r="L321" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.8656714624167754E-2</v>
       </c>
       <c r="M321" s="10">
@@ -25531,11 +25531,11 @@
         <v>6.4897291084003115</v>
       </c>
       <c r="R321" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>379</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>14.729999915593593</v>
       </c>
       <c r="L322" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2219959336825719E-2</v>
       </c>
       <c r="M322" s="10">
@@ -25602,11 +25602,11 @@
         <v>1.5535671798535364</v>
       </c>
       <c r="R322" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>163</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>48.48997652647094</v>
       </c>
       <c r="L323" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.6708617481559067E-3</v>
       </c>
       <c r="M323" s="10">
@@ -25673,11 +25673,11 @@
         <v>25.143152961260771</v>
       </c>
       <c r="R323" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>513</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>3.6999992086484963</v>
       </c>
       <c r="L324" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6216219684521575E-2</v>
       </c>
       <c r="M324" s="10">
@@ -25744,11 +25744,11 @@
         <v>7.5449403640758943</v>
       </c>
       <c r="R324" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>461</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>8.5899982804688904</v>
       </c>
       <c r="L325" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0244472365039456E-2</v>
       </c>
       <c r="M325" s="10">
@@ -25815,11 +25815,11 @@
         <v>7.2077754880394584</v>
       </c>
       <c r="R325" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="35" t="s">
         <v>487</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>19.649998111568529</v>
       </c>
       <c r="L326" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.5445295066244072E-2</v>
       </c>
       <c r="M326" s="39">
@@ -25886,11 +25886,11 @@
         <v>18.497844992274995</v>
       </c>
       <c r="R326" s="36">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>77</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>7.8400002668204758</v>
       </c>
       <c r="L327" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.3775508033595482E-2</v>
       </c>
       <c r="M327" s="10">
@@ -25957,11 +25957,11 @@
         <v>0.96509534006553566</v>
       </c>
       <c r="R327" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>273</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>28.640001380192686</v>
       </c>
       <c r="L328" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2220669802134109E-2</v>
       </c>
       <c r="M328" s="10">
@@ -26028,11 +26028,11 @@
         <v>1.8172046610195991</v>
       </c>
       <c r="R328" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>455</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>60.809978179473354</v>
       </c>
       <c r="L329" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.8934414115942875E-3</v>
       </c>
       <c r="M329" s="10">
@@ -26099,11 +26099,11 @@
         <v>25.37092016604327</v>
       </c>
       <c r="R329" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>259</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>6.6499970223938041</v>
       </c>
       <c r="L330" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.3684243519197001E-3</v>
       </c>
       <c r="M330" s="10">
@@ -26170,11 +26170,11 @@
         <v>5.3890996086469691</v>
       </c>
       <c r="R330" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>441</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>5.2599999100886849</v>
       </c>
       <c r="L331" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.8022814338152327E-3</v>
       </c>
       <c r="M331" s="10">
@@ -26241,11 +26241,11 @@
         <v>2.3444799330245529</v>
       </c>
       <c r="R331" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>493</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>9.9999967067871136</v>
       </c>
       <c r="L332" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.1000006915749343E-2</v>
       </c>
       <c r="M332" s="10">
@@ -26312,11 +26312,11 @@
         <v>2.9664711375256019</v>
       </c>
       <c r="R332" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>453</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>4.99999841502179</v>
       </c>
       <c r="L333" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6000005071931882E-2</v>
       </c>
       <c r="M333" s="10">
@@ -26383,11 +26383,11 @@
         <v>4.8896577794296778</v>
       </c>
       <c r="R333" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>247</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>32.359999413679944</v>
       </c>
       <c r="L334" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.4165637932163192E-3</v>
       </c>
       <c r="M334" s="10">
@@ -26454,11 +26454,11 @@
         <v>1.5775673947418083</v>
       </c>
       <c r="R334" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>229</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>16.810001508000571</v>
       </c>
       <c r="L335" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.082093804890027E-2</v>
       </c>
       <c r="M335" s="10">
@@ -26525,11 +26525,11 @@
         <v>0.95152177009638661</v>
       </c>
       <c r="R335" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>73</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>9.8800002692343813</v>
       </c>
       <c r="L336" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.0607286070321724E-3</v>
       </c>
       <c r="M336" s="10">
@@ -26596,11 +26596,11 @@
         <v>1.1408918724312043</v>
       </c>
       <c r="R336" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>343</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>20.929995121939854</v>
       </c>
       <c r="L337" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6244628726339031E-2</v>
       </c>
       <c r="M337" s="10">
@@ -26667,25 +26667,25 @@
         <v>3.7277116335473077</v>
       </c>
       <c r="R337" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="E338" s="3"/>
       <c r="F338" s="13"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="E339" s="3"/>
       <c r="F339" s="13"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
         <v>622</v>
       </c>
@@ -26698,28 +26698,28 @@
       <c r="E340" s="3"/>
       <c r="F340" s="13"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="E341" s="3"/>
       <c r="F341" s="13"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="E342" s="3"/>
       <c r="F342" s="13"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="E343" s="3"/>
       <c r="F343" s="13"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>620</v>
       </c>
@@ -26727,7 +26727,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="14"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>599</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>209</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>231</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>8.0693094526056228</v>
       </c>
       <c r="L347" s="6">
-        <f t="shared" ref="L347:L351" si="18">J347/K347</f>
+        <f t="shared" ref="L347:L351" si="28">J347/K347</f>
         <v>1.2392634163721343E-3</v>
       </c>
       <c r="M347" s="10">
@@ -26921,11 +26921,11 @@
         <v>7.8000000061377728</v>
       </c>
       <c r="R347" s="6">
-        <f t="shared" ref="R347:R351" si="19">P347/Q347</f>
+        <f t="shared" ref="R347:R351" si="29">P347/Q347</f>
         <v>2.5641025620848873E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>116</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>11.489999513132332</v>
       </c>
       <c r="L348" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.7406441120507692E-2</v>
       </c>
       <c r="M348" s="10">
@@ -26992,11 +26992,11 @@
         <v>19.385916324169813</v>
       </c>
       <c r="R348" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>385</v>
       </c>
@@ -27039,7 +27039,7 @@
         <v>7.5800000304208766</v>
       </c>
       <c r="L349" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.6649076410199438E-2</v>
       </c>
       <c r="M349" s="10">
@@ -27063,11 +27063,11 @@
         <v>0.29302460737890096</v>
       </c>
       <c r="R349" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>11</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>4.6099999766047324</v>
       </c>
       <c r="L350" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.2537961119573598E-2</v>
       </c>
       <c r="M350" s="10">
@@ -27134,11 +27134,11 @@
         <v>0.37139987616515358</v>
       </c>
       <c r="R350" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>0</v>
       </c>
@@ -27181,7 +27181,7 @@
         <v>23.219999968463235</v>
       </c>
       <c r="L351" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.4022394533719046E-2</v>
       </c>
       <c r="M351" s="10">
@@ -27205,11 +27205,11 @@
         <v>0.10619078047710907</v>
       </c>
       <c r="R351" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="35" t="s">
         <v>47</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="19" t="s">
         <v>622</v>
       </c>
@@ -27289,7 +27289,7 @@
         <v>6.1793303513312292</v>
       </c>
     </row>
-    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="26" t="s">
         <v>636</v>
       </c>
@@ -27308,7 +27308,7 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
     </row>
-    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>620</v>
       </c>
@@ -27327,7 +27327,7 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
     </row>
-    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>599</v>
       </c>
@@ -27364,7 +27364,7 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
     </row>
-    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>449</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>55.669991704590622</v>
       </c>
       <c r="I363" s="6">
-        <f t="shared" ref="I363:I365" si="20">G363/H363</f>
+        <f t="shared" ref="I363:I365" si="30">G363/H363</f>
         <v>8.9814994522222878E-3</v>
       </c>
       <c r="K363" s="1"/>
@@ -27407,7 +27407,7 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
     </row>
-    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>501</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>7.9599975292938447</v>
       </c>
       <c r="I364" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>8.7010077258333346E-3</v>
       </c>
       <c r="K364" s="1"/>
@@ -27450,7 +27450,7 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
     </row>
-    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>225</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>5.849999586724385</v>
       </c>
       <c r="I365" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.7094018301630928E-2</v>
       </c>
       <c r="K365" s="1"/>
@@ -27493,7 +27493,7 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
     </row>
-    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -27512,7 +27512,7 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
     </row>
-    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>622</v>
       </c>
@@ -27534,7 +27534,7 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
     </row>
-    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>632</v>
       </c>
@@ -27553,7 +27553,7 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>599</v>
       </c>
@@ -27590,7 +27590,7 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>215</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>8.0400000119605384</v>
       </c>
       <c r="I372" s="6">
-        <f t="shared" ref="I372:I374" si="21">G372/H372</f>
+        <f t="shared" ref="I372:I374" si="31">G372/H372</f>
         <v>1.4925373112124938E-2</v>
       </c>
       <c r="K372" s="1"/>
@@ -27633,7 +27633,7 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>17</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>7.4400001818850567</v>
       </c>
       <c r="I373" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>2.016128982969928E-2</v>
       </c>
       <c r="K373" s="1"/>
@@ -27676,7 +27676,7 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>457</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>8.819996980451366</v>
       </c>
       <c r="I374" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>8.2766468244600457E-3</v>
       </c>
       <c r="K374" s="1"/>
@@ -27719,7 +27719,7 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
     </row>
-    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>622</v>
       </c>
@@ -27741,7 +27741,7 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
     </row>
-    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>633</v>
       </c>
@@ -27760,7 +27760,7 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
     </row>
-    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>599</v>
       </c>
@@ -27797,7 +27797,7 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
     </row>
-    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>231</v>
       </c>
@@ -27828,7 +27828,7 @@
         <v>7.8000000061377728</v>
       </c>
       <c r="I382" s="6">
-        <f t="shared" ref="I382" si="22">G382/H382</f>
+        <f t="shared" ref="I382" si="32">G382/H382</f>
         <v>2.5641025620848873E-3</v>
       </c>
       <c r="K382" s="1"/>
@@ -27840,7 +27840,7 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="19" t="s">
         <v>622</v>
       </c>
@@ -27862,7 +27862,7 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>634</v>
       </c>
@@ -27881,7 +27881,7 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>599</v>
       </c>
@@ -27918,7 +27918,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
     </row>
-    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>365</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>6.3299999337607042</v>
       </c>
       <c r="I389" s="6">
-        <f t="shared" ref="I389:I391" si="23">G389/H389</f>
+        <f t="shared" ref="I389:I391" si="33">G389/H389</f>
         <v>2.3696682712425208E-3</v>
       </c>
       <c r="K389" s="1"/>
@@ -27961,7 +27961,7 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
     </row>
-    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>4</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>10.290000141990662</v>
       </c>
       <c r="I390" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>2.9154518548137084E-3</v>
       </c>
       <c r="K390" s="1"/>
@@ -28004,7 +28004,7 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
     </row>
-    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>558</v>
       </c>
@@ -28035,7 +28035,7 @@
         <v>15.706584301842726</v>
       </c>
       <c r="I391" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.1833783233273641E-2</v>
       </c>
       <c r="K391" s="1"/>
@@ -28047,7 +28047,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
     </row>
-    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -28066,7 +28066,7 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
     </row>
-    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
         <v>622</v>
       </c>
@@ -28088,7 +28088,7 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
     </row>
-    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="20" t="s">
         <v>637</v>
       </c>
@@ -28114,7 +28114,7 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
     </row>
-    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
         <v>623</v>
       </c>
@@ -28145,7 +28145,7 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
     </row>
-    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
         <v>624</v>
       </c>
@@ -28157,7 +28157,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="17">
-        <f t="shared" ref="D401:D409" si="24">B401+C401</f>
+        <f t="shared" ref="D401:D409" si="34">B401+C401</f>
         <v>0.10121715820136296</v>
       </c>
       <c r="E401" s="17">
@@ -28177,20 +28177,20 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
     </row>
-    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
         <v>626</v>
       </c>
       <c r="B402" s="17">
         <f>D84</f>
-        <v>9.8659267386428304</v>
+        <v>9.8675448160356041</v>
       </c>
       <c r="C402" s="17">
         <v>0</v>
       </c>
       <c r="D402" s="17">
         <f>B402+C402</f>
-        <v>9.8659267386428304</v>
+        <v>9.8675448160356041</v>
       </c>
       <c r="E402" s="17">
         <f>SUM(D34:D42)</f>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="F402" s="15">
         <f>D400:D402-E400:E402</f>
-        <v>6.7100450768253772</v>
+        <v>6.7116631542181509</v>
       </c>
       <c r="G402" s="14"/>
       <c r="H402" s="6"/>
@@ -28212,7 +28212,7 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
     </row>
-    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
         <v>627</v>
       </c>
@@ -28224,13 +28224,13 @@
         <v>0</v>
       </c>
       <c r="D403" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>19.424987032965539</v>
       </c>
       <c r="E403" s="17"/>
       <c r="F403" s="15">
         <f>SUM(D400:D403)-SUM(E400:E402)</f>
-        <v>26.135032109790917</v>
+        <v>26.136650187183694</v>
       </c>
       <c r="G403" s="14"/>
       <c r="H403" s="6"/>
@@ -28245,7 +28245,7 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
     </row>
-    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
         <v>628</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="D404" s="17">
-        <f t="shared" si="24"/>
+        <f>B404+C404</f>
         <v>30.916038825560133</v>
       </c>
       <c r="E404" s="17"/>
@@ -28274,7 +28274,7 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
     </row>
-    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
         <v>629</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>7.3474053037460179</v>
       </c>
       <c r="E405" s="17"/>
@@ -28303,7 +28303,7 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
     </row>
-    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
         <v>630</v>
       </c>
@@ -28322,7 +28322,7 @@
       <c r="E406" s="17"/>
       <c r="F406" s="15">
         <f>SUM(D400:D406)-SUM(E401:E402)</f>
-        <v>73.278129005907402</v>
+        <v>73.27974708330018</v>
       </c>
       <c r="G406" s="14"/>
       <c r="H406" s="6"/>
@@ -28337,7 +28337,7 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
     </row>
-    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
         <v>641</v>
       </c>
@@ -28349,7 +28349,7 @@
         <v>1.2631880669121895</v>
       </c>
       <c r="D407" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>1.2631880669121895</v>
       </c>
       <c r="E407" s="17"/>
@@ -28366,7 +28366,7 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
     </row>
-    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
         <v>640</v>
       </c>
@@ -28378,7 +28378,7 @@
         <v>3.2293018211511898E-2</v>
       </c>
       <c r="D408" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>3.2293018211511898E-2</v>
       </c>
       <c r="E408" s="17"/>
@@ -28395,7 +28395,7 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
     </row>
-    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
         <v>642</v>
       </c>
@@ -28407,13 +28407,13 @@
         <v>0.16279016962683279</v>
       </c>
       <c r="D409" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.16279016962683279</v>
       </c>
       <c r="E409" s="17"/>
       <c r="F409" s="15">
         <f>SUM(D400:D409)-SUM(E400:E409)</f>
-        <v>74.736400260657945</v>
+        <v>74.738018338050722</v>
       </c>
       <c r="G409" s="14"/>
       <c r="H409" s="6"/>
@@ -28446,9 +28446,9 @@
       <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>2</v>
       </c>
@@ -28456,7 +28456,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3</v>
       </c>
@@ -28464,7 +28464,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>6</v>
       </c>
@@ -28488,7 +28488,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>5</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>9</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>10</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>11</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>12</v>
       </c>

--- a/沪深300分红_数据.xlsx
+++ b/沪深300分红_数据.xlsx
@@ -5383,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D409" sqref="D402:D409"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="F3" s="25" t="str">
         <f>[1]!s_div_progress(A3,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G3" s="25">
         <f>[1]!s_div_recorddate(A3,"2016/12/31")</f>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="D46" s="37">
         <f>C46*L46*[1]!s_dq_close("000300.SH",I46,1)</f>
-        <v>2.6778453777777777E-2</v>
+        <v>2.7154477932355984E-2</v>
       </c>
       <c r="E46" s="25" t="str">
         <f>[1]!s_div_ifdiv(A46,"2017/12/31")</f>
@@ -7529,11 +7529,11 @@
       </c>
       <c r="K46" s="38">
         <f>[1]!s_dq_close(A46,I46,3)</f>
-        <v>20.79</v>
+        <v>20.739999430036431</v>
       </c>
       <c r="L46" s="36">
         <f t="shared" si="2"/>
-        <v>5.772005772005772E-3</v>
+        <v>5.7859210847523738E-3</v>
       </c>
       <c r="M46" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A46,"2017/12/31",1)</f>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="Q46" s="38">
         <f>[1]!s_dq_close(A46,O46,3)</f>
-        <v>7.7994988196137616</v>
+        <v>7.7546309239386009</v>
       </c>
       <c r="R46" s="36">
         <f t="shared" si="3"/>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="D47" s="37">
         <f>C47*L47*[1]!s_dq_close("000300.SH",I47,1)</f>
-        <v>9.3835504894674571E-2</v>
+        <v>9.6873230561318802E-2</v>
       </c>
       <c r="E47" s="25" t="str">
         <f>[1]!s_div_ifdiv(A47,"2017/12/31")</f>
@@ -7600,11 +7600,11 @@
       </c>
       <c r="K47" s="38">
         <f>[1]!s_dq_close(A47,I47,3)</f>
-        <v>8.4499999999999993</v>
+        <v>8.2799999227059988</v>
       </c>
       <c r="L47" s="36">
         <f t="shared" si="2"/>
-        <v>2.3668639053254441E-2</v>
+        <v>2.415458959746436E-2</v>
       </c>
       <c r="M47" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A47,"2017/12/31",1)</f>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="Q47" s="38">
         <f>[1]!s_dq_close(A47,O47,3)</f>
-        <v>0.2748646056219079</v>
+        <v>0.26838194732358633</v>
       </c>
       <c r="R47" s="36">
         <f t="shared" si="3"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="D48" s="37">
         <f>C48*L48*[1]!s_dq_close("000300.SH",I48,1)</f>
-        <v>0.45994269533312637</v>
+        <v>0.46404481751550847</v>
       </c>
       <c r="E48" s="25" t="str">
         <f>[1]!s_div_ifdiv(A48,"2017/12/31")</f>
@@ -7671,11 +7671,11 @@
       </c>
       <c r="K48" s="38">
         <f>[1]!s_dq_close(A48,I48,3)</f>
-        <v>22.55</v>
+        <v>22.609999720019189</v>
       </c>
       <c r="L48" s="36">
         <f t="shared" si="2"/>
-        <v>2.7494456762749444E-2</v>
+        <v>2.7421495253316785E-2</v>
       </c>
       <c r="M48" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A48,"2017/12/31",1)</f>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="Q48" s="38">
         <f>[1]!s_dq_close(A48,O48,3)</f>
-        <v>22.226398594693279</v>
+        <v>21.63318407245157</v>
       </c>
       <c r="R48" s="36">
         <f t="shared" si="3"/>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D49" s="37">
         <f>C49*L49*[1]!s_dq_close("000300.SH",I49,1)</f>
-        <v>0.12334243520220586</v>
+        <v>0.12719641662707165</v>
       </c>
       <c r="E49" s="25" t="str">
         <f>[1]!s_div_ifdiv(A49,"2017/12/31")</f>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="K49" s="38">
         <f>[1]!s_dq_close(A49,I49,3)</f>
-        <v>8.16</v>
+        <v>7.9899970215332123</v>
       </c>
       <c r="L49" s="36">
         <f t="shared" si="2"/>
-        <v>1.8382352941176471E-2</v>
+        <v>1.87734738318108E-2</v>
       </c>
       <c r="M49" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A49,"2017/12/31",1)</f>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="Q49" s="38">
         <f>[1]!s_dq_close(A49,O49,3)</f>
-        <v>6.8835564479724871</v>
+        <v>6.7567070659528143</v>
       </c>
       <c r="R49" s="36">
         <f t="shared" si="3"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D50" s="37">
         <f>C50*L50*[1]!s_dq_close("000300.SH",I50,1)</f>
-        <v>3.8564148750724642E-2</v>
+        <v>4.0442534190290778E-2</v>
       </c>
       <c r="E50" s="25" t="str">
         <f>[1]!s_div_ifdiv(A50,"2017/12/31")</f>
@@ -7813,11 +7813,11 @@
       </c>
       <c r="K50" s="38">
         <f>[1]!s_dq_close(A50,I50,3)</f>
-        <v>11.04</v>
+        <v>10.630000330474077</v>
       </c>
       <c r="L50" s="36">
         <f t="shared" si="2"/>
-        <v>7.2463768115942039E-3</v>
+        <v>7.5258699447690574E-3</v>
       </c>
       <c r="M50" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A50,"2017/12/31",1)</f>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="Q50" s="38">
         <f>[1]!s_dq_close(A50,O50,3)</f>
-        <v>7.6260326760150354</v>
+        <v>7.5690690818156794</v>
       </c>
       <c r="R50" s="36">
         <f t="shared" si="3"/>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="D51" s="37">
         <f>C51*L51*[1]!s_dq_close("000300.SH",I51,1)</f>
-        <v>6.3924080178688517E-2</v>
+        <v>6.4680622530470536E-2</v>
       </c>
       <c r="E51" s="25" t="str">
         <f>[1]!s_div_ifdiv(A51,"2017/12/31")</f>
@@ -7884,11 +7884,11 @@
       </c>
       <c r="K51" s="38">
         <f>[1]!s_dq_close(A51,I51,3)</f>
-        <v>4.88</v>
+        <v>4.8699997054544193</v>
       </c>
       <c r="L51" s="36">
         <f t="shared" si="2"/>
-        <v>1.6393442622950821E-2</v>
+        <v>1.6427105716330881E-2</v>
       </c>
       <c r="M51" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A51,"2017/12/31",1)</f>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="Q51" s="38">
         <f>[1]!s_dq_close(A51,O51,3)</f>
-        <v>2.3814025312586429</v>
+        <v>2.3429150759187873</v>
       </c>
       <c r="R51" s="36">
         <f t="shared" si="3"/>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D52" s="37">
         <f>C52*L52*[1]!s_dq_close("000300.SH",I52,1)</f>
-        <v>0.1433861432740926</v>
+        <v>0.14589196795659409</v>
       </c>
       <c r="E52" s="25" t="str">
         <f>[1]!s_div_ifdiv(A52,"2017/12/31")</f>
@@ -7955,11 +7955,11 @@
       </c>
       <c r="K52" s="38">
         <f>[1]!s_dq_close(A52,I52,3)</f>
-        <v>23.97</v>
+        <v>23.919999815468042</v>
       </c>
       <c r="L52" s="36">
         <f t="shared" si="2"/>
-        <v>8.343763037129746E-3</v>
+        <v>8.3612040778808256E-3</v>
       </c>
       <c r="M52" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A52,"2017/12/31",1)</f>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="Q52" s="38">
         <f>[1]!s_dq_close(A52,O52,3)</f>
-        <v>1.0073460247262804</v>
+        <v>0.9989932307448216</v>
       </c>
       <c r="R52" s="36">
         <f t="shared" si="3"/>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="D53" s="37">
         <f>C53*L53*[1]!s_dq_close("000300.SH",I53,1)</f>
-        <v>3.2381426508746612E-2</v>
+        <v>4.9190402608870955E-2</v>
       </c>
       <c r="E53" s="25" t="str">
         <f>[1]!s_div_ifdiv(A53,"2017/12/31")</f>
@@ -8026,11 +8026,11 @@
       </c>
       <c r="K53" s="38">
         <f>[1]!s_dq_close(A53,I53,3)</f>
-        <v>55.45</v>
+        <v>36.870000644453512</v>
       </c>
       <c r="L53" s="36">
         <f t="shared" si="2"/>
-        <v>1.8034265103697023E-3</v>
+        <v>2.7122321196661916E-3</v>
       </c>
       <c r="M53" s="39">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A53,"2017/12/31",1)</f>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="Q53" s="38">
         <f>[1]!s_dq_close(A53,O53,3)</f>
-        <v>3.4009743101329506</v>
+        <v>2.263428249212486</v>
       </c>
       <c r="R53" s="36">
         <f t="shared" si="3"/>
@@ -8077,11 +8077,11 @@
       </c>
       <c r="F54" s="24" t="str">
         <f>[1]!s_div_progress(A54,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G54" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G54" s="24" t="str">
         <f>[1]!s_div_exdate(A54,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-21</v>
       </c>
       <c r="H54" s="24">
         <f>[1]!s_div_ifdiv(A54,"2018/06/30")</f>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="F58" s="24" t="str">
         <f>[1]!s_div_progress(A58,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G58" s="24">
         <f>[1]!s_div_exdate(A58,"2017/12/31")</f>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="F59" s="24" t="str">
         <f>[1]!s_div_progress(A59,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G59" s="24">
         <f>[1]!s_div_exdate(A59,"2017/12/31")</f>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D63" s="29">
         <f>C63*L63*[1]!s_dq_close("000300.SH",I63,1)</f>
-        <v>0.12673285555525535</v>
+        <v>0.12928179337869658</v>
       </c>
       <c r="E63" s="24" t="str">
         <f>[1]!s_div_ifdiv(A63,"2017/12/31")</f>
@@ -8698,11 +8698,11 @@
       </c>
       <c r="F63" s="24" t="str">
         <f>[1]!s_div_progress(A63,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G63" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G63" s="24" t="str">
         <f>[1]!s_div_exdate(A63,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-15</v>
       </c>
       <c r="H63" s="24">
         <f>[1]!s_div_ifdiv(A63,"2018/06/30")</f>
@@ -8716,11 +8716,11 @@
       </c>
       <c r="K63" s="30">
         <f>[1]!s_dq_close(A63,I63,3)</f>
-        <v>37.01</v>
+        <v>36.280305691310851</v>
       </c>
       <c r="L63" s="28">
         <f t="shared" si="5"/>
-        <v>2.0264793299108349E-2</v>
+        <v>2.0672372674622345E-2</v>
       </c>
       <c r="M63" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A63,"2017/12/31",1)</f>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="Q63" s="30">
         <f>[1]!s_dq_close(A63,O63,3)</f>
-        <v>6.2140048690123955</v>
+        <v>6.09148868454644</v>
       </c>
       <c r="R63" s="28">
         <f t="shared" si="4"/>
@@ -8767,11 +8767,11 @@
       </c>
       <c r="F64" s="24" t="str">
         <f>[1]!s_div_progress(A64,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G64" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G64" s="24" t="str">
         <f>[1]!s_div_exdate(A64,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-21</v>
       </c>
       <c r="H64" s="24">
         <f>[1]!s_div_ifdiv(A64,"2018/06/30")</f>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="F66" s="24" t="str">
         <f>[1]!s_div_progress(A66,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G66" s="24">
         <f>[1]!s_div_exdate(A66,"2017/12/31")</f>
@@ -8974,11 +8974,11 @@
       </c>
       <c r="F67" s="24" t="str">
         <f>[1]!s_div_progress(A67,"20171231")</f>
-        <v>董事会预案</v>
-      </c>
-      <c r="G67" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G67" s="24" t="str">
         <f>[1]!s_div_exdate(A67,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-22</v>
       </c>
       <c r="H67" s="24">
         <f>[1]!s_div_ifdiv(A67,"2018/06/30")</f>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="F68" s="24" t="str">
         <f>[1]!s_div_progress(A68,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G68" s="24">
         <f>[1]!s_div_exdate(A68,"2017/12/31")</f>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="F69" s="25" t="str">
         <f>[1]!s_div_progress(A69,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G69" s="25">
         <f>[1]!s_div_exdate(A69,"2017/12/31")</f>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="F70" s="24" t="str">
         <f>[1]!s_div_progress(A70,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G70" s="24">
         <f>[1]!s_div_exdate(A70,"2017/12/31")</f>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="F71" s="24" t="str">
         <f>[1]!s_div_progress(A71,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G71" s="24">
         <f>[1]!s_div_exdate(A71,"2017/12/31")</f>
@@ -9457,11 +9457,11 @@
       </c>
       <c r="F74" s="24" t="str">
         <f>[1]!s_div_progress(A74,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G74" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G74" s="24" t="str">
         <f>[1]!s_div_exdate(A74,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-22</v>
       </c>
       <c r="H74" s="24">
         <f>[1]!s_div_ifdiv(A74,"2018/06/30")</f>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D78" s="29">
         <f>C78*L78*[1]!s_dq_close("000300.SH",I78,1)</f>
-        <v>0.14936224206102783</v>
+        <v>0.22998930952455413</v>
       </c>
       <c r="E78" s="24" t="str">
         <f>[1]!s_div_ifdiv(A78,"2017/12/31")</f>
@@ -9733,11 +9733,11 @@
       </c>
       <c r="F78" s="24" t="str">
         <f>[1]!s_div_progress(A78,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G78" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G78" s="24" t="str">
         <f>[1]!s_div_exdate(A78,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-16</v>
       </c>
       <c r="H78" s="24">
         <f>[1]!s_div_ifdiv(A78,"2018/06/30")</f>
@@ -9751,11 +9751,11 @@
       </c>
       <c r="K78" s="30">
         <f>[1]!s_dq_close(A78,I78,3)</f>
-        <v>9.34</v>
+        <v>6.0656877649396241</v>
       </c>
       <c r="L78" s="28">
         <f t="shared" si="6"/>
-        <v>2.676659528907923E-2</v>
+        <v>4.1215441626426749E-2</v>
       </c>
       <c r="M78" s="31">
         <f>[1]!s_performanceexpress_perfexnetprofittoshareholder(A78,"2017/12/31",1)</f>
@@ -9775,11 +9775,11 @@
       </c>
       <c r="Q78" s="30">
         <f>[1]!s_dq_close(A78,O78,3)</f>
-        <v>10.290000141990662</v>
+        <v>6.6826475334582192</v>
       </c>
       <c r="R78" s="28">
         <f t="shared" si="7"/>
-        <v>2.9154518548137084E-3</v>
+        <v>4.4892387111243057E-3</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="D84" s="22">
         <f>SUM(D34:D81)</f>
-        <v>9.8675448160356041</v>
+        <v>9.9840404033250163</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f>[1]!s_div_progress(A108,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G108" s="3">
         <f>[1]!s_div_exdate(A108,"2017/12/31")</f>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f>[1]!s_div_progress(A110,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G110" s="3">
         <f>[1]!s_div_exdate(A110,"2017/12/31")</f>
@@ -11524,7 +11524,7 @@
       </c>
       <c r="F111" s="3" t="str">
         <f>[1]!s_div_progress(A111,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G111" s="3">
         <f>[1]!s_div_exdate(A111,"2017/12/31")</f>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="F117" s="3" t="str">
         <f>[1]!s_div_progress(A117,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G117" s="3">
         <f>[1]!s_div_exdate(A117,"2017/12/31")</f>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="F118" s="3" t="str">
         <f>[1]!s_div_progress(A118,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G118" s="3">
         <f>[1]!s_div_exdate(A118,"2017/12/31")</f>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f>[1]!s_div_progress(A121,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G121" s="3">
         <f>[1]!s_div_exdate(A121,"2017/12/31")</f>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f>[1]!s_div_progress(A124,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G124" s="3">
         <f>[1]!s_div_exdate(A124,"2017/12/31")</f>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f>[1]!s_div_progress(A126,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G126" s="3">
         <f>[1]!s_div_exdate(A126,"2017/12/31")</f>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f>[1]!s_div_progress(A127,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G127" s="3">
         <f>[1]!s_div_exdate(A127,"2017/12/31")</f>
@@ -12727,11 +12727,11 @@
       </c>
       <c r="F128" s="3" t="str">
         <f>[1]!s_div_progress(A128,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G128" s="3">
+        <v>实施</v>
+      </c>
+      <c r="G128" s="3" t="str">
         <f>[1]!s_div_exdate(A128,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-21</v>
       </c>
       <c r="H128" s="4">
         <f>[1]!s_div_ifdiv(A128,"2018/06/30")</f>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f>[1]!s_div_progress(A129,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G129" s="3">
         <f>[1]!s_div_exdate(A129,"2017/12/31")</f>
@@ -12869,7 +12869,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f>[1]!s_div_progress(A130,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G130" s="3">
         <f>[1]!s_div_exdate(A130,"2017/12/31")</f>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f>[1]!s_div_progress(A132,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G132" s="3">
         <f>[1]!s_div_exdate(A132,"2017/12/31")</f>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f>[1]!s_div_progress(A135,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G135" s="3">
         <f>[1]!s_div_exdate(A135,"2017/12/31")</f>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f>[1]!s_div_progress(A136,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G136" s="3">
         <f>[1]!s_div_exdate(A136,"2017/12/31")</f>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="F141" s="3" t="str">
         <f>[1]!s_div_progress(A141,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G141" s="3">
         <f>[1]!s_div_exdate(A141,"2017/12/31")</f>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f>[1]!s_div_progress(A143,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G143" s="3">
         <f>[1]!s_div_exdate(A143,"2017/12/31")</f>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="F145" s="25" t="str">
         <f>[1]!s_div_progress(A145,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G145" s="25">
         <f>[1]!s_div_exdate(A145,"2017/12/31")</f>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f>[1]!s_div_progress(A150,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G150" s="3">
         <f>[1]!s_div_exdate(A150,"2017/12/31")</f>
@@ -14667,7 +14667,7 @@
         <v>5.519999235852473</v>
       </c>
       <c r="L155" s="6">
-        <f t="shared" ref="L155:L186" si="12">J155/K155</f>
+        <f t="shared" ref="L155:L166" si="12">J155/K155</f>
         <v>4.1666672434689252E-2</v>
       </c>
       <c r="M155" s="10">
@@ -14691,7 +14691,7 @@
         <v>5.9005478605530435</v>
       </c>
       <c r="R155" s="6">
-        <f t="shared" ref="R155:R186" si="13">P155/Q155</f>
+        <f t="shared" ref="R155:R166" si="13">P155/Q155</f>
         <v>0</v>
       </c>
     </row>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f>[1]!s_div_progress(A162,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G162" s="3">
         <f>[1]!s_div_exdate(A162,"2017/12/31")</f>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f>[1]!s_div_progress(A163,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G163" s="3">
         <f>[1]!s_div_exdate(A163,"2017/12/31")</f>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f>[1]!s_div_progress(A164,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G164" s="3">
         <f>[1]!s_div_exdate(A164,"2017/12/31")</f>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="F169" s="45" t="str">
         <f>[1]!s_div_progress(A169,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G169" s="45">
         <f>[1]!s_div_exdate(A169,"2017/12/31")</f>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="F171" s="45" t="str">
         <f>[1]!s_div_progress(A171,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G171" s="45">
         <f>[1]!s_div_exdate(A171,"2017/12/31")</f>
@@ -16134,7 +16134,7 @@
       </c>
       <c r="F176" s="45" t="str">
         <f>[1]!s_div_progress(A176,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G176" s="45">
         <f>[1]!s_div_exdate(A176,"2017/12/31")</f>
@@ -16347,7 +16347,7 @@
       </c>
       <c r="F179" s="45" t="str">
         <f>[1]!s_div_progress(A179,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G179" s="45">
         <f>[1]!s_div_exdate(A179,"2017/12/31")</f>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F181" s="45" t="str">
         <f>[1]!s_div_progress(A181,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G181" s="45">
         <f>[1]!s_div_exdate(A181,"2017/12/31")</f>
@@ -16943,11 +16943,11 @@
       </c>
       <c r="F195" s="3" t="str">
         <f>[1]!s_div_progress(A195,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G195" s="3">
+        <v>实施</v>
+      </c>
+      <c r="G195" s="3" t="str">
         <f>[1]!s_div_exdate(A195,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-18</v>
       </c>
       <c r="H195" s="4">
         <f>[1]!s_div_ifdiv(A195,"2018/06/30")</f>
@@ -17014,11 +17014,11 @@
       </c>
       <c r="F196" s="3" t="str">
         <f>[1]!s_div_progress(A196,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G196" s="3">
+        <v>实施</v>
+      </c>
+      <c r="G196" s="3" t="str">
         <f>[1]!s_div_exdate(A196,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-18</v>
       </c>
       <c r="H196" s="4">
         <f>[1]!s_div_ifdiv(A196,"2018/06/30")</f>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="F201" s="3" t="str">
         <f>[1]!s_div_progress(A201,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G201" s="3">
+        <v>实施</v>
+      </c>
+      <c r="G201" s="3" t="str">
         <f>[1]!s_div_exdate(A201,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-17</v>
       </c>
       <c r="H201" s="4">
         <f>[1]!s_div_ifdiv(A201,"2018/06/30")</f>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="F214" s="3" t="str">
         <f>[1]!s_div_progress(A214,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G214" s="3">
         <f>[1]!s_div_exdate(A214,"2017/12/31")</f>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="F216" s="3" t="str">
         <f>[1]!s_div_progress(A216,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G216" s="3">
         <f>[1]!s_div_exdate(A216,"2017/12/31")</f>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="F219" s="3" t="str">
         <f>[1]!s_div_progress(A219,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G219" s="3">
         <f>[1]!s_div_exdate(A219,"2017/12/31")</f>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="F223" s="3" t="str">
         <f>[1]!s_div_progress(A223,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G223" s="3">
         <f>[1]!s_div_exdate(A223,"2017/12/31")</f>
@@ -19140,11 +19140,11 @@
       </c>
       <c r="F226" s="24" t="str">
         <f>[1]!s_div_progress(A226,"20171231")</f>
-        <v>股东大会通过</v>
-      </c>
-      <c r="G226" s="24">
+        <v>实施</v>
+      </c>
+      <c r="G226" s="24" t="str">
         <f>[1]!s_div_exdate(A226,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-17</v>
       </c>
       <c r="H226" s="24">
         <f>[1]!s_div_ifdiv(A226,"2018/06/30")</f>
@@ -19351,11 +19351,11 @@
       </c>
       <c r="F229" s="3" t="str">
         <f>[1]!s_div_progress(A229,"20171231")</f>
-        <v>董事会预案</v>
-      </c>
-      <c r="G229" s="3">
+        <v>实施</v>
+      </c>
+      <c r="G229" s="3" t="str">
         <f>[1]!s_div_exdate(A229,"2017/12/31")</f>
-        <v>0</v>
+        <v>2018-05-21</v>
       </c>
       <c r="H229" s="4">
         <f>[1]!s_div_ifdiv(A229,"2018/06/30")</f>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="F230" s="3" t="str">
         <f>[1]!s_div_progress(A230,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G230" s="3">
         <f>[1]!s_div_exdate(A230,"2017/12/31")</f>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="F231" s="3" t="str">
         <f>[1]!s_div_progress(A231,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G231" s="3">
         <f>[1]!s_div_exdate(A231,"2017/12/31")</f>
@@ -20061,7 +20061,7 @@
       </c>
       <c r="F239" s="3" t="str">
         <f>[1]!s_div_progress(A239,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G239" s="3">
         <f>[1]!s_div_exdate(A239,"2017/12/31")</f>
@@ -21195,7 +21195,7 @@
       </c>
       <c r="F255" s="3" t="str">
         <f>[1]!s_div_progress(A255,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G255" s="3">
         <f>[1]!s_div_exdate(A255,"2017/12/31")</f>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="F257" s="3" t="str">
         <f>[1]!s_div_progress(A257,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G257" s="3">
         <f>[1]!s_div_exdate(A257,"2017/12/31")</f>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="F260" s="3" t="str">
         <f>[1]!s_div_progress(A260,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G260" s="3">
         <f>[1]!s_div_exdate(A260,"2017/12/31")</f>
@@ -21690,7 +21690,7 @@
       </c>
       <c r="F262" s="3" t="str">
         <f>[1]!s_div_progress(A262,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G262" s="3">
         <f>[1]!s_div_exdate(A262,"2017/12/31")</f>
@@ -22753,7 +22753,7 @@
       </c>
       <c r="F277" s="3" t="str">
         <f>[1]!s_div_progress(A277,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G277" s="3">
         <f>[1]!s_div_exdate(A277,"2017/12/31")</f>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="F280" s="3" t="str">
         <f>[1]!s_div_progress(A280,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G280" s="3">
         <f>[1]!s_div_exdate(A280,"2017/12/31")</f>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="F283" s="3" t="str">
         <f>[1]!s_div_progress(A283,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G283" s="3">
         <f>[1]!s_div_exdate(A283,"2017/12/31")</f>
@@ -23390,7 +23390,7 @@
       </c>
       <c r="F286" s="3" t="str">
         <f>[1]!s_div_progress(A286,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G286" s="3">
         <f>[1]!s_div_exdate(A286,"2017/12/31")</f>
@@ -23601,7 +23601,7 @@
       </c>
       <c r="F289" s="3" t="str">
         <f>[1]!s_div_progress(A289,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G289" s="3">
         <f>[1]!s_div_exdate(A289,"2017/12/31")</f>
@@ -23743,7 +23743,7 @@
       </c>
       <c r="F291" s="3" t="str">
         <f>[1]!s_div_progress(A291,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G291" s="3">
         <f>[1]!s_div_exdate(A291,"2017/12/31")</f>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="Q303" s="30">
         <f>[1]!s_dq_close(A303,O303,3)</f>
-        <v>0.46092143028886479</v>
+        <v>0.46092137826065072</v>
       </c>
       <c r="R303" s="28">
         <f t="shared" ref="R303:R337" si="27">P303/Q303</f>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="F308" s="3" t="str">
         <f>[1]!s_div_progress(A308,"20171231")</f>
-        <v>董事会预案</v>
+        <v>股东大会通过</v>
       </c>
       <c r="G308" s="3">
         <f>[1]!s_div_exdate(A308,"2017/12/31")</f>
@@ -27973,7 +27973,7 @@
       </c>
       <c r="D390" s="18">
         <f>C390*I390*[1]!s_dq_close("000300.SH",F390,1)</f>
-        <v>1.7139166899941532E-2</v>
+        <v>2.6391041716775084E-2</v>
       </c>
       <c r="E390" s="23" t="str">
         <f>[1]!s_div_ifdiv(A390,"2017/06/30")</f>
@@ -27989,11 +27989,11 @@
       </c>
       <c r="H390" s="14">
         <f>[1]!s_dq_close(A390,F390,3)</f>
-        <v>10.290000141990662</v>
+        <v>6.6826475334582192</v>
       </c>
       <c r="I390" s="6">
         <f t="shared" si="33"/>
-        <v>2.9154518548137084E-3</v>
+        <v>4.4892387111243057E-3</v>
       </c>
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
@@ -28072,7 +28072,7 @@
       </c>
       <c r="D394" s="22">
         <f>SUM(D389:D391)</f>
-        <v>0.16279016962683279</v>
+        <v>0.17204204444366633</v>
       </c>
       <c r="E394" s="1"/>
       <c r="F394" s="15"/>
@@ -28183,14 +28183,14 @@
       </c>
       <c r="B402" s="17">
         <f>D84</f>
-        <v>9.8675448160356041</v>
+        <v>9.9840404033250163</v>
       </c>
       <c r="C402" s="17">
         <v>0</v>
       </c>
       <c r="D402" s="17">
         <f>B402+C402</f>
-        <v>9.8675448160356041</v>
+        <v>9.9840404033250163</v>
       </c>
       <c r="E402" s="17">
         <f>SUM(D34:D42)</f>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="F402" s="15">
         <f>D400:D402-E400:E402</f>
-        <v>6.7116631542181509</v>
+        <v>6.8281587415075631</v>
       </c>
       <c r="G402" s="14"/>
       <c r="H402" s="6"/>
@@ -28230,7 +28230,7 @@
       <c r="E403" s="17"/>
       <c r="F403" s="15">
         <f>SUM(D400:D403)-SUM(E400:E402)</f>
-        <v>26.136650187183694</v>
+        <v>26.253145774473104</v>
       </c>
       <c r="G403" s="14"/>
       <c r="H403" s="6"/>
@@ -28322,7 +28322,7 @@
       <c r="E406" s="17"/>
       <c r="F406" s="15">
         <f>SUM(D400:D406)-SUM(E401:E402)</f>
-        <v>73.27974708330018</v>
+        <v>73.396242670589601</v>
       </c>
       <c r="G406" s="14"/>
       <c r="H406" s="6"/>
@@ -28404,16 +28404,16 @@
       </c>
       <c r="C409" s="17">
         <f>D394</f>
-        <v>0.16279016962683279</v>
+        <v>0.17204204444366633</v>
       </c>
       <c r="D409" s="17">
         <f t="shared" si="34"/>
-        <v>0.16279016962683279</v>
+        <v>0.17204204444366633</v>
       </c>
       <c r="E409" s="17"/>
       <c r="F409" s="15">
         <f>SUM(D400:D409)-SUM(E400:E409)</f>
-        <v>74.738018338050722</v>
+        <v>74.863765800156983</v>
       </c>
       <c r="G409" s="14"/>
       <c r="H409" s="6"/>
